--- a/BackTest/2019-10-25 BackTest LINK.xlsx
+++ b/BackTest/2019-10-25 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>49</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-24.32432432432433</v>
+      </c>
       <c r="L12" t="n">
         <v>3131.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>64</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>11.53846153846154</v>
+      </c>
       <c r="L13" t="n">
         <v>3132.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>76</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-20.68965517241379</v>
+      </c>
       <c r="L14" t="n">
         <v>3131.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>88</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>18.64406779661017</v>
+      </c>
       <c r="L15" t="n">
         <v>3131.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>94</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>26.15384615384616</v>
+      </c>
       <c r="L16" t="n">
         <v>3133.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>102</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>34.24657534246575</v>
+      </c>
       <c r="L17" t="n">
         <v>3135.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>107</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>25.64102564102564</v>
+      </c>
       <c r="L18" t="n">
         <v>3137.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>108</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>24.05063291139241</v>
+      </c>
       <c r="L19" t="n">
         <v>3139.6</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>120</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>27.71084337349398</v>
+      </c>
       <c r="L20" t="n">
         <v>3142.7</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>125</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>39.47368421052632</v>
+      </c>
       <c r="L21" t="n">
         <v>3144.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>127</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20.63492063492063</v>
+      </c>
       <c r="L22" t="n">
         <v>3147.3</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>130</v>
       </c>
       <c r="K23" t="n">
-        <v>13.5593220338983</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L23" t="n">
         <v>3148.3</v>
@@ -1466,7 +1488,7 @@
         <v>130</v>
       </c>
       <c r="K24" t="n">
-        <v>13.5593220338983</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L24" t="n">
         <v>3150.5</v>
@@ -1515,7 +1537,7 @@
         <v>130</v>
       </c>
       <c r="K25" t="n">
-        <v>8.928571428571429</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L25" t="n">
         <v>3151.5</v>
@@ -1564,7 +1586,7 @@
         <v>139</v>
       </c>
       <c r="K26" t="n">
-        <v>10.90909090909091</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L26" t="n">
         <v>3151</v>
@@ -1613,7 +1635,7 @@
         <v>151</v>
       </c>
       <c r="K27" t="n">
-        <v>19.67213114754098</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L27" t="n">
         <v>3150.9</v>
@@ -1662,7 +1684,7 @@
         <v>162</v>
       </c>
       <c r="K28" t="n">
-        <v>9.774436090225564</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L28" t="n">
         <v>3150.2</v>
@@ -1711,7 +1733,7 @@
         <v>164</v>
       </c>
       <c r="K29" t="n">
-        <v>8.148148148148149</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L29" t="n">
         <v>3149.4</v>
@@ -1760,7 +1782,7 @@
         <v>175</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="L30" t="n">
         <v>3146.3</v>
@@ -1809,7 +1831,7 @@
         <v>176</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.474820143884892</v>
+        <v>-51.02040816326531</v>
       </c>
       <c r="L31" t="n">
         <v>3143.6</v>
@@ -1860,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-51.02040816326531</v>
       </c>
       <c r="L32" t="n">
         <v>3140.8</v>
@@ -1911,7 +1933,7 @@
         <v>189</v>
       </c>
       <c r="K33" t="n">
-        <v>-4</v>
+        <v>-25.42372881355932</v>
       </c>
       <c r="L33" t="n">
         <v>3139.3</v>
@@ -1962,7 +1984,7 @@
         <v>204</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.25</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L34" t="n">
         <v>3136.3</v>
@@ -2013,7 +2035,7 @@
         <v>206</v>
       </c>
       <c r="K35" t="n">
-        <v>-15.25423728813559</v>
+        <v>-28.35820895522388</v>
       </c>
       <c r="L35" t="n">
         <v>3133.5</v>
@@ -2064,7 +2086,7 @@
         <v>210</v>
       </c>
       <c r="K36" t="n">
-        <v>-24.13793103448276</v>
+        <v>-59.32203389830508</v>
       </c>
       <c r="L36" t="n">
         <v>3131.2</v>
@@ -2115,7 +2137,7 @@
         <v>210</v>
       </c>
       <c r="K37" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L37" t="n">
         <v>3127.7</v>
@@ -2166,7 +2188,7 @@
         <v>225</v>
       </c>
       <c r="K38" t="n">
-        <v>-38.98305084745763</v>
+        <v>-60.65573770491803</v>
       </c>
       <c r="L38" t="n">
         <v>3123.8</v>
@@ -2217,7 +2239,7 @@
         <v>245</v>
       </c>
       <c r="K39" t="n">
-        <v>-18.24817518248175</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L39" t="n">
         <v>3122.1</v>
@@ -2268,7 +2290,7 @@
         <v>253</v>
       </c>
       <c r="K40" t="n">
-        <v>-33.83458646616541</v>
+        <v>-16.88311688311688</v>
       </c>
       <c r="L40" t="n">
         <v>3120.7</v>
@@ -2319,7 +2341,7 @@
         <v>253</v>
       </c>
       <c r="K41" t="n">
-        <v>-31.25</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L41" t="n">
         <v>3119.4</v>
@@ -2370,7 +2392,7 @@
         <v>258</v>
       </c>
       <c r="K42" t="n">
-        <v>-25.19083969465649</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L42" t="n">
         <v>3118.9</v>
@@ -2421,7 +2443,7 @@
         <v>258</v>
       </c>
       <c r="K43" t="n">
-        <v>-23.4375</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>3117.4</v>
@@ -2472,7 +2494,7 @@
         <v>258</v>
       </c>
       <c r="K44" t="n">
-        <v>-23.4375</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L44" t="n">
         <v>3117.4</v>
@@ -2523,7 +2545,7 @@
         <v>267</v>
       </c>
       <c r="K45" t="n">
-        <v>-15.32846715328467</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="L45" t="n">
         <v>3118.1</v>
@@ -2574,7 +2596,7 @@
         <v>275</v>
       </c>
       <c r="K46" t="n">
-        <v>-2.941176470588235</v>
+        <v>29.23076923076923</v>
       </c>
       <c r="L46" t="n">
         <v>3120</v>
@@ -2625,7 +2647,7 @@
         <v>287</v>
       </c>
       <c r="K47" t="n">
-        <v>-2.941176470588235</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="L47" t="n">
         <v>3123.1</v>
@@ -2676,7 +2698,7 @@
         <v>291</v>
       </c>
       <c r="K48" t="n">
-        <v>8.527131782945736</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L48" t="n">
         <v>3128.1</v>
@@ -2727,7 +2749,7 @@
         <v>298</v>
       </c>
       <c r="K49" t="n">
-        <v>4.477611940298507</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="L49" t="n">
         <v>3130.4</v>
@@ -2778,7 +2800,7 @@
         <v>316</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.7092198581560284</v>
+        <v>20.63492063492063</v>
       </c>
       <c r="L50" t="n">
         <v>3131.7</v>
@@ -2829,7 +2851,7 @@
         <v>320</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.777777777777778</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="L51" t="n">
         <v>3132.6</v>
@@ -2880,7 +2902,7 @@
         <v>332</v>
       </c>
       <c r="K52" t="n">
-        <v>7.18954248366013</v>
+        <v>21.62162162162162</v>
       </c>
       <c r="L52" t="n">
         <v>3134.2</v>
@@ -2931,7 +2953,7 @@
         <v>333</v>
       </c>
       <c r="K53" t="n">
-        <v>1.388888888888889</v>
+        <v>22.66666666666666</v>
       </c>
       <c r="L53" t="n">
         <v>3135.9</v>
@@ -2982,7 +3004,7 @@
         <v>333</v>
       </c>
       <c r="K54" t="n">
-        <v>13.17829457364341</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="L54" t="n">
         <v>3137.6</v>
@@ -3033,7 +3055,7 @@
         <v>335</v>
       </c>
       <c r="K55" t="n">
-        <v>13.17829457364341</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>3138.6</v>
@@ -3084,7 +3106,7 @@
         <v>346</v>
       </c>
       <c r="K56" t="n">
-        <v>23.52941176470588</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L56" t="n">
         <v>3139.9</v>
@@ -3135,7 +3157,7 @@
         <v>356</v>
       </c>
       <c r="K57" t="n">
-        <v>15.06849315068493</v>
+        <v>-20</v>
       </c>
       <c r="L57" t="n">
         <v>3139</v>
@@ -3186,7 +3208,7 @@
         <v>360</v>
       </c>
       <c r="K58" t="n">
-        <v>30.37037037037037</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L58" t="n">
         <v>3138.1</v>
@@ -3237,7 +3259,7 @@
         <v>365</v>
       </c>
       <c r="K59" t="n">
-        <v>13.33333333333333</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L59" t="n">
         <v>3137.4</v>
@@ -3288,7 +3310,7 @@
         <v>379</v>
       </c>
       <c r="K60" t="n">
-        <v>7.936507936507936</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L60" t="n">
         <v>3137.1</v>
@@ -3339,7 +3361,7 @@
         <v>391</v>
       </c>
       <c r="K61" t="n">
-        <v>15.94202898550724</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L61" t="n">
         <v>3138.4</v>
@@ -3390,7 +3412,7 @@
         <v>394</v>
       </c>
       <c r="K62" t="n">
-        <v>14.70588235294118</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="L62" t="n">
         <v>3138.8</v>
@@ -3441,7 +3463,7 @@
         <v>396</v>
       </c>
       <c r="K63" t="n">
-        <v>13.04347826086956</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="L63" t="n">
         <v>3138.9</v>
@@ -3496,7 +3518,7 @@
         <v>411</v>
       </c>
       <c r="K64" t="n">
-        <v>1.96078431372549</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L64" t="n">
         <v>3137.5</v>
@@ -3553,7 +3575,7 @@
         <v>414</v>
       </c>
       <c r="K65" t="n">
-        <v>-6.122448979591836</v>
+        <v>-44.11764705882353</v>
       </c>
       <c r="L65" t="n">
         <v>3135.6</v>
@@ -3614,7 +3636,7 @@
         <v>419</v>
       </c>
       <c r="K66" t="n">
-        <v>-15.27777777777778</v>
+        <v>-39.68253968253968</v>
       </c>
       <c r="L66" t="n">
         <v>3132.1</v>
@@ -3671,7 +3693,7 @@
         <v>421</v>
       </c>
       <c r="K67" t="n">
-        <v>-26.86567164179105</v>
+        <v>-50.81967213114754</v>
       </c>
       <c r="L67" t="n">
         <v>3129.4</v>
@@ -3732,7 +3754,7 @@
         <v>432</v>
       </c>
       <c r="K68" t="n">
-        <v>-20.56737588652482</v>
+        <v>-22.38805970149254</v>
       </c>
       <c r="L68" t="n">
         <v>3127.4</v>
@@ -3791,7 +3813,7 @@
         <v>436</v>
       </c>
       <c r="K69" t="n">
-        <v>-18.84057971014493</v>
+        <v>-8.771929824561402</v>
       </c>
       <c r="L69" t="n">
         <v>3125.5</v>
@@ -3854,7 +3876,7 @@
         <v>440</v>
       </c>
       <c r="K70" t="n">
-        <v>-3.225806451612903</v>
+        <v>-26.53061224489796</v>
       </c>
       <c r="L70" t="n">
         <v>3125.4</v>
@@ -3917,7 +3939,7 @@
         <v>447</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.511811023622047</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="L71" t="n">
         <v>3123.4</v>
@@ -3980,7 +4002,7 @@
         <v>449</v>
       </c>
       <c r="K72" t="n">
-        <v>-17.94871794871795</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="L72" t="n">
         <v>3120.9</v>
@@ -4043,7 +4065,7 @@
         <v>451</v>
       </c>
       <c r="K73" t="n">
-        <v>-16.94915254237288</v>
+        <v>-15</v>
       </c>
       <c r="L73" t="n">
         <v>3118.8</v>
@@ -4106,7 +4128,7 @@
         <v>452</v>
       </c>
       <c r="K74" t="n">
-        <v>-17.64705882352941</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L74" t="n">
         <v>3118.1</v>
@@ -4167,7 +4189,7 @@
         <v>465</v>
       </c>
       <c r="K75" t="n">
-        <v>-7.692307692307693</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L75" t="n">
         <v>3119</v>
@@ -4230,7 +4252,7 @@
         <v>478</v>
       </c>
       <c r="K76" t="n">
-        <v>-25.75757575757576</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L76" t="n">
         <v>3119.1</v>
@@ -4293,7 +4315,7 @@
         <v>484</v>
       </c>
       <c r="K77" t="n">
-        <v>-23.4375</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L77" t="n">
         <v>3118.8</v>
@@ -4354,7 +4376,7 @@
         <v>500</v>
       </c>
       <c r="K78" t="n">
-        <v>-12.85714285714286</v>
+        <v>9.375</v>
       </c>
       <c r="L78" t="n">
         <v>3119</v>
@@ -4411,7 +4433,7 @@
         <v>503</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.246376811594203</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="L79" t="n">
         <v>3119.9</v>
@@ -4470,7 +4492,7 @@
         <v>519</v>
       </c>
       <c r="K80" t="n">
-        <v>14.28571428571428</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L80" t="n">
         <v>3122</v>
@@ -4531,7 +4553,7 @@
         <v>523</v>
       </c>
       <c r="K81" t="n">
-        <v>9.090909090909092</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L81" t="n">
         <v>3125.2</v>
@@ -4592,7 +4614,7 @@
         <v>524</v>
       </c>
       <c r="K82" t="n">
-        <v>7.692307692307693</v>
+        <v>45.20547945205479</v>
       </c>
       <c r="L82" t="n">
         <v>3128.7</v>
@@ -4653,7 +4675,7 @@
         <v>524</v>
       </c>
       <c r="K83" t="n">
-        <v>9.375</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="L83" t="n">
         <v>3132</v>
@@ -4710,7 +4732,7 @@
         <v>529</v>
       </c>
       <c r="K84" t="n">
-        <v>27.11864406779661</v>
+        <v>40.625</v>
       </c>
       <c r="L84" t="n">
         <v>3135.9</v>
@@ -4767,7 +4789,7 @@
         <v>537</v>
       </c>
       <c r="K85" t="n">
-        <v>34.95934959349594</v>
+        <v>79.66101694915254</v>
       </c>
       <c r="L85" t="n">
         <v>3139.3</v>
@@ -4824,7 +4846,7 @@
         <v>544</v>
       </c>
       <c r="K86" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
         <v>3144.7</v>
@@ -4881,7 +4903,7 @@
         <v>552</v>
       </c>
       <c r="K87" t="n">
-        <v>37.40458015267176</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L87" t="n">
         <v>3149.9</v>
@@ -4938,7 +4960,7 @@
         <v>556</v>
       </c>
       <c r="K88" t="n">
-        <v>33.87096774193548</v>
+        <v>69.81132075471697</v>
       </c>
       <c r="L88" t="n">
         <v>3153.9</v>
@@ -4995,7 +5017,7 @@
         <v>573</v>
       </c>
       <c r="K89" t="n">
-        <v>21.16788321167883</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L89" t="n">
         <v>3155.9</v>
@@ -5046,7 +5068,7 @@
         <v>575</v>
       </c>
       <c r="K90" t="n">
-        <v>17.03703703703704</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L90" t="n">
         <v>3156.1</v>
@@ -5097,7 +5119,7 @@
         <v>575</v>
       </c>
       <c r="K91" t="n">
-        <v>23.4375</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L91" t="n">
         <v>3155.9</v>
@@ -5148,7 +5170,7 @@
         <v>584</v>
       </c>
       <c r="K92" t="n">
-        <v>17.03703703703704</v>
+        <v>-20</v>
       </c>
       <c r="L92" t="n">
         <v>3154.7</v>
@@ -5199,7 +5221,7 @@
         <v>593</v>
       </c>
       <c r="K93" t="n">
-        <v>21.12676056338028</v>
+        <v>-12.5</v>
       </c>
       <c r="L93" t="n">
         <v>3154.4</v>
@@ -5250,7 +5272,7 @@
         <v>593</v>
       </c>
       <c r="K94" t="n">
-        <v>21.98581560283688</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L94" t="n">
         <v>3153.6</v>
@@ -5301,7 +5323,7 @@
         <v>596</v>
       </c>
       <c r="K95" t="n">
-        <v>11.45038167938931</v>
+        <v>-50</v>
       </c>
       <c r="L95" t="n">
         <v>3151.7</v>
@@ -5352,7 +5374,7 @@
         <v>597</v>
       </c>
       <c r="K96" t="n">
-        <v>24.36974789915966</v>
+        <v>-37.77777777777778</v>
       </c>
       <c r="L96" t="n">
         <v>3149.2</v>
@@ -5403,7 +5425,7 @@
         <v>598</v>
       </c>
       <c r="K97" t="n">
-        <v>29.82456140350877</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L97" t="n">
         <v>3147.4</v>
@@ -5454,7 +5476,7 @@
         <v>599</v>
       </c>
       <c r="K98" t="n">
-        <v>19.19191919191919</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L98" t="n">
         <v>3145.3</v>
@@ -5505,7 +5527,7 @@
         <v>606</v>
       </c>
       <c r="K99" t="n">
-        <v>22.33009708737864</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L99" t="n">
         <v>3145.6</v>
@@ -5556,7 +5578,7 @@
         <v>611</v>
       </c>
       <c r="K100" t="n">
-        <v>13.04347826086956</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L100" t="n">
         <v>3146.6</v>
@@ -5607,7 +5629,7 @@
         <v>612</v>
       </c>
       <c r="K101" t="n">
-        <v>10.1123595505618</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L101" t="n">
         <v>3147.7</v>
@@ -5658,7 +5680,7 @@
         <v>612</v>
       </c>
       <c r="K102" t="n">
-        <v>9.090909090909092</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L102" t="n">
         <v>3149.7</v>
@@ -5709,7 +5731,7 @@
         <v>616</v>
       </c>
       <c r="K103" t="n">
-        <v>13.04347826086956</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L103" t="n">
         <v>3151.2</v>
@@ -5760,7 +5782,7 @@
         <v>626</v>
       </c>
       <c r="K104" t="n">
-        <v>-3.092783505154639</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L104" t="n">
         <v>3151.7</v>
@@ -5811,7 +5833,7 @@
         <v>635</v>
       </c>
       <c r="K105" t="n">
-        <v>-2.040816326530612</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L105" t="n">
         <v>3153.4</v>
@@ -5862,7 +5884,7 @@
         <v>644</v>
       </c>
       <c r="K106" t="n">
-        <v>-18</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L106" t="n">
         <v>3154.1</v>
@@ -5913,7 +5935,7 @@
         <v>644</v>
       </c>
       <c r="K107" t="n">
-        <v>-10.8695652173913</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L107" t="n">
         <v>3154.9</v>
@@ -5964,7 +5986,7 @@
         <v>652</v>
       </c>
       <c r="K108" t="n">
-        <v>-22.91666666666666</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L108" t="n">
         <v>3154.8</v>
@@ -6015,7 +6037,7 @@
         <v>653</v>
       </c>
       <c r="K109" t="n">
-        <v>-7.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>3153.9</v>
@@ -6066,7 +6088,7 @@
         <v>662</v>
       </c>
       <c r="K110" t="n">
-        <v>5.747126436781609</v>
+        <v>-12</v>
       </c>
       <c r="L110" t="n">
         <v>3153.4</v>
@@ -6117,7 +6139,7 @@
         <v>662</v>
       </c>
       <c r="K111" t="n">
-        <v>5.747126436781609</v>
+        <v>-12</v>
       </c>
       <c r="L111" t="n">
         <v>3152.8</v>
@@ -6168,7 +6190,7 @@
         <v>674</v>
       </c>
       <c r="K112" t="n">
-        <v>2.222222222222222</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L112" t="n">
         <v>3151</v>
@@ -6219,7 +6241,7 @@
         <v>675</v>
       </c>
       <c r="K113" t="n">
-        <v>-7.317073170731707</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L113" t="n">
         <v>3148.9</v>
@@ -6270,7 +6292,7 @@
         <v>686</v>
       </c>
       <c r="K114" t="n">
-        <v>5.376344086021505</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L114" t="n">
         <v>3148.9</v>
@@ -6321,7 +6343,7 @@
         <v>692</v>
       </c>
       <c r="K115" t="n">
-        <v>14.58333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="L115" t="n">
         <v>3148.6</v>
@@ -6372,7 +6394,7 @@
         <v>706</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.9174311926605505</v>
+        <v>-12.90322580645161</v>
       </c>
       <c r="L116" t="n">
         <v>3147.8</v>
@@ -6423,7 +6445,7 @@
         <v>719</v>
       </c>
       <c r="K117" t="n">
-        <v>10.74380165289256</v>
+        <v>19.40298507462687</v>
       </c>
       <c r="L117" t="n">
         <v>3148.3</v>
@@ -6474,7 +6496,7 @@
         <v>722</v>
       </c>
       <c r="K118" t="n">
-        <v>12.19512195121951</v>
+        <v>24.63768115942029</v>
       </c>
       <c r="L118" t="n">
         <v>3149.9</v>
@@ -6525,7 +6547,7 @@
         <v>723</v>
       </c>
       <c r="K119" t="n">
-        <v>5.982905982905983</v>
+        <v>11.47540983606557</v>
       </c>
       <c r="L119" t="n">
         <v>3151.5</v>
@@ -6576,7 +6598,7 @@
         <v>726</v>
       </c>
       <c r="K120" t="n">
-        <v>4.347826086956522</v>
+        <v>15.625</v>
       </c>
       <c r="L120" t="n">
         <v>3152.5</v>
@@ -6627,7 +6649,7 @@
         <v>730</v>
       </c>
       <c r="K121" t="n">
-        <v>6.779661016949152</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="L121" t="n">
         <v>3153.9</v>
@@ -6678,7 +6700,7 @@
         <v>730</v>
       </c>
       <c r="K122" t="n">
-        <v>6.779661016949152</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L122" t="n">
         <v>3156.5</v>
@@ -6729,7 +6751,7 @@
         <v>744</v>
       </c>
       <c r="K123" t="n">
-        <v>14.0625</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="L123" t="n">
         <v>3160.4</v>
@@ -6780,7 +6802,7 @@
         <v>744</v>
       </c>
       <c r="K124" t="n">
-        <v>23.72881355932203</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="L124" t="n">
         <v>3163.2</v>
@@ -6831,7 +6853,7 @@
         <v>745</v>
       </c>
       <c r="K125" t="n">
-        <v>18.18181818181818</v>
+        <v>94.87179487179486</v>
       </c>
       <c r="L125" t="n">
         <v>3165.5</v>
@@ -6882,7 +6904,7 @@
         <v>761</v>
       </c>
       <c r="K126" t="n">
-        <v>38.46153846153847</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="L126" t="n">
         <v>3170.8</v>
@@ -6933,7 +6955,7 @@
         <v>789</v>
       </c>
       <c r="K127" t="n">
-        <v>11.72413793103448</v>
+        <v>13.43283582089552</v>
       </c>
       <c r="L127" t="n">
         <v>3172</v>
@@ -6984,7 +7006,7 @@
         <v>801</v>
       </c>
       <c r="K128" t="n">
-        <v>8.724832214765101</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L128" t="n">
         <v>3171.7</v>
@@ -7035,7 +7057,7 @@
         <v>814</v>
       </c>
       <c r="K129" t="n">
-        <v>16.77018633540373</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L129" t="n">
         <v>3172.8</v>
@@ -7086,7 +7108,7 @@
         <v>814</v>
       </c>
       <c r="K130" t="n">
-        <v>11.84210526315789</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L130" t="n">
         <v>3173.6</v>
@@ -7137,7 +7159,7 @@
         <v>826</v>
       </c>
       <c r="K131" t="n">
-        <v>18.29268292682927</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L131" t="n">
         <v>3175.2</v>
@@ -7188,7 +7210,7 @@
         <v>834</v>
       </c>
       <c r="K132" t="n">
-        <v>31.25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L132" t="n">
         <v>3177.6</v>
@@ -7239,7 +7261,7 @@
         <v>836</v>
       </c>
       <c r="K133" t="n">
-        <v>31.67701863354037</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L133" t="n">
         <v>3178.8</v>
@@ -7290,7 +7312,7 @@
         <v>841</v>
       </c>
       <c r="K134" t="n">
-        <v>29.03225806451613</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L134" t="n">
         <v>3180.5</v>
@@ -7341,7 +7363,7 @@
         <v>848</v>
       </c>
       <c r="K135" t="n">
-        <v>20.51282051282051</v>
+        <v>-8.045977011494253</v>
       </c>
       <c r="L135" t="n">
         <v>3181.4</v>
@@ -7392,7 +7414,7 @@
         <v>856</v>
       </c>
       <c r="K136" t="n">
-        <v>36</v>
+        <v>43.28358208955223</v>
       </c>
       <c r="L136" t="n">
         <v>3181.5</v>
@@ -7443,7 +7465,7 @@
         <v>857</v>
       </c>
       <c r="K137" t="n">
-        <v>30.43478260869566</v>
+        <v>75</v>
       </c>
       <c r="L137" t="n">
         <v>3184.5</v>
@@ -7494,7 +7516,7 @@
         <v>870</v>
       </c>
       <c r="K138" t="n">
-        <v>17.56756756756757</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L138" t="n">
         <v>3187.4</v>
@@ -7545,7 +7567,7 @@
         <v>882</v>
       </c>
       <c r="K139" t="n">
-        <v>24.52830188679245</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L139" t="n">
         <v>3190.2</v>
@@ -7596,7 +7618,7 @@
         <v>882</v>
       </c>
       <c r="K140" t="n">
-        <v>23.07692307692308</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L140" t="n">
         <v>3193</v>
@@ -7647,7 +7669,7 @@
         <v>882</v>
       </c>
       <c r="K141" t="n">
-        <v>21.05263157894737</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L141" t="n">
         <v>3194.6</v>
@@ -7698,7 +7720,7 @@
         <v>883</v>
       </c>
       <c r="K142" t="n">
-        <v>21.56862745098039</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L142" t="n">
         <v>3195.5</v>
@@ -7749,7 +7771,7 @@
         <v>884</v>
       </c>
       <c r="K143" t="n">
-        <v>12.85714285714286</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L143" t="n">
         <v>3196.1</v>
@@ -7800,7 +7822,7 @@
         <v>891</v>
       </c>
       <c r="K144" t="n">
-        <v>7.482993197278912</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L144" t="n">
         <v>3195.5</v>
@@ -7851,7 +7873,7 @@
         <v>898</v>
       </c>
       <c r="K145" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>3196.3</v>
@@ -7902,7 +7924,7 @@
         <v>909</v>
       </c>
       <c r="K146" t="n">
-        <v>-6.756756756756757</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L146" t="n">
         <v>3195.2</v>
@@ -7953,7 +7975,7 @@
         <v>919</v>
       </c>
       <c r="K147" t="n">
-        <v>21.53846153846154</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L147" t="n">
         <v>3195</v>
@@ -8004,7 +8026,7 @@
         <v>919</v>
       </c>
       <c r="K148" t="n">
-        <v>33.89830508474576</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L148" t="n">
         <v>3196.1</v>
@@ -8055,7 +8077,7 @@
         <v>920</v>
       </c>
       <c r="K149" t="n">
-        <v>26.41509433962264</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>3196.1</v>
@@ -8106,7 +8128,7 @@
         <v>932</v>
       </c>
       <c r="K150" t="n">
-        <v>13.5593220338983</v>
+        <v>-24</v>
       </c>
       <c r="L150" t="n">
         <v>3194.9</v>
@@ -8157,7 +8179,7 @@
         <v>932</v>
       </c>
       <c r="K151" t="n">
-        <v>3.773584905660377</v>
+        <v>-26.53061224489796</v>
       </c>
       <c r="L151" t="n">
         <v>3193.7</v>
@@ -8208,7 +8230,7 @@
         <v>949</v>
       </c>
       <c r="K152" t="n">
-        <v>-18.26086956521739</v>
+        <v>-44.61538461538462</v>
       </c>
       <c r="L152" t="n">
         <v>3190.7</v>
@@ -8259,7 +8281,7 @@
         <v>951</v>
       </c>
       <c r="K153" t="n">
-        <v>-18.26086956521739</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>3188</v>
@@ -8310,7 +8332,7 @@
         <v>956</v>
       </c>
       <c r="K154" t="n">
-        <v>-18.26086956521739</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L154" t="n">
         <v>3186.5</v>
@@ -8361,7 +8383,7 @@
         <v>970</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="L155" t="n">
         <v>3185.7</v>
@@ -8412,7 +8434,7 @@
         <v>974</v>
       </c>
       <c r="K156" t="n">
-        <v>-10.16949152542373</v>
+        <v>-20</v>
       </c>
       <c r="L156" t="n">
         <v>3185.6</v>
@@ -8463,7 +8485,7 @@
         <v>977</v>
       </c>
       <c r="K157" t="n">
-        <v>-13.33333333333333</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L157" t="n">
         <v>3184.2</v>
@@ -8514,7 +8536,7 @@
         <v>989</v>
       </c>
       <c r="K158" t="n">
-        <v>-12.60504201680672</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L158" t="n">
         <v>3181.6</v>
@@ -8565,7 +8587,7 @@
         <v>991</v>
       </c>
       <c r="K159" t="n">
-        <v>-26.60550458715597</v>
+        <v>-28.8135593220339</v>
       </c>
       <c r="L159" t="n">
         <v>3178.7</v>
@@ -8616,7 +8638,7 @@
         <v>999</v>
       </c>
       <c r="K160" t="n">
-        <v>-31.62393162393162</v>
+        <v>-37.3134328358209</v>
       </c>
       <c r="L160" t="n">
         <v>3176.2</v>
@@ -8667,7 +8689,7 @@
         <v>1011</v>
       </c>
       <c r="K161" t="n">
-        <v>-19.37984496124031</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="L161" t="n">
         <v>3174.9</v>
@@ -8718,7 +8740,7 @@
         <v>1025</v>
       </c>
       <c r="K162" t="n">
-        <v>-28.16901408450704</v>
+        <v>-16.21621621621622</v>
       </c>
       <c r="L162" t="n">
         <v>3173.9</v>
@@ -8769,7 +8791,7 @@
         <v>1036</v>
       </c>
       <c r="K163" t="n">
-        <v>-18.42105263157895</v>
+        <v>-7.5</v>
       </c>
       <c r="L163" t="n">
         <v>3173.8</v>
@@ -8820,7 +8842,7 @@
         <v>1046</v>
       </c>
       <c r="K164" t="n">
-        <v>-20</v>
+        <v>-39.47368421052632</v>
       </c>
       <c r="L164" t="n">
         <v>3172.2</v>
@@ -8871,7 +8893,7 @@
         <v>1049</v>
       </c>
       <c r="K165" t="n">
-        <v>-27.1523178807947</v>
+        <v>-38.66666666666666</v>
       </c>
       <c r="L165" t="n">
         <v>3168.9</v>
@@ -8922,7 +8944,7 @@
         <v>1049</v>
       </c>
       <c r="K166" t="n">
-        <v>-21.42857142857143</v>
+        <v>-36.11111111111111</v>
       </c>
       <c r="L166" t="n">
         <v>3166</v>
@@ -8973,7 +8995,7 @@
         <v>1057</v>
       </c>
       <c r="K167" t="n">
-        <v>-23.18840579710145</v>
+        <v>-8.823529411764707</v>
       </c>
       <c r="L167" t="n">
         <v>3164.2</v>
@@ -9024,7 +9046,7 @@
         <v>1057</v>
       </c>
       <c r="K168" t="n">
-        <v>-23.18840579710145</v>
+        <v>-6.060606060606061</v>
       </c>
       <c r="L168" t="n">
         <v>3163.6</v>
@@ -9075,7 +9097,7 @@
         <v>1061</v>
       </c>
       <c r="K169" t="n">
-        <v>-20.56737588652482</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="L169" t="n">
         <v>3163.6</v>
@@ -9126,7 +9148,7 @@
         <v>1062</v>
       </c>
       <c r="K170" t="n">
-        <v>-13.84615384615385</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L170" t="n">
         <v>3164.3</v>
@@ -9177,7 +9199,7 @@
         <v>1062</v>
       </c>
       <c r="K171" t="n">
-        <v>-13.84615384615385</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L171" t="n">
         <v>3163.8</v>
@@ -9228,7 +9250,7 @@
         <v>1070</v>
       </c>
       <c r="K172" t="n">
-        <v>5.785123966942149</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L172" t="n">
         <v>3165.5</v>
@@ -9279,7 +9301,7 @@
         <v>1078</v>
       </c>
       <c r="K173" t="n">
-        <v>-2.362204724409449</v>
+        <v>25</v>
       </c>
       <c r="L173" t="n">
         <v>3165.3</v>
@@ -9330,7 +9352,7 @@
         <v>1080</v>
       </c>
       <c r="K174" t="n">
-        <v>-4.838709677419355</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L174" t="n">
         <v>3166.3</v>
@@ -9381,7 +9403,7 @@
         <v>1082</v>
       </c>
       <c r="K175" t="n">
-        <v>-19.64285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L175" t="n">
         <v>3167.4</v>
@@ -9432,7 +9454,7 @@
         <v>1093</v>
       </c>
       <c r="K176" t="n">
-        <v>-24.36974789915966</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L176" t="n">
         <v>3167.4</v>
@@ -9483,7 +9505,7 @@
         <v>1095</v>
       </c>
       <c r="K177" t="n">
-        <v>-20.33898305084746</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L177" t="n">
         <v>3166.8</v>
@@ -9534,7 +9556,7 @@
         <v>1104</v>
       </c>
       <c r="K178" t="n">
-        <v>-18.26086956521739</v>
+        <v>-44.18604651162791</v>
       </c>
       <c r="L178" t="n">
         <v>3165.3</v>
@@ -9585,7 +9607,7 @@
         <v>1114</v>
       </c>
       <c r="K179" t="n">
-        <v>-23.57723577235772</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L179" t="n">
         <v>3162.4</v>
@@ -9636,7 +9658,7 @@
         <v>1121</v>
       </c>
       <c r="K180" t="n">
-        <v>-22.95081967213115</v>
+        <v>-59.32203389830508</v>
       </c>
       <c r="L180" t="n">
         <v>3158.9</v>
@@ -9687,7 +9709,7 @@
         <v>1124</v>
       </c>
       <c r="K181" t="n">
-        <v>-38.05309734513274</v>
+        <v>-85.18518518518519</v>
       </c>
       <c r="L181" t="n">
         <v>3155.1</v>
@@ -9738,7 +9760,7 @@
         <v>1125</v>
       </c>
       <c r="K182" t="n">
-        <v>-30</v>
+        <v>-82.97872340425532</v>
       </c>
       <c r="L182" t="n">
         <v>3150.4</v>
@@ -9789,7 +9811,7 @@
         <v>1126</v>
       </c>
       <c r="K183" t="n">
-        <v>-44.44444444444444</v>
+        <v>-86.95652173913044</v>
       </c>
       <c r="L183" t="n">
         <v>3146.6</v>
@@ -9840,7 +9862,7 @@
         <v>1145</v>
       </c>
       <c r="K184" t="n">
-        <v>-11.11111111111111</v>
+        <v>-30.15873015873016</v>
       </c>
       <c r="L184" t="n">
         <v>3144.5</v>
@@ -9891,7 +9913,7 @@
         <v>1161</v>
       </c>
       <c r="K185" t="n">
-        <v>-21.42857142857143</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L185" t="n">
         <v>3141</v>
@@ -9942,7 +9964,7 @@
         <v>1161</v>
       </c>
       <c r="K186" t="n">
-        <v>-21.42857142857143</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L186" t="n">
         <v>3138.6</v>
@@ -9993,7 +10015,7 @@
         <v>1169</v>
       </c>
       <c r="K187" t="n">
-        <v>-35.71428571428572</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L187" t="n">
         <v>3135.2</v>
@@ -10044,7 +10066,7 @@
         <v>1170</v>
       </c>
       <c r="K188" t="n">
-        <v>-36.28318584070797</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L188" t="n">
         <v>3132.6</v>
@@ -10095,7 +10117,7 @@
         <v>1194</v>
       </c>
       <c r="K189" t="n">
-        <v>-51.8796992481203</v>
+        <v>-45.20547945205479</v>
       </c>
       <c r="L189" t="n">
         <v>3128.6</v>
@@ -10146,7 +10168,7 @@
         <v>1194</v>
       </c>
       <c r="K190" t="n">
-        <v>-51.51515151515152</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L190" t="n">
         <v>3125.3</v>
@@ -10197,7 +10219,7 @@
         <v>1194</v>
       </c>
       <c r="K191" t="n">
-        <v>-51.51515151515152</v>
+        <v>-42.02898550724638</v>
       </c>
       <c r="L191" t="n">
         <v>3122.3</v>
@@ -10248,7 +10270,7 @@
         <v>1196</v>
       </c>
       <c r="K192" t="n">
-        <v>-58.73015873015873</v>
+        <v>-40</v>
       </c>
       <c r="L192" t="n">
         <v>3119.6</v>
@@ -10299,7 +10321,7 @@
         <v>1207</v>
       </c>
       <c r="K193" t="n">
-        <v>-42.63565891472868</v>
+        <v>-58.06451612903226</v>
       </c>
       <c r="L193" t="n">
         <v>3117.9</v>
@@ -10350,7 +10372,7 @@
         <v>1215</v>
       </c>
       <c r="K194" t="n">
-        <v>-48.14814814814815</v>
+        <v>-51.85185185185185</v>
       </c>
       <c r="L194" t="n">
         <v>3113.5</v>
@@ -10401,7 +10423,7 @@
         <v>1215</v>
       </c>
       <c r="K195" t="n">
-        <v>-47.36842105263158</v>
+        <v>-51.85185185185185</v>
       </c>
       <c r="L195" t="n">
         <v>3110.7</v>
@@ -10452,7 +10474,7 @@
         <v>1215</v>
       </c>
       <c r="K196" t="n">
-        <v>-42.62295081967213</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L196" t="n">
         <v>3107.9</v>
@@ -10503,7 +10525,7 @@
         <v>1236</v>
       </c>
       <c r="K197" t="n">
-        <v>-53.19148936170212</v>
+        <v>-60.60606060606061</v>
       </c>
       <c r="L197" t="n">
         <v>3103.8</v>
@@ -10554,7 +10576,7 @@
         <v>1245</v>
       </c>
       <c r="K198" t="n">
-        <v>-40.42553191489361</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L198" t="n">
         <v>3100.7</v>
@@ -10605,7 +10627,7 @@
         <v>1251</v>
       </c>
       <c r="K199" t="n">
-        <v>-38.68613138686132</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L199" t="n">
         <v>3099.4</v>
@@ -10656,7 +10678,7 @@
         <v>1259</v>
       </c>
       <c r="K200" t="n">
-        <v>-39.1304347826087</v>
+        <v>-32.30769230769231</v>
       </c>
       <c r="L200" t="n">
         <v>3097.3</v>
@@ -10707,7 +10729,7 @@
         <v>1264</v>
       </c>
       <c r="K201" t="n">
-        <v>-40</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L201" t="n">
         <v>3094.7</v>
@@ -10758,7 +10780,7 @@
         <v>1283</v>
       </c>
       <c r="K202" t="n">
-        <v>-22.78481012658228</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L202" t="n">
         <v>3093.8</v>
@@ -10809,7 +10831,7 @@
         <v>1295</v>
       </c>
       <c r="K203" t="n">
-        <v>-28.99408284023669</v>
+        <v>-30</v>
       </c>
       <c r="L203" t="n">
         <v>3090.6</v>
@@ -10860,7 +10882,7 @@
         <v>1313</v>
       </c>
       <c r="K204" t="n">
-        <v>-29.76190476190476</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L204" t="n">
         <v>3090</v>
@@ -10911,7 +10933,7 @@
         <v>1320</v>
       </c>
       <c r="K205" t="n">
-        <v>-16.9811320754717</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="L205" t="n">
         <v>3090.1</v>
@@ -10962,7 +10984,7 @@
         <v>1327</v>
       </c>
       <c r="K206" t="n">
-        <v>-12.04819277108434</v>
+        <v>31.86813186813187</v>
       </c>
       <c r="L206" t="n">
         <v>3090.9</v>
@@ -11013,7 +11035,7 @@
         <v>1341</v>
       </c>
       <c r="K207" t="n">
-        <v>-15.11627906976744</v>
+        <v>6.25</v>
       </c>
       <c r="L207" t="n">
         <v>3092.4</v>
@@ -11064,7 +11086,7 @@
         <v>1341</v>
       </c>
       <c r="K208" t="n">
-        <v>-14.61988304093567</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>3093</v>
@@ -11115,7 +11137,7 @@
         <v>1342</v>
       </c>
       <c r="K209" t="n">
-        <v>-1.351351351351351</v>
+        <v>22.89156626506024</v>
       </c>
       <c r="L209" t="n">
         <v>3094.1</v>
@@ -11166,7 +11188,7 @@
         <v>1351</v>
       </c>
       <c r="K210" t="n">
-        <v>-7.006369426751593</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L210" t="n">
         <v>3095.1</v>
@@ -11217,7 +11239,7 @@
         <v>1352</v>
       </c>
       <c r="K211" t="n">
-        <v>-7.59493670886076</v>
+        <v>-7.246376811594203</v>
       </c>
       <c r="L211" t="n">
         <v>3096.5</v>
@@ -11268,7 +11290,7 @@
         <v>1354</v>
       </c>
       <c r="K212" t="n">
-        <v>-10.12658227848101</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="L212" t="n">
         <v>3095.8</v>
@@ -11319,7 +11341,7 @@
         <v>1363</v>
       </c>
       <c r="K213" t="n">
-        <v>-23.07692307692308</v>
+        <v>-44</v>
       </c>
       <c r="L213" t="n">
         <v>3095.4</v>
@@ -11370,7 +11392,7 @@
         <v>1363</v>
       </c>
       <c r="K214" t="n">
-        <v>-18.91891891891892</v>
+        <v>-67.44186046511628</v>
       </c>
       <c r="L214" t="n">
         <v>3093.2</v>
@@ -11421,7 +11443,7 @@
         <v>1378</v>
       </c>
       <c r="K215" t="n">
-        <v>-26.38036809815951</v>
+        <v>-100</v>
       </c>
       <c r="L215" t="n">
         <v>3088.8</v>
@@ -11472,7 +11494,7 @@
         <v>1379</v>
       </c>
       <c r="K216" t="n">
-        <v>-26.82926829268293</v>
+        <v>-100</v>
       </c>
       <c r="L216" t="n">
         <v>3083.6</v>
@@ -11523,7 +11545,7 @@
         <v>1395</v>
       </c>
       <c r="K217" t="n">
-        <v>-4.40251572327044</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L217" t="n">
         <v>3081.4</v>
@@ -11574,7 +11596,7 @@
         <v>1399</v>
       </c>
       <c r="K218" t="n">
-        <v>-12.98701298701299</v>
+        <v>-43.85964912280701</v>
       </c>
       <c r="L218" t="n">
         <v>3078.8</v>
@@ -11625,7 +11647,7 @@
         <v>1409</v>
       </c>
       <c r="K219" t="n">
-        <v>-2.531645569620253</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L219" t="n">
         <v>3077.3</v>
@@ -11676,7 +11698,7 @@
         <v>1419</v>
       </c>
       <c r="K220" t="n">
-        <v>-3.75</v>
+        <v>-22.38805970149254</v>
       </c>
       <c r="L220" t="n">
         <v>3075.7</v>
@@ -11727,7 +11749,7 @@
         <v>1431</v>
       </c>
       <c r="K221" t="n">
-        <v>6.58682634730539</v>
+        <v>-1.298701298701299</v>
       </c>
       <c r="L221" t="n">
         <v>3075.4</v>
@@ -11778,7 +11800,7 @@
         <v>1431</v>
       </c>
       <c r="K222" t="n">
-        <v>-5.405405405405405</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L222" t="n">
         <v>3075.3</v>
@@ -11829,7 +11851,7 @@
         <v>1436</v>
       </c>
       <c r="K223" t="n">
-        <v>6.382978723404255</v>
+        <v>17.80821917808219</v>
       </c>
       <c r="L223" t="n">
         <v>3076.6</v>
@@ -11880,7 +11902,7 @@
         <v>1449</v>
       </c>
       <c r="K224" t="n">
-        <v>2.941176470588235</v>
+        <v>57.74647887323944</v>
       </c>
       <c r="L224" t="n">
         <v>3079.2</v>
@@ -11931,7 +11953,7 @@
         <v>1469</v>
       </c>
       <c r="K225" t="n">
-        <v>11.40939597315436</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="L225" t="n">
         <v>3085.3</v>
@@ -11982,7 +12004,7 @@
         <v>1481</v>
       </c>
       <c r="K226" t="n">
-        <v>-1.298701298701299</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L226" t="n">
         <v>3090.3</v>
@@ -12033,7 +12055,7 @@
         <v>1481</v>
       </c>
       <c r="K227" t="n">
-        <v>8.571428571428571</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L227" t="n">
         <v>3093.7</v>
@@ -12084,7 +12106,7 @@
         <v>1484</v>
       </c>
       <c r="K228" t="n">
-        <v>10.48951048951049</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="L228" t="n">
         <v>3097.8</v>
@@ -12135,7 +12157,7 @@
         <v>1486</v>
       </c>
       <c r="K229" t="n">
-        <v>12.5</v>
+        <v>64.17910447761194</v>
       </c>
       <c r="L229" t="n">
         <v>3101.1</v>
@@ -12186,7 +12208,7 @@
         <v>1487</v>
       </c>
       <c r="K230" t="n">
-        <v>20.58823529411764</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L230" t="n">
         <v>3105.5</v>
@@ -12237,7 +12259,7 @@
         <v>1497</v>
       </c>
       <c r="K231" t="n">
-        <v>26.89655172413793</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L231" t="n">
         <v>3109.7</v>
@@ -12288,7 +12310,7 @@
         <v>1504</v>
       </c>
       <c r="K232" t="n">
-        <v>32</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L232" t="n">
         <v>3114.6</v>
@@ -12339,7 +12361,7 @@
         <v>1512</v>
       </c>
       <c r="K233" t="n">
-        <v>43.6241610738255</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L233" t="n">
         <v>3119.8</v>
@@ -12390,7 +12412,7 @@
         <v>1512</v>
       </c>
       <c r="K234" t="n">
-        <v>43.6241610738255</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L234" t="n">
         <v>3123.7</v>
@@ -12441,7 +12463,7 @@
         <v>1512</v>
       </c>
       <c r="K235" t="n">
-        <v>59.70149253731343</v>
+        <v>100</v>
       </c>
       <c r="L235" t="n">
         <v>3125.6</v>
@@ -12492,7 +12514,7 @@
         <v>1519</v>
       </c>
       <c r="K236" t="n">
-        <v>62.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L236" t="n">
         <v>3129.4</v>
@@ -12543,7 +12565,7 @@
         <v>1525</v>
       </c>
       <c r="K237" t="n">
-        <v>50.76923076923077</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="L237" t="n">
         <v>3132.6</v>
@@ -12594,7 +12616,7 @@
         <v>1537</v>
       </c>
       <c r="K238" t="n">
-        <v>59.42028985507246</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L238" t="n">
         <v>3136.7</v>
@@ -12645,7 +12667,7 @@
         <v>1538</v>
       </c>
       <c r="K239" t="n">
-        <v>55.03875968992248</v>
+        <v>72.54901960784314</v>
       </c>
       <c r="L239" t="n">
         <v>3140.5</v>
@@ -12696,7 +12718,7 @@
         <v>1539</v>
       </c>
       <c r="K240" t="n">
-        <v>68.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L240" t="n">
         <v>3144.3</v>
@@ -12747,7 +12769,7 @@
         <v>1539</v>
       </c>
       <c r="K241" t="n">
-        <v>64.81481481481481</v>
+        <v>60</v>
       </c>
       <c r="L241" t="n">
         <v>3147.1</v>
@@ -12798,7 +12820,7 @@
         <v>1541</v>
       </c>
       <c r="K242" t="n">
-        <v>65.45454545454545</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L242" t="n">
         <v>3149.4</v>
@@ -12849,7 +12871,7 @@
         <v>1549</v>
       </c>
       <c r="K243" t="n">
-        <v>52.21238938053098</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L243" t="n">
         <v>3150.1</v>
@@ -12900,7 +12922,7 @@
         <v>1562</v>
       </c>
       <c r="K244" t="n">
-        <v>29.20353982300885</v>
+        <v>-12</v>
       </c>
       <c r="L244" t="n">
         <v>3149.5</v>
@@ -12951,7 +12973,7 @@
         <v>1567</v>
       </c>
       <c r="K245" t="n">
-        <v>8.163265306122449</v>
+        <v>-37.5</v>
       </c>
       <c r="L245" t="n">
         <v>3148.4</v>
@@ -13002,7 +13024,7 @@
         <v>1572</v>
       </c>
       <c r="K246" t="n">
-        <v>16.48351648351648</v>
+        <v>-36.17021276595745</v>
       </c>
       <c r="L246" t="n">
         <v>3146.1</v>
@@ -13053,7 +13075,7 @@
         <v>1584</v>
       </c>
       <c r="K247" t="n">
-        <v>26.21359223300971</v>
+        <v>-36.17021276595745</v>
       </c>
       <c r="L247" t="n">
         <v>3145.6</v>
@@ -13104,7 +13126,7 @@
         <v>1589</v>
       </c>
       <c r="K248" t="n">
-        <v>18.09523809523809</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L248" t="n">
         <v>3143.4</v>
@@ -13155,7 +13177,7 @@
         <v>1589</v>
       </c>
       <c r="K249" t="n">
-        <v>16.50485436893204</v>
+        <v>-44</v>
       </c>
       <c r="L249" t="n">
         <v>3141.3</v>
@@ -13206,7 +13228,7 @@
         <v>1589</v>
       </c>
       <c r="K250" t="n">
-        <v>15.68627450980392</v>
+        <v>-44</v>
       </c>
       <c r="L250" t="n">
         <v>3139.1</v>
@@ -13257,7 +13279,7 @@
         <v>1600</v>
       </c>
       <c r="K251" t="n">
-        <v>16.50485436893204</v>
+        <v>-22.03389830508474</v>
       </c>
       <c r="L251" t="n">
         <v>3138</v>
@@ -13308,7 +13330,7 @@
         <v>1612</v>
       </c>
       <c r="K252" t="n">
-        <v>-1.851851851851852</v>
+        <v>-26.98412698412698</v>
       </c>
       <c r="L252" t="n">
         <v>3135.5</v>
@@ -13359,7 +13381,7 @@
         <v>1612</v>
       </c>
       <c r="K253" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="L253" t="n">
         <v>3133.8</v>
@@ -13410,7 +13432,7 @@
         <v>1612</v>
       </c>
       <c r="K254" t="n">
-        <v>-10</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="L254" t="n">
         <v>3133.4</v>
@@ -13461,7 +13483,7 @@
         <v>1612</v>
       </c>
       <c r="K255" t="n">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="L255" t="n">
         <v>3133.5</v>
@@ -13512,7 +13534,7 @@
         <v>1622</v>
       </c>
       <c r="K256" t="n">
-        <v>-26.21359223300971</v>
+        <v>-42.10526315789473</v>
       </c>
       <c r="L256" t="n">
         <v>3133.1</v>
@@ -13563,7 +13585,7 @@
         <v>1633</v>
       </c>
       <c r="K257" t="n">
-        <v>-9.25925925925926</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>3132.6</v>
@@ -13614,7 +13636,7 @@
         <v>1634</v>
       </c>
       <c r="K258" t="n">
-        <v>-23.71134020618556</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L258" t="n">
         <v>3132.5</v>
@@ -13665,7 +13687,7 @@
         <v>1642</v>
       </c>
       <c r="K259" t="n">
-        <v>-13.46153846153846</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L259" t="n">
         <v>3133.2</v>
@@ -13716,7 +13738,7 @@
         <v>1652</v>
       </c>
       <c r="K260" t="n">
-        <v>-4.424778761061947</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L260" t="n">
         <v>3134.9</v>
@@ -13767,7 +13789,7 @@
         <v>1653</v>
       </c>
       <c r="K261" t="n">
-        <v>-3.508771929824561</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L261" t="n">
         <v>3135.6</v>
@@ -13818,7 +13840,7 @@
         <v>1653</v>
       </c>
       <c r="K262" t="n">
-        <v>-5.357142857142857</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L262" t="n">
         <v>3137.5</v>
@@ -13869,7 +13891,7 @@
         <v>1653</v>
       </c>
       <c r="K263" t="n">
-        <v>1.923076923076923</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L263" t="n">
         <v>3139.4</v>
@@ -13920,7 +13942,7 @@
         <v>1654</v>
       </c>
       <c r="K264" t="n">
-        <v>15.21739130434783</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L264" t="n">
         <v>3141.2</v>
@@ -13971,7 +13993,7 @@
         <v>1661</v>
       </c>
       <c r="K265" t="n">
-        <v>27.65957446808511</v>
+        <v>89.74358974358975</v>
       </c>
       <c r="L265" t="n">
         <v>3143.7</v>
@@ -14022,7 +14044,7 @@
         <v>1662</v>
       </c>
       <c r="K266" t="n">
-        <v>33.33333333333333</v>
+        <v>79.31034482758621</v>
       </c>
       <c r="L266" t="n">
         <v>3147.1</v>
@@ -14073,7 +14095,7 @@
         <v>1676</v>
       </c>
       <c r="K267" t="n">
-        <v>4.347826086956522</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L267" t="n">
         <v>3148</v>
@@ -14124,7 +14146,7 @@
         <v>1676</v>
       </c>
       <c r="K268" t="n">
-        <v>10.3448275862069</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L268" t="n">
         <v>3149</v>
@@ -14175,7 +14197,7 @@
         <v>1682</v>
       </c>
       <c r="K269" t="n">
-        <v>3.225806451612903</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L269" t="n">
         <v>3148.6</v>
@@ -14226,7 +14248,7 @@
         <v>1682</v>
       </c>
       <c r="K270" t="n">
-        <v>3.225806451612903</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L270" t="n">
         <v>3147.2</v>
@@ -14277,7 +14299,7 @@
         <v>1683</v>
       </c>
       <c r="K271" t="n">
-        <v>-8.433734939759036</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L271" t="n">
         <v>3145.8</v>
@@ -14328,7 +14350,7 @@
         <v>1697</v>
       </c>
       <c r="K272" t="n">
-        <v>22.35294117647059</v>
+        <v>0</v>
       </c>
       <c r="L272" t="n">
         <v>3145.8</v>
@@ -14379,7 +14401,7 @@
         <v>1700</v>
       </c>
       <c r="K273" t="n">
-        <v>25</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L273" t="n">
         <v>3146.1</v>
@@ -14430,7 +14452,7 @@
         <v>1700</v>
       </c>
       <c r="K274" t="n">
-        <v>25</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L274" t="n">
         <v>3146.5</v>
@@ -14481,7 +14503,7 @@
         <v>1703</v>
       </c>
       <c r="K275" t="n">
-        <v>27.47252747252747</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L275" t="n">
         <v>3146.5</v>
@@ -14532,7 +14554,7 @@
         <v>1707</v>
       </c>
       <c r="K276" t="n">
-        <v>36.47058823529412</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L276" t="n">
         <v>3146.2</v>
@@ -14583,7 +14605,7 @@
         <v>1708</v>
       </c>
       <c r="K277" t="n">
-        <v>25.33333333333334</v>
+        <v>31.25</v>
       </c>
       <c r="L277" t="n">
         <v>3147.2</v>
@@ -14634,7 +14656,7 @@
         <v>1709</v>
       </c>
       <c r="K278" t="n">
-        <v>25.33333333333334</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L278" t="n">
         <v>3148.1</v>
@@ -14685,7 +14707,7 @@
         <v>1711</v>
       </c>
       <c r="K279" t="n">
-        <v>18.84057971014493</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L279" t="n">
         <v>3149.8</v>
@@ -14736,7 +14758,7 @@
         <v>1723</v>
       </c>
       <c r="K280" t="n">
-        <v>-12.67605633802817</v>
+        <v>10</v>
       </c>
       <c r="L280" t="n">
         <v>3150.3</v>
@@ -14787,7 +14809,7 @@
         <v>1731</v>
       </c>
       <c r="K281" t="n">
-        <v>-2.564102564102564</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L281" t="n">
         <v>3151.5</v>
@@ -14838,7 +14860,7 @@
         <v>1736</v>
       </c>
       <c r="K282" t="n">
-        <v>-8.433734939759036</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L282" t="n">
         <v>3150.8</v>
@@ -14889,7 +14911,7 @@
         <v>1737</v>
       </c>
       <c r="K283" t="n">
-        <v>-7.142857142857142</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L283" t="n">
         <v>3149.9</v>
@@ -14940,7 +14962,7 @@
         <v>1741</v>
       </c>
       <c r="K284" t="n">
-        <v>-1.149425287356322</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L284" t="n">
         <v>3149.4</v>
@@ -14991,7 +15013,7 @@
         <v>1742</v>
       </c>
       <c r="K285" t="n">
-        <v>-8.641975308641975</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L285" t="n">
         <v>3148.7</v>
@@ -15042,7 +15064,7 @@
         <v>1742</v>
       </c>
       <c r="K286" t="n">
-        <v>-7.5</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L286" t="n">
         <v>3148.4</v>
@@ -15093,7 +15115,7 @@
         <v>1748</v>
       </c>
       <c r="K287" t="n">
-        <v>2.777777777777778</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L287" t="n">
         <v>3147.6</v>
@@ -15144,7 +15166,7 @@
         <v>1753</v>
       </c>
       <c r="K288" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L288" t="n">
         <v>3147.4</v>
@@ -15195,7 +15217,7 @@
         <v>1757</v>
       </c>
       <c r="K289" t="n">
-        <v>22.66666666666666</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L289" t="n">
         <v>3147.4</v>
@@ -15246,7 +15268,7 @@
         <v>1757</v>
       </c>
       <c r="K290" t="n">
-        <v>22.66666666666666</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L290" t="n">
         <v>3148.6</v>
@@ -15297,7 +15319,7 @@
         <v>1766</v>
       </c>
       <c r="K291" t="n">
-        <v>8.433734939759036</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>3148.1</v>
@@ -15348,7 +15370,7 @@
         <v>1774</v>
       </c>
       <c r="K292" t="n">
-        <v>1.298701298701299</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L292" t="n">
         <v>3148.9</v>
@@ -15399,7 +15421,7 @@
         <v>1785</v>
       </c>
       <c r="K293" t="n">
-        <v>-15.29411764705882</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L293" t="n">
         <v>3148.5</v>
@@ -15450,7 +15472,7 @@
         <v>1797</v>
       </c>
       <c r="K294" t="n">
-        <v>-1.030927835051546</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="L294" t="n">
         <v>3148.9</v>
@@ -15501,7 +15523,7 @@
         <v>1828</v>
       </c>
       <c r="K295" t="n">
-        <v>-28</v>
+        <v>-32.55813953488372</v>
       </c>
       <c r="L295" t="n">
         <v>3146.1</v>
@@ -15552,7 +15574,7 @@
         <v>1856</v>
       </c>
       <c r="K296" t="n">
-        <v>-2.013422818791946</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L296" t="n">
         <v>3146.1</v>
@@ -15603,7 +15625,7 @@
         <v>1869</v>
       </c>
       <c r="K297" t="n">
-        <v>-9.316770186335404</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L297" t="n">
         <v>3145.4</v>
@@ -15654,7 +15676,7 @@
         <v>1874</v>
       </c>
       <c r="K298" t="n">
-        <v>-5.454545454545454</v>
+        <v>-9.401709401709402</v>
       </c>
       <c r="L298" t="n">
         <v>3144.7</v>
@@ -15705,7 +15727,7 @@
         <v>1887</v>
       </c>
       <c r="K299" t="n">
-        <v>-13.63636363636363</v>
+        <v>-18.46153846153846</v>
       </c>
       <c r="L299" t="n">
         <v>3142.3</v>
@@ -15756,7 +15778,7 @@
         <v>1897</v>
       </c>
       <c r="K300" t="n">
-        <v>-1.149425287356322</v>
+        <v>-3.816793893129771</v>
       </c>
       <c r="L300" t="n">
         <v>3140.9</v>
@@ -15807,7 +15829,7 @@
         <v>1900</v>
       </c>
       <c r="K301" t="n">
-        <v>-4.142011834319527</v>
+        <v>-7.936507936507936</v>
       </c>
       <c r="L301" t="n">
         <v>3140.7</v>
@@ -15858,7 +15880,7 @@
         <v>1903</v>
       </c>
       <c r="K302" t="n">
-        <v>-2.994011976047904</v>
+        <v>-1.694915254237288</v>
       </c>
       <c r="L302" t="n">
         <v>3139.4</v>
@@ -15909,7 +15931,7 @@
         <v>1903</v>
       </c>
       <c r="K303" t="n">
-        <v>-3.614457831325301</v>
+        <v>-13.20754716981132</v>
       </c>
       <c r="L303" t="n">
         <v>3139.2</v>
@@ -15960,7 +15982,7 @@
         <v>1911</v>
       </c>
       <c r="K304" t="n">
-        <v>-10.58823529411765</v>
+        <v>10.8433734939759</v>
       </c>
       <c r="L304" t="n">
         <v>3137</v>
@@ -16011,7 +16033,7 @@
         <v>1922</v>
       </c>
       <c r="K305" t="n">
-        <v>-16.66666666666666</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L305" t="n">
         <v>3136.8</v>
@@ -16062,7 +16084,7 @@
         <v>1922</v>
       </c>
       <c r="K306" t="n">
-        <v>-16.66666666666666</v>
+        <v>-32.0754716981132</v>
       </c>
       <c r="L306" t="n">
         <v>3133.8</v>
@@ -16113,7 +16135,7 @@
         <v>1929</v>
       </c>
       <c r="K307" t="n">
-        <v>-9.392265193370166</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L307" t="n">
         <v>3132.8</v>
@@ -16164,7 +16186,7 @@
         <v>1942</v>
       </c>
       <c r="K308" t="n">
-        <v>-18.51851851851852</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L308" t="n">
         <v>3130</v>
@@ -16215,7 +16237,7 @@
         <v>1943</v>
       </c>
       <c r="K309" t="n">
-        <v>-21.50537634408602</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L309" t="n">
         <v>3128.4</v>
@@ -16266,7 +16288,7 @@
         <v>1944</v>
       </c>
       <c r="K310" t="n">
-        <v>-20.85561497326203</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L310" t="n">
         <v>3125.9</v>
@@ -16317,7 +16339,7 @@
         <v>1951</v>
       </c>
       <c r="K311" t="n">
-        <v>-12.43243243243243</v>
+        <v>-37.5</v>
       </c>
       <c r="L311" t="n">
         <v>3123.8</v>
@@ -16368,7 +16390,7 @@
         <v>1953</v>
       </c>
       <c r="K312" t="n">
-        <v>-16.20111731843575</v>
+        <v>-32</v>
       </c>
       <c r="L312" t="n">
         <v>3122.2</v>
@@ -16419,7 +16441,7 @@
         <v>1965</v>
       </c>
       <c r="K313" t="n">
-        <v>-3.333333333333333</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L313" t="n">
         <v>3121.8</v>
@@ -16470,7 +16492,7 @@
         <v>1968</v>
       </c>
       <c r="K314" t="n">
-        <v>-12.28070175438596</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L314" t="n">
         <v>3121.9</v>
@@ -16521,7 +16543,7 @@
         <v>1969</v>
       </c>
       <c r="K315" t="n">
-        <v>7.801418439716312</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L315" t="n">
         <v>3123.2</v>
@@ -16572,7 +16594,7 @@
         <v>1973</v>
       </c>
       <c r="K316" t="n">
-        <v>-11.11111111111111</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="L316" t="n">
         <v>3124.9</v>
@@ -16623,7 +16645,7 @@
         <v>1985</v>
       </c>
       <c r="K317" t="n">
-        <v>10.3448275862069</v>
+        <v>81.3953488372093</v>
       </c>
       <c r="L317" t="n">
         <v>3127.1</v>
@@ -16674,7 +16696,7 @@
         <v>1992</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>59.18367346938776</v>
       </c>
       <c r="L318" t="n">
         <v>3129.9</v>
@@ -16725,7 +16747,7 @@
         <v>2006</v>
       </c>
       <c r="K319" t="n">
-        <v>22.6890756302521</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L319" t="n">
         <v>3134.2</v>
@@ -16776,7 +16798,7 @@
         <v>2017</v>
       </c>
       <c r="K320" t="n">
-        <v>5</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L320" t="n">
         <v>3137.3</v>
@@ -16827,7 +16849,7 @@
         <v>2017</v>
       </c>
       <c r="K321" t="n">
-        <v>2.564102564102564</v>
+        <v>34.375</v>
       </c>
       <c r="L321" t="n">
         <v>3139.7</v>
@@ -16878,7 +16900,7 @@
         <v>2020</v>
       </c>
       <c r="K322" t="n">
-        <v>7.692307692307693</v>
+        <v>23.63636363636364</v>
       </c>
       <c r="L322" t="n">
         <v>3142.2</v>
@@ -16929,7 +16951,7 @@
         <v>2028</v>
       </c>
       <c r="K323" t="n">
-        <v>0.8</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>3142.7</v>
@@ -16980,7 +17002,7 @@
         <v>2034</v>
       </c>
       <c r="K324" t="n">
-        <v>12.19512195121951</v>
+        <v>20</v>
       </c>
       <c r="L324" t="n">
         <v>3144.1</v>
@@ -17031,7 +17053,7 @@
         <v>2041</v>
       </c>
       <c r="K325" t="n">
-        <v>15.96638655462185</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="L325" t="n">
         <v>3144.7</v>
@@ -17082,7 +17104,7 @@
         <v>2059</v>
       </c>
       <c r="K326" t="n">
-        <v>27.00729927007299</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="L326" t="n">
         <v>3146.7</v>
@@ -17133,7 +17155,7 @@
         <v>2063</v>
       </c>
       <c r="K327" t="n">
-        <v>25.37313432835821</v>
+        <v>26.76056338028169</v>
       </c>
       <c r="L327" t="n">
         <v>3147.9</v>
@@ -17184,7 +17206,7 @@
         <v>2064</v>
       </c>
       <c r="K328" t="n">
-        <v>37.70491803278689</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L328" t="n">
         <v>3149.7</v>
@@ -17235,7 +17257,7 @@
         <v>2065</v>
       </c>
       <c r="K329" t="n">
-        <v>37.70491803278689</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L329" t="n">
         <v>3150</v>
@@ -17286,7 +17308,7 @@
         <v>2066</v>
       </c>
       <c r="K330" t="n">
-        <v>37.70491803278689</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L330" t="n">
         <v>3151.5</v>
@@ -17337,7 +17359,7 @@
         <v>2067</v>
       </c>
       <c r="K331" t="n">
-        <v>34.48275862068966</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L331" t="n">
         <v>3153.1</v>
@@ -17388,7 +17410,7 @@
         <v>2067</v>
       </c>
       <c r="K332" t="n">
-        <v>33.33333333333333</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L332" t="n">
         <v>3154.4</v>
@@ -17439,7 +17461,7 @@
         <v>2078</v>
       </c>
       <c r="K333" t="n">
-        <v>13.27433628318584</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L333" t="n">
         <v>3155.4</v>
@@ -17490,7 +17512,7 @@
         <v>2078</v>
       </c>
       <c r="K334" t="n">
-        <v>16.36363636363636</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L334" t="n">
         <v>3155.8</v>
@@ -17541,7 +17563,7 @@
         <v>2079</v>
       </c>
       <c r="K335" t="n">
-        <v>14.54545454545454</v>
+        <v>-40</v>
       </c>
       <c r="L335" t="n">
         <v>3156.8</v>
@@ -17592,7 +17614,7 @@
         <v>2081</v>
       </c>
       <c r="K336" t="n">
-        <v>12.96296296296296</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L336" t="n">
         <v>3156.2</v>
@@ -17643,7 +17665,7 @@
         <v>2086</v>
       </c>
       <c r="K337" t="n">
-        <v>6.930693069306932</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L337" t="n">
         <v>3155.7</v>
@@ -17694,7 +17716,7 @@
         <v>2094</v>
       </c>
       <c r="K338" t="n">
-        <v>5.88235294117647</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L338" t="n">
         <v>3154.5</v>
@@ -17745,7 +17767,7 @@
         <v>2094</v>
       </c>
       <c r="K339" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L339" t="n">
         <v>3153.4</v>
@@ -17796,7 +17818,7 @@
         <v>2107</v>
       </c>
       <c r="K340" t="n">
-        <v>-11.11111111111111</v>
+        <v>-65</v>
       </c>
       <c r="L340" t="n">
         <v>3150.9</v>
@@ -17847,7 +17869,7 @@
         <v>2109</v>
       </c>
       <c r="K341" t="n">
-        <v>-13.04347826086956</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L341" t="n">
         <v>3148.1</v>
@@ -17898,7 +17920,7 @@
         <v>2109</v>
       </c>
       <c r="K342" t="n">
-        <v>-16.85393258426966</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L342" t="n">
         <v>3145.3</v>
@@ -17949,7 +17971,7 @@
         <v>2117</v>
       </c>
       <c r="K343" t="n">
-        <v>1.123595505617978</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L343" t="n">
         <v>3144.4</v>
@@ -18000,7 +18022,7 @@
         <v>2119</v>
       </c>
       <c r="K344" t="n">
-        <v>-8.235294117647058</v>
+        <v>-25</v>
       </c>
       <c r="L344" t="n">
         <v>3143.3</v>
@@ -18051,7 +18073,7 @@
         <v>2128</v>
       </c>
       <c r="K345" t="n">
-        <v>-10.3448275862069</v>
+        <v>-44.68085106382978</v>
       </c>
       <c r="L345" t="n">
         <v>3141.4</v>
@@ -18102,7 +18124,7 @@
         <v>2128</v>
       </c>
       <c r="K346" t="n">
-        <v>-39.1304347826087</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L346" t="n">
         <v>3139.3</v>
@@ -18153,7 +18175,7 @@
         <v>2129</v>
       </c>
       <c r="K347" t="n">
-        <v>-48.48484848484848</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L347" t="n">
         <v>3136.6</v>
@@ -18204,7 +18226,7 @@
         <v>2130</v>
       </c>
       <c r="K348" t="n">
-        <v>-45.45454545454545</v>
+        <v>-50</v>
       </c>
       <c r="L348" t="n">
         <v>3134.8</v>
@@ -18255,7 +18277,7 @@
         <v>2130</v>
       </c>
       <c r="K349" t="n">
-        <v>-44.61538461538462</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L349" t="n">
         <v>3133</v>
@@ -18306,7 +18328,7 @@
         <v>2131</v>
       </c>
       <c r="K350" t="n">
-        <v>-47.69230769230769</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L350" t="n">
         <v>3132.4</v>
@@ -18357,7 +18379,7 @@
         <v>2131</v>
       </c>
       <c r="K351" t="n">
-        <v>-50</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L351" t="n">
         <v>3132</v>
@@ -18408,7 +18430,7 @@
         <v>2145</v>
       </c>
       <c r="K352" t="n">
-        <v>-23.07692307692308</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L352" t="n">
         <v>3133</v>
@@ -18459,7 +18481,7 @@
         <v>2158</v>
       </c>
       <c r="K353" t="n">
-        <v>-25</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L353" t="n">
         <v>3131.9</v>
@@ -18510,7 +18532,7 @@
         <v>2170</v>
       </c>
       <c r="K354" t="n">
-        <v>-8.695652173913043</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L354" t="n">
         <v>3132.2</v>
@@ -18561,7 +18583,7 @@
         <v>2173</v>
       </c>
       <c r="K355" t="n">
-        <v>-10.63829787234043</v>
+        <v>20</v>
       </c>
       <c r="L355" t="n">
         <v>3133.1</v>
@@ -18612,7 +18634,7 @@
         <v>2178</v>
       </c>
       <c r="K356" t="n">
-        <v>-7.216494845360824</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L356" t="n">
         <v>3134.5</v>
@@ -18663,7 +18685,7 @@
         <v>2178</v>
       </c>
       <c r="K357" t="n">
-        <v>-13.04347826086956</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L357" t="n">
         <v>3136</v>
@@ -18714,7 +18736,7 @@
         <v>2181</v>
       </c>
       <c r="K358" t="n">
-        <v>-1.149425287356322</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L358" t="n">
         <v>3137.7</v>
@@ -18765,7 +18787,7 @@
         <v>2184</v>
       </c>
       <c r="K359" t="n">
-        <v>-4.444444444444445</v>
+        <v>28.30188679245283</v>
       </c>
       <c r="L359" t="n">
         <v>3139.1</v>
@@ -18816,7 +18838,7 @@
         <v>2185</v>
       </c>
       <c r="K360" t="n">
-        <v>12.82051282051282</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="L360" t="n">
         <v>3140.7</v>
@@ -18867,7 +18889,7 @@
         <v>2195</v>
       </c>
       <c r="K361" t="n">
-        <v>2.325581395348837</v>
+        <v>-16</v>
       </c>
       <c r="L361" t="n">
         <v>3141.3</v>
@@ -18918,7 +18940,7 @@
         <v>2209</v>
       </c>
       <c r="K362" t="n">
-        <v>16</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L362" t="n">
         <v>3141.9</v>
@@ -18969,7 +18991,7 @@
         <v>2209</v>
       </c>
       <c r="K363" t="n">
-        <v>8.695652173913043</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L363" t="n">
         <v>3143.8</v>
@@ -19020,7 +19042,7 @@
         <v>2224</v>
       </c>
       <c r="K364" t="n">
-        <v>-4.761904761904762</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L364" t="n">
         <v>3143</v>
@@ -19071,7 +19093,7 @@
         <v>2239</v>
       </c>
       <c r="K365" t="n">
-        <v>17.11711711711712</v>
+        <v>8.196721311475409</v>
       </c>
       <c r="L365" t="n">
         <v>3144</v>
@@ -19122,7 +19144,7 @@
         <v>2241</v>
       </c>
       <c r="K366" t="n">
-        <v>18.58407079646018</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L366" t="n">
         <v>3144.7</v>
@@ -19173,7 +19195,7 @@
         <v>2250</v>
       </c>
       <c r="K367" t="n">
-        <v>10.74380165289256</v>
+        <v>-7.246376811594203</v>
       </c>
       <c r="L367" t="n">
         <v>3144.5</v>
@@ -19224,7 +19246,7 @@
         <v>2263</v>
       </c>
       <c r="K368" t="n">
-        <v>18.79699248120301</v>
+        <v>13.92405063291139</v>
       </c>
       <c r="L368" t="n">
         <v>3145.3</v>
@@ -19275,7 +19297,7 @@
         <v>2269</v>
       </c>
       <c r="K369" t="n">
-        <v>22.30215827338129</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L369" t="n">
         <v>3147</v>
@@ -19326,7 +19348,7 @@
         <v>2278</v>
       </c>
       <c r="K370" t="n">
-        <v>27.89115646258503</v>
+        <v>42.16867469879519</v>
       </c>
       <c r="L370" t="n">
         <v>3149.5</v>
@@ -19377,7 +19399,7 @@
         <v>2283</v>
       </c>
       <c r="K371" t="n">
-        <v>30.26315789473684</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L371" t="n">
         <v>3153.5</v>
@@ -19428,7 +19450,7 @@
         <v>2283</v>
       </c>
       <c r="K372" t="n">
-        <v>23.18840579710145</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L372" t="n">
         <v>3156.1</v>
@@ -19479,7 +19501,7 @@
         <v>2283</v>
       </c>
       <c r="K373" t="n">
-        <v>36</v>
+        <v>69.49152542372882</v>
       </c>
       <c r="L373" t="n">
         <v>3158.7</v>
@@ -19530,7 +19552,7 @@
         <v>2283</v>
       </c>
       <c r="K374" t="n">
-        <v>29.20353982300885</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="L374" t="n">
         <v>3162.8</v>
@@ -19581,7 +19603,7 @@
         <v>2285</v>
       </c>
       <c r="K375" t="n">
-        <v>33.92857142857143</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="L375" t="n">
         <v>3165.6</v>
@@ -19632,7 +19654,7 @@
         <v>2285</v>
       </c>
       <c r="K376" t="n">
-        <v>30.8411214953271</v>
+        <v>100</v>
       </c>
       <c r="L376" t="n">
         <v>3168.2</v>
@@ -19683,7 +19705,7 @@
         <v>2287</v>
       </c>
       <c r="K377" t="n">
-        <v>28.44036697247707</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L377" t="n">
         <v>3171.5</v>
@@ -19734,7 +19756,7 @@
         <v>2295</v>
       </c>
       <c r="K378" t="n">
-        <v>17.5438596491228</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L378" t="n">
         <v>3172.7</v>
@@ -19785,7 +19807,7 @@
         <v>2304</v>
       </c>
       <c r="K379" t="n">
-        <v>26.66666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L379" t="n">
         <v>3174.2</v>
@@ -19836,7 +19858,7 @@
         <v>2305</v>
       </c>
       <c r="K380" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>3174.7</v>
@@ -19887,7 +19909,7 @@
         <v>2307</v>
       </c>
       <c r="K381" t="n">
-        <v>37.5</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L381" t="n">
         <v>3174.9</v>
@@ -19938,7 +19960,7 @@
         <v>2307</v>
       </c>
       <c r="K382" t="n">
-        <v>28.57142857142857</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L382" t="n">
         <v>3175.1</v>
@@ -19989,7 +20011,7 @@
         <v>2319</v>
       </c>
       <c r="K383" t="n">
-        <v>36.36363636363637</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L383" t="n">
         <v>3176.5</v>
@@ -20040,7 +20062,7 @@
         <v>2320</v>
       </c>
       <c r="K384" t="n">
-        <v>58.33333333333334</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L384" t="n">
         <v>3178</v>
@@ -20091,7 +20113,7 @@
         <v>2321</v>
       </c>
       <c r="K385" t="n">
-        <v>48.78048780487805</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L385" t="n">
         <v>3179.2</v>
@@ -20142,7 +20164,7 @@
         <v>2322</v>
       </c>
       <c r="K386" t="n">
-        <v>48.14814814814815</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L386" t="n">
         <v>3180.5</v>
@@ -20193,7 +20215,7 @@
         <v>2329</v>
       </c>
       <c r="K387" t="n">
-        <v>69.62025316455697</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L387" t="n">
         <v>3182.7</v>
@@ -20244,7 +20266,7 @@
         <v>2330</v>
       </c>
       <c r="K388" t="n">
-        <v>64.17910447761194</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L388" t="n">
         <v>3185.8</v>
@@ -20295,7 +20317,7 @@
         <v>2332</v>
       </c>
       <c r="K389" t="n">
-        <v>55.55555555555556</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L389" t="n">
         <v>3187.8</v>
@@ -20346,7 +20368,7 @@
         <v>2334</v>
       </c>
       <c r="K390" t="n">
-        <v>50</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L390" t="n">
         <v>3190.1</v>
@@ -20397,7 +20419,7 @@
         <v>2341</v>
       </c>
       <c r="K391" t="n">
-        <v>27.58620689655172</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L391" t="n">
         <v>3191.5</v>
@@ -20448,7 +20470,7 @@
         <v>2346</v>
       </c>
       <c r="K392" t="n">
-        <v>33.33333333333333</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L392" t="n">
         <v>3193.4</v>
@@ -20499,7 +20521,7 @@
         <v>2352</v>
       </c>
       <c r="K393" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>3193.5</v>
@@ -20550,7 +20572,7 @@
         <v>2358</v>
       </c>
       <c r="K394" t="n">
-        <v>28</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L394" t="n">
         <v>3194.1</v>
@@ -20601,7 +20623,7 @@
         <v>2365</v>
       </c>
       <c r="K395" t="n">
-        <v>15</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L395" t="n">
         <v>3194.1</v>
@@ -20652,7 +20674,7 @@
         <v>2365</v>
       </c>
       <c r="K396" t="n">
-        <v>15</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L396" t="n">
         <v>3194</v>
@@ -20703,7 +20725,7 @@
         <v>2365</v>
       </c>
       <c r="K397" t="n">
-        <v>17.94871794871795</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L397" t="n">
         <v>3193.2</v>
@@ -20754,7 +20776,7 @@
         <v>2365</v>
       </c>
       <c r="K398" t="n">
-        <v>31.42857142857143</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L398" t="n">
         <v>3192.3</v>
@@ -20805,7 +20827,7 @@
         <v>2366</v>
       </c>
       <c r="K399" t="n">
-        <v>22.58064516129032</v>
+        <v>-25</v>
       </c>
       <c r="L399" t="n">
         <v>3191.7</v>
@@ -20856,7 +20878,7 @@
         <v>2372</v>
       </c>
       <c r="K400" t="n">
-        <v>31.34328358208955</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L400" t="n">
         <v>3191.5</v>
@@ -20907,7 +20929,7 @@
         <v>2378</v>
       </c>
       <c r="K401" t="n">
-        <v>18.30985915492958</v>
+        <v>-18.75</v>
       </c>
       <c r="L401" t="n">
         <v>3191.4</v>
@@ -20958,7 +20980,7 @@
         <v>2386</v>
       </c>
       <c r="K402" t="n">
-        <v>26.58227848101265</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L402" t="n">
         <v>3191.6</v>
@@ -21009,7 +21031,7 @@
         <v>2388</v>
       </c>
       <c r="K403" t="n">
-        <v>15.94202898550724</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L403" t="n">
         <v>3192.6</v>
@@ -21060,7 +21082,7 @@
         <v>2389</v>
       </c>
       <c r="K404" t="n">
-        <v>15.94202898550724</v>
+        <v>50</v>
       </c>
       <c r="L404" t="n">
         <v>3193.1</v>
@@ -21111,7 +21133,7 @@
         <v>2394</v>
       </c>
       <c r="K405" t="n">
-        <v>23.28767123287671</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L405" t="n">
         <v>3194.8</v>
@@ -21162,7 +21184,7 @@
         <v>2395</v>
       </c>
       <c r="K406" t="n">
-        <v>20.54794520547945</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L406" t="n">
         <v>3196.4</v>
@@ -21213,7 +21235,7 @@
         <v>2414</v>
       </c>
       <c r="K407" t="n">
-        <v>-12.94117647058824</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L407" t="n">
         <v>3196.1</v>
@@ -21264,7 +21286,7 @@
         <v>2416</v>
       </c>
       <c r="K408" t="n">
-        <v>-16.27906976744186</v>
+        <v>-12</v>
       </c>
       <c r="L408" t="n">
         <v>3195.6</v>
@@ -21315,7 +21337,7 @@
         <v>2417</v>
       </c>
       <c r="K409" t="n">
-        <v>-12.94117647058824</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L409" t="n">
         <v>3195.1</v>
@@ -21366,7 +21388,7 @@
         <v>2417</v>
       </c>
       <c r="K410" t="n">
-        <v>-15.66265060240964</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L410" t="n">
         <v>3194</v>
@@ -21417,7 +21439,7 @@
         <v>2433</v>
       </c>
       <c r="K411" t="n">
-        <v>10.8695652173913</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L411" t="n">
         <v>3195.1</v>
@@ -21468,7 +21490,7 @@
         <v>2433</v>
       </c>
       <c r="K412" t="n">
-        <v>5.747126436781609</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="L412" t="n">
         <v>3195.4</v>
@@ -21519,7 +21541,7 @@
         <v>2438</v>
       </c>
       <c r="K413" t="n">
-        <v>6.976744186046512</v>
+        <v>-10.20408163265306</v>
       </c>
       <c r="L413" t="n">
         <v>3195</v>
@@ -21570,7 +21592,7 @@
         <v>2444</v>
       </c>
       <c r="K414" t="n">
-        <v>-6.976744186046512</v>
+        <v>-32</v>
       </c>
       <c r="L414" t="n">
         <v>3193.9</v>
@@ -21621,7 +21643,7 @@
         <v>2444</v>
       </c>
       <c r="K415" t="n">
-        <v>1.265822784810127</v>
+        <v>-30.61224489795918</v>
       </c>
       <c r="L415" t="n">
         <v>3192.3</v>
@@ -21672,7 +21694,7 @@
         <v>2451</v>
       </c>
       <c r="K416" t="n">
-        <v>9.302325581395349</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L416" t="n">
         <v>3191.5</v>
@@ -21723,7 +21745,7 @@
         <v>2460</v>
       </c>
       <c r="K417" t="n">
-        <v>-1.052631578947368</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L417" t="n">
         <v>3191.7</v>
@@ -21774,7 +21796,7 @@
         <v>2460</v>
       </c>
       <c r="K418" t="n">
-        <v>-1.052631578947368</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L418" t="n">
         <v>3192.1</v>
@@ -21825,7 +21847,7 @@
         <v>2460</v>
       </c>
       <c r="K419" t="n">
-        <v>-2.127659574468085</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L419" t="n">
         <v>3192.4</v>
@@ -21876,7 +21898,7 @@
         <v>2467</v>
       </c>
       <c r="K420" t="n">
-        <v>-1.052631578947368</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L420" t="n">
         <v>3193.4</v>
@@ -21927,7 +21949,7 @@
         <v>2473</v>
       </c>
       <c r="K421" t="n">
-        <v>-1.052631578947368</v>
+        <v>-30</v>
       </c>
       <c r="L421" t="n">
         <v>3192.2</v>
@@ -21978,7 +22000,7 @@
         <v>2474</v>
       </c>
       <c r="K422" t="n">
-        <v>-11.36363636363636</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L422" t="n">
         <v>3190.9</v>
@@ -22029,7 +22051,7 @@
         <v>2474</v>
       </c>
       <c r="K423" t="n">
-        <v>-13.95348837209302</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L423" t="n">
         <v>3190.1</v>
@@ -22080,7 +22102,7 @@
         <v>2485</v>
       </c>
       <c r="K424" t="n">
-        <v>-25</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L424" t="n">
         <v>3188.8</v>
@@ -22131,7 +22153,7 @@
         <v>2486</v>
       </c>
       <c r="K425" t="n">
-        <v>-32.60869565217391</v>
+        <v>-60</v>
       </c>
       <c r="L425" t="n">
         <v>3187.4</v>
@@ -22182,7 +22204,7 @@
         <v>2493</v>
       </c>
       <c r="K426" t="n">
-        <v>-36.73469387755102</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="L426" t="n">
         <v>3184.6</v>
@@ -22233,7 +22255,7 @@
         <v>2500</v>
       </c>
       <c r="K427" t="n">
-        <v>-11.62790697674419</v>
+        <v>-30</v>
       </c>
       <c r="L427" t="n">
         <v>3183.4</v>
@@ -22284,7 +22306,7 @@
         <v>2500</v>
       </c>
       <c r="K428" t="n">
-        <v>-9.523809523809524</v>
+        <v>-30</v>
       </c>
       <c r="L428" t="n">
         <v>3182.2</v>
@@ -22335,7 +22357,7 @@
         <v>2510</v>
       </c>
       <c r="K429" t="n">
-        <v>1.075268817204301</v>
+        <v>-20.93023255813954</v>
       </c>
       <c r="L429" t="n">
         <v>3182</v>
@@ -22386,7 +22408,7 @@
         <v>2519</v>
       </c>
       <c r="K430" t="n">
-        <v>-7.84313725490196</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L430" t="n">
         <v>3180.2</v>
@@ -22437,7 +22459,7 @@
         <v>2528</v>
       </c>
       <c r="K431" t="n">
-        <v>-15.78947368421053</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L431" t="n">
         <v>3179.9</v>
@@ -22488,7 +22510,7 @@
         <v>2529</v>
       </c>
       <c r="K432" t="n">
-        <v>-16.66666666666666</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L432" t="n">
         <v>3179.6</v>
@@ -22539,7 +22561,7 @@
         <v>2536</v>
       </c>
       <c r="K433" t="n">
-        <v>-18.36734693877551</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L433" t="n">
         <v>3178.6</v>
@@ -22590,7 +22612,7 @@
         <v>2544</v>
       </c>
       <c r="K434" t="n">
-        <v>-4</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L434" t="n">
         <v>3179.5</v>
@@ -22641,7 +22663,7 @@
         <v>2553</v>
       </c>
       <c r="K435" t="n">
-        <v>-11.92660550458716</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>3179.6</v>
@@ -22692,7 +22714,7 @@
         <v>2563</v>
       </c>
       <c r="K436" t="n">
-        <v>-8.928571428571429</v>
+        <v>17.46031746031746</v>
       </c>
       <c r="L436" t="n">
         <v>3181.4</v>
@@ -22743,7 +22765,7 @@
         <v>2565</v>
       </c>
       <c r="K437" t="n">
-        <v>-2.857142857142857</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="L437" t="n">
         <v>3182.3</v>
@@ -22794,7 +22816,7 @@
         <v>2568</v>
       </c>
       <c r="K438" t="n">
-        <v>-5.555555555555555</v>
+        <v>-6.896551724137931</v>
       </c>
       <c r="L438" t="n">
         <v>3182.9</v>
@@ -22845,7 +22867,7 @@
         <v>2571</v>
       </c>
       <c r="K439" t="n">
-        <v>-2.702702702702703</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L439" t="n">
         <v>3182.8</v>
@@ -22896,7 +22918,7 @@
         <v>2571</v>
       </c>
       <c r="K440" t="n">
-        <v>-9.615384615384617</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L440" t="n">
         <v>3183.6</v>
@@ -22947,7 +22969,7 @@
         <v>2574</v>
       </c>
       <c r="K441" t="n">
-        <v>-0.9900990099009901</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L441" t="n">
         <v>3183.8</v>
@@ -22998,7 +23020,7 @@
         <v>2574</v>
       </c>
       <c r="K442" t="n">
-        <v>0</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L442" t="n">
         <v>3184.1</v>
@@ -23049,7 +23071,7 @@
         <v>2574</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L443" t="n">
         <v>3185.1</v>
@@ -23100,7 +23122,7 @@
         <v>2574</v>
       </c>
       <c r="K444" t="n">
-        <v>12.35955056179775</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L444" t="n">
         <v>3185.3</v>
@@ -23151,7 +23173,7 @@
         <v>2574</v>
       </c>
       <c r="K445" t="n">
-        <v>13.63636363636363</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L445" t="n">
         <v>3186.4</v>
@@ -23202,7 +23224,7 @@
         <v>2576</v>
       </c>
       <c r="K446" t="n">
-        <v>25.30120481927711</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L446" t="n">
         <v>3186.7</v>
@@ -23253,7 +23275,7 @@
         <v>2577</v>
       </c>
       <c r="K447" t="n">
-        <v>19.48051948051948</v>
+        <v>100</v>
       </c>
       <c r="L447" t="n">
         <v>3187.3</v>
@@ -23304,7 +23326,7 @@
         <v>2580</v>
       </c>
       <c r="K448" t="n">
-        <v>15</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L448" t="n">
         <v>3187.9</v>
@@ -23355,7 +23377,7 @@
         <v>2584</v>
       </c>
       <c r="K449" t="n">
-        <v>-2.702702702702703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L449" t="n">
         <v>3187.8</v>
@@ -23406,7 +23428,7 @@
         <v>2584</v>
       </c>
       <c r="K450" t="n">
-        <v>10.76923076923077</v>
+        <v>-40</v>
       </c>
       <c r="L450" t="n">
         <v>3187.7</v>
@@ -23457,7 +23479,7 @@
         <v>2585</v>
       </c>
       <c r="K451" t="n">
-        <v>-5.263157894736842</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L451" t="n">
         <v>3187.2</v>
@@ -23508,7 +23530,7 @@
         <v>2585</v>
       </c>
       <c r="K452" t="n">
-        <v>-3.571428571428571</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L452" t="n">
         <v>3186.7</v>
@@ -23559,7 +23581,7 @@
         <v>2590</v>
       </c>
       <c r="K453" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L453" t="n">
         <v>3186.7</v>
@@ -23610,7 +23632,7 @@
         <v>2590</v>
       </c>
       <c r="K454" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>3186.7</v>
@@ -23661,7 +23683,7 @@
         <v>2590</v>
       </c>
       <c r="K455" t="n">
-        <v>29.72972972972973</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L455" t="n">
         <v>3186.7</v>
@@ -23712,7 +23734,7 @@
         <v>2592</v>
       </c>
       <c r="K456" t="n">
-        <v>10.3448275862069</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L456" t="n">
         <v>3186.7</v>
@@ -23763,7 +23785,7 @@
         <v>2593</v>
       </c>
       <c r="K457" t="n">
-        <v>21.42857142857143</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L457" t="n">
         <v>3186.7</v>
@@ -23814,7 +23836,7 @@
         <v>2593</v>
       </c>
       <c r="K458" t="n">
-        <v>36</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L458" t="n">
         <v>3187</v>
@@ -23865,7 +23887,7 @@
         <v>2608</v>
       </c>
       <c r="K459" t="n">
-        <v>56.75675675675676</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="L459" t="n">
         <v>3189.2</v>
@@ -23916,7 +23938,7 @@
         <v>2621</v>
       </c>
       <c r="K460" t="n">
-        <v>16</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L460" t="n">
         <v>3190.1</v>
@@ -23967,7 +23989,7 @@
         <v>2633</v>
       </c>
       <c r="K461" t="n">
-        <v>28.8135593220339</v>
+        <v>45.83333333333333</v>
       </c>
       <c r="L461" t="n">
         <v>3192.3</v>
@@ -24018,7 +24040,7 @@
         <v>2633</v>
       </c>
       <c r="K462" t="n">
-        <v>28.8135593220339</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L462" t="n">
         <v>3194.5</v>
@@ -24069,7 +24091,7 @@
         <v>2638</v>
       </c>
       <c r="K463" t="n">
-        <v>34.375</v>
+        <v>45.83333333333333</v>
       </c>
       <c r="L463" t="n">
         <v>3196.7</v>
@@ -24120,7 +24142,7 @@
         <v>2648</v>
       </c>
       <c r="K464" t="n">
-        <v>43.24324324324324</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="L464" t="n">
         <v>3199.9</v>
@@ -24171,7 +24193,7 @@
         <v>2650</v>
       </c>
       <c r="K465" t="n">
-        <v>44.73684210526316</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="L465" t="n">
         <v>3203.3</v>
@@ -24222,7 +24244,7 @@
         <v>2651</v>
       </c>
       <c r="K466" t="n">
-        <v>41.33333333333334</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L466" t="n">
         <v>3206.4</v>
@@ -24273,7 +24295,7 @@
         <v>2662</v>
       </c>
       <c r="K467" t="n">
-        <v>22.35294117647059</v>
+        <v>27.53623188405797</v>
       </c>
       <c r="L467" t="n">
         <v>3208.3</v>
@@ -24324,7 +24346,7 @@
         <v>2671</v>
       </c>
       <c r="K468" t="n">
-        <v>14.28571428571428</v>
+        <v>-7.936507936507936</v>
       </c>
       <c r="L468" t="n">
         <v>3209.3</v>
@@ -24375,7 +24397,7 @@
         <v>2680</v>
       </c>
       <c r="K469" t="n">
-        <v>27.08333333333333</v>
+        <v>28.8135593220339</v>
       </c>
       <c r="L469" t="n">
         <v>3209.7</v>
@@ -24426,7 +24448,7 @@
         <v>2690</v>
       </c>
       <c r="K470" t="n">
-        <v>15.09433962264151</v>
+        <v>-8.771929824561402</v>
       </c>
       <c r="L470" t="n">
         <v>3210.4</v>
@@ -24477,7 +24499,7 @@
         <v>2700</v>
       </c>
       <c r="K471" t="n">
-        <v>6.086956521739131</v>
+        <v>-22.38805970149254</v>
       </c>
       <c r="L471" t="n">
         <v>3208.9</v>
@@ -24528,7 +24550,7 @@
         <v>2701</v>
       </c>
       <c r="K472" t="n">
-        <v>6.896551724137931</v>
+        <v>-30.15873015873016</v>
       </c>
       <c r="L472" t="n">
         <v>3207.5</v>
@@ -24579,7 +24601,7 @@
         <v>2701</v>
       </c>
       <c r="K473" t="n">
-        <v>2.702702702702703</v>
+        <v>-54.71698113207547</v>
       </c>
       <c r="L473" t="n">
         <v>3205.6</v>
@@ -24630,7 +24652,7 @@
         <v>2703</v>
       </c>
       <c r="K474" t="n">
-        <v>0.8849557522123894</v>
+        <v>-62.26415094339622</v>
       </c>
       <c r="L474" t="n">
         <v>3202.5</v>
@@ -24681,7 +24703,7 @@
         <v>2703</v>
       </c>
       <c r="K475" t="n">
-        <v>0.8849557522123894</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L475" t="n">
         <v>3199.2</v>
@@ -24732,7 +24754,7 @@
         <v>2708</v>
       </c>
       <c r="K476" t="n">
-        <v>-5.172413793103448</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L476" t="n">
         <v>3195.5</v>
@@ -24783,7 +24805,7 @@
         <v>2709</v>
       </c>
       <c r="K477" t="n">
-        <v>-5.172413793103448</v>
+        <v>-42.10526315789473</v>
       </c>
       <c r="L477" t="n">
         <v>3193</v>
@@ -24834,7 +24856,7 @@
         <v>2713</v>
       </c>
       <c r="K478" t="n">
-        <v>-8.333333333333332</v>
+        <v>-87.87878787878788</v>
       </c>
       <c r="L478" t="n">
         <v>3191</v>
@@ -24885,7 +24907,7 @@
         <v>2715</v>
       </c>
       <c r="K479" t="n">
-        <v>-21.49532710280374</v>
+        <v>-68</v>
       </c>
       <c r="L479" t="n">
         <v>3188.3</v>
@@ -24936,7 +24958,7 @@
         <v>2716</v>
       </c>
       <c r="K480" t="n">
-        <v>-9.473684210526317</v>
+        <v>-37.5</v>
       </c>
       <c r="L480" t="n">
         <v>3186.7</v>
@@ -24987,7 +25009,7 @@
         <v>2716</v>
       </c>
       <c r="K481" t="n">
-        <v>-25.30120481927711</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L481" t="n">
         <v>3186.1</v>
@@ -25038,7 +25060,7 @@
         <v>2723</v>
       </c>
       <c r="K482" t="n">
-        <v>-15.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>3186.1</v>
@@ -25089,7 +25111,7 @@
         <v>2732</v>
       </c>
       <c r="K483" t="n">
-        <v>-10.63829787234043</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L483" t="n">
         <v>3187</v>
@@ -25140,7 +25162,7 @@
         <v>2732</v>
       </c>
       <c r="K484" t="n">
-        <v>-23.80952380952381</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L484" t="n">
         <v>3188.1</v>
@@ -25191,7 +25213,7 @@
         <v>2738</v>
       </c>
       <c r="K485" t="n">
-        <v>-31.81818181818182</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L485" t="n">
         <v>3188.6</v>
@@ -25242,7 +25264,7 @@
         <v>2741</v>
       </c>
       <c r="K486" t="n">
-        <v>-33.33333333333333</v>
+        <v>18.75</v>
       </c>
       <c r="L486" t="n">
         <v>3189.3</v>
@@ -25293,7 +25315,7 @@
         <v>2742</v>
       </c>
       <c r="K487" t="n">
-        <v>-25</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L487" t="n">
         <v>3189.8</v>
@@ -25344,7 +25366,7 @@
         <v>2748</v>
       </c>
       <c r="K488" t="n">
-        <v>-6.493506493506493</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L488" t="n">
         <v>3191.3</v>
@@ -25395,7 +25417,7 @@
         <v>2748</v>
       </c>
       <c r="K489" t="n">
-        <v>-20.58823529411764</v>
+        <v>37.5</v>
       </c>
       <c r="L489" t="n">
         <v>3192.6</v>
@@ -25446,7 +25468,7 @@
         <v>2748</v>
       </c>
       <c r="K490" t="n">
-        <v>-6.896551724137931</v>
+        <v>37.5</v>
       </c>
       <c r="L490" t="n">
         <v>3193.8</v>
@@ -25497,7 +25519,7 @@
         <v>2757</v>
       </c>
       <c r="K491" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L491" t="n">
         <v>3194.1</v>
@@ -25548,7 +25570,7 @@
         <v>2766</v>
       </c>
       <c r="K492" t="n">
-        <v>7.692307692307693</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L492" t="n">
         <v>3194.6</v>
@@ -25599,7 +25621,7 @@
         <v>2766</v>
       </c>
       <c r="K493" t="n">
-        <v>7.692307692307693</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L493" t="n">
         <v>3194.2</v>
@@ -25650,7 +25672,7 @@
         <v>2766</v>
       </c>
       <c r="K494" t="n">
-        <v>11.11111111111111</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L494" t="n">
         <v>3193.8</v>
@@ -25701,7 +25723,7 @@
         <v>2779</v>
       </c>
       <c r="K495" t="n">
-        <v>-7.894736842105263</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L495" t="n">
         <v>3192.7</v>
@@ -25752,7 +25774,7 @@
         <v>2782</v>
       </c>
       <c r="K496" t="n">
-        <v>-5.405405405405405</v>
+        <v>-25</v>
       </c>
       <c r="L496" t="n">
         <v>3191.6</v>
@@ -25803,7 +25825,7 @@
         <v>2782</v>
       </c>
       <c r="K497" t="n">
-        <v>-6.849315068493151</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L497" t="n">
         <v>3190.6</v>
@@ -25854,7 +25876,7 @@
         <v>2786</v>
       </c>
       <c r="K498" t="n">
-        <v>-6.849315068493151</v>
+        <v>-52.63157894736842</v>
       </c>
       <c r="L498" t="n">
         <v>3188.6</v>
@@ -25905,7 +25927,7 @@
         <v>2792</v>
       </c>
       <c r="K499" t="n">
-        <v>-16.88311688311688</v>
+        <v>-59.09090909090909</v>
       </c>
       <c r="L499" t="n">
         <v>3186</v>
@@ -25956,7 +25978,7 @@
         <v>2793</v>
       </c>
       <c r="K500" t="n">
-        <v>-16.88311688311688</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L500" t="n">
         <v>3183.5</v>
@@ -26007,7 +26029,7 @@
         <v>2800</v>
       </c>
       <c r="K501" t="n">
-        <v>-23.80952380952381</v>
+        <v>-94.11764705882352</v>
       </c>
       <c r="L501" t="n">
         <v>3181.2</v>
@@ -26058,7 +26080,7 @@
         <v>2801</v>
       </c>
       <c r="K502" t="n">
-        <v>-35.8974358974359</v>
+        <v>-94.28571428571428</v>
       </c>
       <c r="L502" t="n">
         <v>3177.9</v>
@@ -26109,7 +26131,7 @@
         <v>2801</v>
       </c>
       <c r="K503" t="n">
-        <v>-53.62318840579711</v>
+        <v>-94.28571428571428</v>
       </c>
       <c r="L503" t="n">
         <v>3174.6</v>
@@ -26160,7 +26182,7 @@
         <v>2804</v>
       </c>
       <c r="K504" t="n">
-        <v>-55.55555555555556</v>
+        <v>-92</v>
       </c>
       <c r="L504" t="n">
         <v>3171</v>
@@ -26211,7 +26233,7 @@
         <v>2810</v>
       </c>
       <c r="K505" t="n">
-        <v>-55.55555555555556</v>
+        <v>-92.85714285714286</v>
       </c>
       <c r="L505" t="n">
         <v>3168.1</v>
@@ -26262,7 +26284,7 @@
         <v>2812</v>
       </c>
       <c r="K506" t="n">
-        <v>-54.92957746478874</v>
+        <v>-93.33333333333333</v>
       </c>
       <c r="L506" t="n">
         <v>3165.3</v>
@@ -26313,7 +26335,7 @@
         <v>2820</v>
       </c>
       <c r="K507" t="n">
-        <v>-58.97435897435898</v>
+        <v>-94.11764705882352</v>
       </c>
       <c r="L507" t="n">
         <v>3161.7</v>
@@ -26364,7 +26386,7 @@
         <v>2828</v>
       </c>
       <c r="K508" t="n">
-        <v>-55.00000000000001</v>
+        <v>-50</v>
       </c>
       <c r="L508" t="n">
         <v>3159.3</v>
@@ -26415,7 +26437,7 @@
         <v>2828</v>
       </c>
       <c r="K509" t="n">
-        <v>-55.00000000000001</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L509" t="n">
         <v>3157.5</v>
@@ -26466,7 +26488,7 @@
         <v>2828</v>
       </c>
       <c r="K510" t="n">
-        <v>-55.00000000000001</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L510" t="n">
         <v>3155.6</v>
@@ -26517,7 +26539,7 @@
         <v>2831</v>
       </c>
       <c r="K511" t="n">
-        <v>-43.24324324324324</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L511" t="n">
         <v>3154.7</v>
@@ -26568,7 +26590,7 @@
         <v>2843</v>
       </c>
       <c r="K512" t="n">
-        <v>-68.83116883116884</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L512" t="n">
         <v>3152.7</v>
@@ -26619,7 +26641,7 @@
         <v>2844</v>
       </c>
       <c r="K513" t="n">
-        <v>-69.23076923076923</v>
+        <v>-45</v>
       </c>
       <c r="L513" t="n">
         <v>3150.6</v>
@@ -26670,7 +26692,7 @@
         <v>2849</v>
       </c>
       <c r="K514" t="n">
-        <v>-59.03614457831326</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L514" t="n">
         <v>3149.3</v>
@@ -26721,7 +26743,7 @@
         <v>2856</v>
       </c>
       <c r="K515" t="n">
-        <v>-37.66233766233766</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L515" t="n">
         <v>3149.3</v>
@@ -26772,7 +26794,7 @@
         <v>2862</v>
       </c>
       <c r="K516" t="n">
-        <v>-25</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L516" t="n">
         <v>3150.1</v>
@@ -26823,7 +26845,7 @@
         <v>2862</v>
       </c>
       <c r="K517" t="n">
-        <v>-25</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L517" t="n">
         <v>3151.7</v>
@@ -26874,7 +26896,7 @@
         <v>2875</v>
       </c>
       <c r="K518" t="n">
-        <v>-3.370786516853932</v>
+        <v>44.68085106382978</v>
       </c>
       <c r="L518" t="n">
         <v>3153.8</v>
@@ -26925,7 +26947,7 @@
         <v>2887</v>
       </c>
       <c r="K519" t="n">
-        <v>-9.473684210526317</v>
+        <v>15.25423728813559</v>
       </c>
       <c r="L519" t="n">
         <v>3154.7</v>
@@ -26976,7 +26998,7 @@
         <v>2887</v>
       </c>
       <c r="K520" t="n">
-        <v>-10.63829787234043</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="L520" t="n">
         <v>3155.6</v>
@@ -27027,7 +27049,7 @@
         <v>2889</v>
       </c>
       <c r="K521" t="n">
-        <v>-1.123595505617978</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="L521" t="n">
         <v>3156.4</v>
@@ -27078,7 +27100,7 @@
         <v>2901</v>
       </c>
       <c r="K522" t="n">
-        <v>12</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L522" t="n">
         <v>3159.6</v>
@@ -27129,7 +27151,7 @@
         <v>2901</v>
       </c>
       <c r="K523" t="n">
-        <v>12</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L523" t="n">
         <v>3162.9</v>
@@ -27180,7 +27202,7 @@
         <v>2901</v>
       </c>
       <c r="K524" t="n">
-        <v>15.4639175257732</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L524" t="n">
         <v>3165.7</v>
@@ -27231,7 +27253,7 @@
         <v>2925</v>
       </c>
       <c r="K525" t="n">
-        <v>39.1304347826087</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L525" t="n">
         <v>3170.2</v>
@@ -27282,7 +27304,7 @@
         <v>2927</v>
       </c>
       <c r="K526" t="n">
-        <v>42.60869565217391</v>
+        <v>63.07692307692307</v>
       </c>
       <c r="L526" t="n">
         <v>3174.3</v>
@@ -27333,7 +27355,7 @@
         <v>2935</v>
       </c>
       <c r="K527" t="n">
-        <v>42.60869565217391</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L527" t="n">
         <v>3177.6</v>
@@ -27384,7 +27406,7 @@
         <v>2945</v>
       </c>
       <c r="K528" t="n">
-        <v>43.58974358974359</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L528" t="n">
         <v>3180.6</v>
@@ -27435,7 +27457,7 @@
         <v>2945</v>
       </c>
       <c r="K529" t="n">
-        <v>43.58974358974359</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L529" t="n">
         <v>3184.8</v>
@@ -27486,7 +27508,7 @@
         <v>2952</v>
       </c>
       <c r="K530" t="n">
-        <v>46.7741935483871</v>
+        <v>74.60317460317461</v>
       </c>
       <c r="L530" t="n">
         <v>3189.7</v>
@@ -27537,7 +27559,7 @@
         <v>2981</v>
       </c>
       <c r="K531" t="n">
-        <v>17.33333333333334</v>
+        <v>7.5</v>
       </c>
       <c r="L531" t="n">
         <v>3191.5</v>
@@ -27588,7 +27610,7 @@
         <v>2985</v>
       </c>
       <c r="K532" t="n">
-        <v>29.57746478873239</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="L532" t="n">
         <v>3192.5</v>
@@ -27639,7 +27661,7 @@
         <v>2992</v>
       </c>
       <c r="K533" t="n">
-        <v>33.78378378378378</v>
+        <v>18.68131868131868</v>
       </c>
       <c r="L533" t="n">
         <v>3194.2</v>
@@ -27690,7 +27712,7 @@
         <v>2994</v>
       </c>
       <c r="K534" t="n">
-        <v>32.41379310344827</v>
+        <v>-7.246376811594203</v>
       </c>
       <c r="L534" t="n">
         <v>3196.1</v>
@@ -27741,7 +27763,7 @@
         <v>3008</v>
       </c>
       <c r="K535" t="n">
-        <v>35.52631578947368</v>
+        <v>8.641975308641975</v>
       </c>
       <c r="L535" t="n">
         <v>3197</v>
@@ -27792,7 +27814,7 @@
         <v>3012</v>
       </c>
       <c r="K536" t="n">
-        <v>34.66666666666667</v>
+        <v>24.67532467532467</v>
       </c>
       <c r="L536" t="n">
         <v>3198.1</v>
@@ -27843,7 +27865,7 @@
         <v>3014</v>
       </c>
       <c r="K537" t="n">
-        <v>35.52631578947368</v>
+        <v>15.94202898550724</v>
       </c>
       <c r="L537" t="n">
         <v>3200.2</v>
@@ -27894,7 +27916,7 @@
         <v>3029</v>
       </c>
       <c r="K538" t="n">
-        <v>36.36363636363637</v>
+        <v>30.95238095238095</v>
       </c>
       <c r="L538" t="n">
         <v>3202.8</v>
@@ -27945,7 +27967,7 @@
         <v>3030</v>
       </c>
       <c r="K539" t="n">
-        <v>48.25174825174825</v>
+        <v>25.64102564102564</v>
       </c>
       <c r="L539" t="n">
         <v>3205.5</v>
@@ -27996,7 +28018,7 @@
         <v>3038</v>
       </c>
       <c r="K540" t="n">
-        <v>50.99337748344372</v>
+        <v>100</v>
       </c>
       <c r="L540" t="n">
         <v>3208.3</v>
@@ -28047,7 +28069,7 @@
         <v>3039</v>
       </c>
       <c r="K541" t="n">
-        <v>50.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="L541" t="n">
         <v>3214.1</v>
@@ -28098,7 +28120,7 @@
         <v>3046</v>
       </c>
       <c r="K542" t="n">
-        <v>48.96551724137931</v>
+        <v>100</v>
       </c>
       <c r="L542" t="n">
         <v>3220.2</v>
@@ -28149,7 +28171,7 @@
         <v>3046</v>
       </c>
       <c r="K543" t="n">
-        <v>48.96551724137931</v>
+        <v>100</v>
       </c>
       <c r="L543" t="n">
         <v>3225.6</v>
@@ -28200,7 +28222,7 @@
         <v>3050</v>
       </c>
       <c r="K544" t="n">
-        <v>50.33557046979866</v>
+        <v>100</v>
       </c>
       <c r="L544" t="n">
         <v>3231.2</v>
@@ -28251,7 +28273,7 @@
         <v>3050</v>
       </c>
       <c r="K545" t="n">
-        <v>40.8</v>
+        <v>100</v>
       </c>
       <c r="L545" t="n">
         <v>3235.4</v>
@@ -28302,7 +28324,7 @@
         <v>3051</v>
       </c>
       <c r="K546" t="n">
-        <v>38.70967741935484</v>
+        <v>94.5945945945946</v>
       </c>
       <c r="L546" t="n">
         <v>3239.1</v>
@@ -28353,7 +28375,7 @@
         <v>3051</v>
       </c>
       <c r="K547" t="n">
-        <v>48.27586206896552</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L547" t="n">
         <v>3242.6</v>
@@ -28404,7 +28426,7 @@
         <v>3077</v>
       </c>
       <c r="K548" t="n">
-        <v>15.15151515151515</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L548" t="n">
         <v>3242</v>
@@ -28455,7 +28477,7 @@
         <v>3082</v>
       </c>
       <c r="K549" t="n">
-        <v>18.24817518248175</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L549" t="n">
         <v>3241.8</v>
@@ -28506,7 +28528,7 @@
         <v>3084</v>
       </c>
       <c r="K550" t="n">
-        <v>15.15151515151515</v>
+        <v>-20</v>
       </c>
       <c r="L550" t="n">
         <v>3241</v>
@@ -28557,7 +28579,7 @@
         <v>3089</v>
       </c>
       <c r="K551" t="n">
-        <v>50</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L551" t="n">
         <v>3240.6</v>
@@ -28608,7 +28630,7 @@
         <v>3091</v>
       </c>
       <c r="K552" t="n">
-        <v>45.28301886792453</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L552" t="n">
         <v>3239.3</v>
@@ -28659,7 +28681,7 @@
         <v>3103</v>
       </c>
       <c r="K553" t="n">
-        <v>47.74774774774775</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L553" t="n">
         <v>3239.2</v>
@@ -28710,7 +28732,7 @@
         <v>3105</v>
       </c>
       <c r="K554" t="n">
-        <v>44.14414414414414</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L554" t="n">
         <v>3238.5</v>
@@ -28761,7 +28783,7 @@
         <v>3105</v>
       </c>
       <c r="K555" t="n">
-        <v>36.08247422680412</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L555" t="n">
         <v>3237.8</v>
@@ -28812,7 +28834,7 @@
         <v>3112</v>
       </c>
       <c r="K556" t="n">
-        <v>38</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="L556" t="n">
         <v>3237.9</v>
@@ -28863,7 +28885,7 @@
         <v>3123</v>
       </c>
       <c r="K557" t="n">
-        <v>43.11926605504588</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L557" t="n">
         <v>3239.1</v>
@@ -28914,7 +28936,7 @@
         <v>3123</v>
       </c>
       <c r="K558" t="n">
-        <v>34.04255319148936</v>
+        <v>80.48780487804879</v>
       </c>
       <c r="L558" t="n">
         <v>3242.9</v>
@@ -28965,7 +28987,7 @@
         <v>3124</v>
       </c>
       <c r="K559" t="n">
-        <v>31.91489361702128</v>
+        <v>75</v>
       </c>
       <c r="L559" t="n">
         <v>3246.1</v>
@@ -29016,7 +29038,7 @@
         <v>3126</v>
       </c>
       <c r="K560" t="n">
-        <v>27.27272727272727</v>
+        <v>72.97297297297297</v>
       </c>
       <c r="L560" t="n">
         <v>3249.3</v>
@@ -29067,7 +29089,7 @@
         <v>3138</v>
       </c>
       <c r="K561" t="n">
-        <v>11.11111111111111</v>
+        <v>36.17021276595745</v>
       </c>
       <c r="L561" t="n">
         <v>3250.8</v>
@@ -29118,7 +29140,7 @@
         <v>3152</v>
       </c>
       <c r="K562" t="n">
-        <v>-9.433962264150944</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L562" t="n">
         <v>3251.1</v>
@@ -29169,7 +29191,7 @@
         <v>3164</v>
       </c>
       <c r="K563" t="n">
-        <v>-18.64406779661017</v>
+        <v>-32.20338983050847</v>
       </c>
       <c r="L563" t="n">
         <v>3249</v>
@@ -29220,7 +29242,7 @@
         <v>3164</v>
       </c>
       <c r="K564" t="n">
-        <v>-22.80701754385965</v>
+        <v>-32.20338983050847</v>
       </c>
       <c r="L564" t="n">
         <v>3247.1</v>
@@ -29271,7 +29293,7 @@
         <v>3167</v>
       </c>
       <c r="K565" t="n">
-        <v>-24.78632478632479</v>
+        <v>-52.72727272727272</v>
       </c>
       <c r="L565" t="n">
         <v>3244.9</v>
@@ -29322,7 +29344,7 @@
         <v>3175</v>
       </c>
       <c r="K566" t="n">
-        <v>-29.03225806451613</v>
+        <v>-92.30769230769231</v>
       </c>
       <c r="L566" t="n">
         <v>3241.2</v>
@@ -29373,7 +29395,7 @@
         <v>3201</v>
       </c>
       <c r="K567" t="n">
-        <v>-6.666666666666667</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L567" t="n">
         <v>3239</v>
@@ -29424,7 +29446,7 @@
         <v>3214</v>
       </c>
       <c r="K568" t="n">
-        <v>2.18978102189781</v>
+        <v>-37.77777777777778</v>
       </c>
       <c r="L568" t="n">
         <v>3235.5</v>
@@ -29475,7 +29497,7 @@
         <v>3215</v>
       </c>
       <c r="K569" t="n">
-        <v>-2.255639097744361</v>
+        <v>-41.57303370786517</v>
       </c>
       <c r="L569" t="n">
         <v>3232</v>
@@ -29526,7 +29548,7 @@
         <v>3215</v>
       </c>
       <c r="K570" t="n">
-        <v>-3.816793893129771</v>
+        <v>-32.46753246753246</v>
       </c>
       <c r="L570" t="n">
         <v>3228.3</v>
@@ -29577,7 +29599,7 @@
         <v>3215</v>
       </c>
       <c r="K571" t="n">
-        <v>-7.936507936507936</v>
+        <v>-17.46031746031746</v>
       </c>
       <c r="L571" t="n">
         <v>3225.8</v>
@@ -29628,7 +29650,7 @@
         <v>3215</v>
       </c>
       <c r="K572" t="n">
-        <v>-6.451612903225806</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L572" t="n">
         <v>3224.7</v>
@@ -29679,7 +29701,7 @@
         <v>3235</v>
       </c>
       <c r="K573" t="n">
-        <v>0</v>
+        <v>29.57746478873239</v>
       </c>
       <c r="L573" t="n">
         <v>3226.8</v>
@@ -29730,7 +29752,7 @@
         <v>3244</v>
       </c>
       <c r="K574" t="n">
-        <v>7.913669064748201</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L574" t="n">
         <v>3229.8</v>
@@ -29781,7 +29803,7 @@
         <v>3244</v>
       </c>
       <c r="K575" t="n">
-        <v>7.913669064748201</v>
+        <v>59.42028985507246</v>
       </c>
       <c r="L575" t="n">
         <v>3233.1</v>
@@ -29832,7 +29854,7 @@
         <v>3244</v>
       </c>
       <c r="K576" t="n">
-        <v>3.03030303030303</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="L576" t="n">
         <v>3237.2</v>
@@ -29883,7 +29905,7 @@
         <v>3244</v>
       </c>
       <c r="K577" t="n">
-        <v>-5.785123966942149</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L577" t="n">
         <v>3238.7</v>
@@ -29934,7 +29956,7 @@
         <v>3245</v>
       </c>
       <c r="K578" t="n">
-        <v>-6.557377049180328</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L578" t="n">
         <v>3241.4</v>
@@ -29985,7 +30007,7 @@
         <v>3258</v>
       </c>
       <c r="K579" t="n">
-        <v>-14.92537313432836</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="L579" t="n">
         <v>3242.9</v>
@@ -30036,7 +30058,7 @@
         <v>3259</v>
       </c>
       <c r="K580" t="n">
-        <v>-17.29323308270677</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="L580" t="n">
         <v>3244.3</v>
@@ -30087,7 +30109,7 @@
         <v>3267</v>
       </c>
       <c r="K581" t="n">
-        <v>-14.72868217054264</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L581" t="n">
         <v>3244.9</v>
@@ -30138,7 +30160,7 @@
         <v>3278</v>
       </c>
       <c r="K582" t="n">
-        <v>4.761904761904762</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L582" t="n">
         <v>3246.6</v>
@@ -30189,7 +30211,7 @@
         <v>3278</v>
       </c>
       <c r="K583" t="n">
-        <v>15.78947368421053</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L583" t="n">
         <v>3246.3</v>
@@ -30240,7 +30262,7 @@
         <v>3278</v>
       </c>
       <c r="K584" t="n">
-        <v>15.78947368421053</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L584" t="n">
         <v>3245.1</v>
@@ -30291,7 +30313,7 @@
         <v>3278</v>
       </c>
       <c r="K585" t="n">
-        <v>18.91891891891892</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L585" t="n">
         <v>3243.9</v>
@@ -30342,7 +30364,7 @@
         <v>3279</v>
       </c>
       <c r="K586" t="n">
-        <v>26.92307692307692</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L586" t="n">
         <v>3242.6</v>
@@ -30393,7 +30415,7 @@
         <v>3294</v>
       </c>
       <c r="K587" t="n">
-        <v>-13.97849462365591</v>
+        <v>-55.10204081632652</v>
       </c>
       <c r="L587" t="n">
         <v>3239.8</v>
@@ -30444,7 +30466,7 @@
         <v>3310</v>
       </c>
       <c r="K588" t="n">
-        <v>16.66666666666666</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="L588" t="n">
         <v>3238.7</v>
@@ -30495,7 +30517,7 @@
         <v>3324</v>
       </c>
       <c r="K589" t="n">
-        <v>2.752293577981652</v>
+        <v>-16.92307692307692</v>
       </c>
       <c r="L589" t="n">
         <v>3237.5</v>
@@ -30546,7 +30568,7 @@
         <v>3325</v>
       </c>
       <c r="K590" t="n">
-        <v>3.636363636363636</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L590" t="n">
         <v>3236.5</v>
@@ -30597,7 +30619,7 @@
         <v>3348</v>
       </c>
       <c r="K591" t="n">
-        <v>20.30075187969925</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L591" t="n">
         <v>3238.6</v>
@@ -30648,7 +30670,7 @@
         <v>3348</v>
       </c>
       <c r="K592" t="n">
-        <v>20.30075187969925</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L592" t="n">
         <v>3239.6</v>
@@ -30699,7 +30721,7 @@
         <v>3350</v>
       </c>
       <c r="K593" t="n">
-        <v>7.82608695652174</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L593" t="n">
         <v>3240.8</v>
@@ -30750,7 +30772,7 @@
         <v>3362</v>
       </c>
       <c r="K594" t="n">
-        <v>-10.16949152542373</v>
+        <v>0</v>
       </c>
       <c r="L594" t="n">
         <v>3240.8</v>
@@ -30801,7 +30823,7 @@
         <v>3362</v>
       </c>
       <c r="K595" t="n">
-        <v>-10.16949152542373</v>
+        <v>1.204819277108434</v>
       </c>
       <c r="L595" t="n">
         <v>3240.8</v>
@@ -30852,7 +30874,7 @@
         <v>3373</v>
       </c>
       <c r="K596" t="n">
-        <v>-0.7751937984496124</v>
+        <v>34.17721518987342</v>
       </c>
       <c r="L596" t="n">
         <v>3242</v>
@@ -30903,7 +30925,7 @@
         <v>3399</v>
       </c>
       <c r="K597" t="n">
-        <v>-17.41935483870968</v>
+        <v>-16.85393258426966</v>
       </c>
       <c r="L597" t="n">
         <v>3242.1</v>
@@ -30954,7 +30976,7 @@
         <v>3411</v>
       </c>
       <c r="K598" t="n">
-        <v>-22.89156626506024</v>
+        <v>-14.94252873563219</v>
       </c>
       <c r="L598" t="n">
         <v>3239.4</v>
@@ -31005,7 +31027,7 @@
         <v>3413</v>
       </c>
       <c r="K599" t="n">
-        <v>-17.41935483870968</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L599" t="n">
         <v>3237.9</v>
@@ -31056,7 +31078,7 @@
         <v>3419</v>
       </c>
       <c r="K600" t="n">
-        <v>-20</v>
+        <v>-63.38028169014085</v>
       </c>
       <c r="L600" t="n">
         <v>3235.7</v>
@@ -31107,7 +31129,7 @@
         <v>3428</v>
       </c>
       <c r="K601" t="n">
-        <v>-9.316770186335404</v>
+        <v>-45</v>
       </c>
       <c r="L601" t="n">
         <v>3232.1</v>
@@ -31158,7 +31180,7 @@
         <v>3431</v>
       </c>
       <c r="K602" t="n">
-        <v>-15.03267973856209</v>
+        <v>-43.20987654320987</v>
       </c>
       <c r="L602" t="n">
         <v>3228.8</v>
@@ -31209,7 +31231,7 @@
         <v>3432</v>
       </c>
       <c r="K603" t="n">
-        <v>-14.28571428571428</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L603" t="n">
         <v>3225.4</v>
@@ -31260,7 +31282,7 @@
         <v>3433</v>
       </c>
       <c r="K604" t="n">
-        <v>-14.83870967741935</v>
+        <v>-32.3943661971831</v>
       </c>
       <c r="L604" t="n">
         <v>3223.1</v>
@@ -31311,7 +31333,7 @@
         <v>3446</v>
       </c>
       <c r="K605" t="n">
-        <v>-21.42857142857143</v>
+        <v>-64.38356164383562</v>
       </c>
       <c r="L605" t="n">
         <v>3219.5</v>
@@ -31362,7 +31384,7 @@
         <v>3447</v>
       </c>
       <c r="K606" t="n">
-        <v>-21.42857142857143</v>
+        <v>-45.83333333333333</v>
       </c>
       <c r="L606" t="n">
         <v>3214.7</v>
@@ -31413,7 +31435,7 @@
         <v>3447</v>
       </c>
       <c r="K607" t="n">
-        <v>-13.72549019607843</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L607" t="n">
         <v>3212.5</v>
@@ -31464,7 +31486,7 @@
         <v>3448</v>
       </c>
       <c r="K608" t="n">
-        <v>-27.53623188405797</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L608" t="n">
         <v>3211.4</v>
@@ -31515,7 +31537,7 @@
         <v>3462</v>
       </c>
       <c r="K609" t="n">
-        <v>-27.53623188405797</v>
+        <v>-39.53488372093023</v>
       </c>
       <c r="L609" t="n">
         <v>3209.1</v>
@@ -31566,7 +31588,7 @@
         <v>3462</v>
       </c>
       <c r="K610" t="n">
-        <v>-28.46715328467153</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L610" t="n">
         <v>3207.4</v>
@@ -31617,7 +31639,7 @@
         <v>3463</v>
       </c>
       <c r="K611" t="n">
-        <v>-53.04347826086957</v>
+        <v>-87.5</v>
       </c>
       <c r="L611" t="n">
         <v>3204.9</v>
@@ -31668,7 +31690,7 @@
         <v>3489</v>
       </c>
       <c r="K612" t="n">
-        <v>-24.82269503546099</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L612" t="n">
         <v>3204.7</v>
@@ -31719,7 +31741,7 @@
         <v>3502</v>
       </c>
       <c r="K613" t="n">
-        <v>-32.89473684210527</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L613" t="n">
         <v>3203.1</v>
@@ -31770,7 +31792,7 @@
         <v>3518</v>
       </c>
       <c r="K614" t="n">
-        <v>-14.1025641025641</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="L614" t="n">
         <v>3203.2</v>
@@ -31821,7 +31843,7 @@
         <v>3518</v>
       </c>
       <c r="K615" t="n">
-        <v>-14.1025641025641</v>
+        <v>21.12676056338028</v>
       </c>
       <c r="L615" t="n">
         <v>3204.6</v>
@@ -31872,7 +31894,7 @@
         <v>3520</v>
       </c>
       <c r="K616" t="n">
-        <v>-21.08843537414966</v>
+        <v>23.28767123287671</v>
       </c>
       <c r="L616" t="n">
         <v>3206.3</v>
@@ -31923,7 +31945,7 @@
         <v>3550</v>
       </c>
       <c r="K617" t="n">
-        <v>-23.17880794701987</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L617" t="n">
         <v>3205</v>
@@ -31974,7 +31996,7 @@
         <v>3576</v>
       </c>
       <c r="K618" t="n">
-        <v>1.818181818181818</v>
+        <v>24.56140350877193</v>
       </c>
       <c r="L618" t="n">
         <v>3206.4</v>
@@ -32025,7 +32047,7 @@
         <v>3578</v>
       </c>
       <c r="K619" t="n">
-        <v>4.242424242424243</v>
+        <v>25.86206896551724</v>
       </c>
       <c r="L619" t="n">
         <v>3209.4</v>
@@ -32076,7 +32098,7 @@
         <v>3579</v>
       </c>
       <c r="K620" t="n">
-        <v>8.75</v>
+        <v>25.86206896551724</v>
       </c>
       <c r="L620" t="n">
         <v>3212.5</v>
@@ -32127,7 +32149,7 @@
         <v>3585</v>
       </c>
       <c r="K621" t="n">
-        <v>7.006369426751593</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="L621" t="n">
         <v>3216.1</v>
@@ -32178,7 +32200,7 @@
         <v>3587</v>
       </c>
       <c r="K622" t="n">
-        <v>3.846153846153846</v>
+        <v>24.70588235294118</v>
       </c>
       <c r="L622" t="n">
         <v>3216.9</v>
@@ -32229,7 +32251,7 @@
         <v>3590</v>
       </c>
       <c r="K623" t="n">
-        <v>5.063291139240507</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L623" t="n">
         <v>3219.3</v>
@@ -32280,7 +32302,7 @@
         <v>3591</v>
       </c>
       <c r="K624" t="n">
-        <v>6.329113924050633</v>
+        <v>12.32876712328767</v>
       </c>
       <c r="L624" t="n">
         <v>3220.2</v>
@@ -32331,7 +32353,7 @@
         <v>3606</v>
       </c>
       <c r="K625" t="n">
-        <v>23.75</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="L625" t="n">
         <v>3222.6</v>
@@ -32382,7 +32404,7 @@
         <v>3607</v>
       </c>
       <c r="K626" t="n">
-        <v>25</v>
+        <v>92.98245614035088</v>
       </c>
       <c r="L626" t="n">
         <v>3224.9</v>
@@ -32433,7 +32455,7 @@
         <v>3617</v>
       </c>
       <c r="K627" t="n">
-        <v>17.64705882352941</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="L627" t="n">
         <v>3229.2</v>
@@ -32484,7 +32506,7 @@
         <v>3620</v>
       </c>
       <c r="K628" t="n">
-        <v>19.76744186046512</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L628" t="n">
         <v>3231.2</v>
@@ -32535,7 +32557,7 @@
         <v>3620</v>
       </c>
       <c r="K629" t="n">
-        <v>30.37974683544304</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="L629" t="n">
         <v>3233</v>
@@ -32586,7 +32608,7 @@
         <v>3627</v>
       </c>
       <c r="K630" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L630" t="n">
         <v>3235.4</v>
@@ -32637,7 +32659,7 @@
         <v>3628</v>
       </c>
       <c r="K631" t="n">
-        <v>33.33333333333333</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="L631" t="n">
         <v>3237.3</v>
@@ -32688,7 +32710,7 @@
         <v>3628</v>
       </c>
       <c r="K632" t="n">
-        <v>20.86330935251799</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L632" t="n">
         <v>3239.4</v>
@@ -32739,7 +32761,7 @@
         <v>3646</v>
       </c>
       <c r="K633" t="n">
-        <v>16.66666666666666</v>
+        <v>-1.818181818181818</v>
       </c>
       <c r="L633" t="n">
         <v>3239.4</v>
@@ -32790,7 +32812,7 @@
         <v>3646</v>
       </c>
       <c r="K634" t="n">
-        <v>6.25</v>
+        <v>-40</v>
       </c>
       <c r="L634" t="n">
         <v>3239.3</v>
@@ -32841,7 +32863,7 @@
         <v>3656</v>
       </c>
       <c r="K635" t="n">
-        <v>-1.449275362318841</v>
+        <v>-55.10204081632652</v>
       </c>
       <c r="L635" t="n">
         <v>3236.7</v>
@@ -32892,7 +32914,7 @@
         <v>3667</v>
       </c>
       <c r="K636" t="n">
-        <v>-10.20408163265306</v>
+        <v>-56.00000000000001</v>
       </c>
       <c r="L636" t="n">
         <v>3232.9</v>
@@ -32943,7 +32965,7 @@
         <v>3677</v>
       </c>
       <c r="K637" t="n">
-        <v>19.68503937007874</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L637" t="n">
         <v>3231.1</v>
@@ -32994,7 +33016,7 @@
         <v>3687</v>
       </c>
       <c r="K638" t="n">
-        <v>-9.90990990990991</v>
+        <v>-46.26865671641791</v>
       </c>
       <c r="L638" t="n">
         <v>3228</v>
@@ -33045,7 +33067,7 @@
         <v>3698</v>
       </c>
       <c r="K639" t="n">
-        <v>-1.666666666666667</v>
+        <v>-38.0281690140845</v>
       </c>
       <c r="L639" t="n">
         <v>3226</v>
@@ -33096,7 +33118,7 @@
         <v>3703</v>
       </c>
       <c r="K640" t="n">
-        <v>1.612903225806452</v>
+        <v>-30.66666666666666</v>
       </c>
       <c r="L640" t="n">
         <v>3223.8</v>
@@ -33147,7 +33169,7 @@
         <v>3710</v>
       </c>
       <c r="K641" t="n">
-        <v>-8.799999999999999</v>
+        <v>-36.58536585365854</v>
       </c>
       <c r="L641" t="n">
         <v>3220.8</v>
@@ -33198,7 +33220,7 @@
         <v>3721</v>
       </c>
       <c r="K642" t="n">
-        <v>1.492537313432836</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="L642" t="n">
         <v>3218.9</v>
@@ -33249,7 +33271,7 @@
         <v>3723</v>
       </c>
       <c r="K643" t="n">
-        <v>0.7518796992481203</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="L643" t="n">
         <v>3219</v>
@@ -33300,7 +33322,7 @@
         <v>3724</v>
       </c>
       <c r="K644" t="n">
-        <v>-0.7518796992481203</v>
+        <v>14.70588235294118</v>
       </c>
       <c r="L644" t="n">
         <v>3219</v>
@@ -33351,7 +33373,7 @@
         <v>3732</v>
       </c>
       <c r="K645" t="n">
-        <v>-19.04761904761905</v>
+        <v>20</v>
       </c>
       <c r="L645" t="n">
         <v>3219.2</v>
@@ -33402,7 +33424,7 @@
         <v>3736</v>
       </c>
       <c r="K646" t="n">
-        <v>-22.48062015503876</v>
+        <v>-1.694915254237288</v>
       </c>
       <c r="L646" t="n">
         <v>3220.1</v>
@@ -33453,7 +33475,7 @@
         <v>3736</v>
       </c>
       <c r="K647" t="n">
-        <v>-15.96638655462185</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="L647" t="n">
         <v>3220</v>
@@ -33504,7 +33526,7 @@
         <v>3736</v>
       </c>
       <c r="K648" t="n">
-        <v>-18.96551724137931</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L648" t="n">
         <v>3220.9</v>
@@ -33555,7 +33577,7 @@
         <v>3737</v>
       </c>
       <c r="K649" t="n">
-        <v>-19.65811965811966</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L649" t="n">
         <v>3220.6</v>
@@ -33606,7 +33628,7 @@
         <v>3741</v>
       </c>
       <c r="K650" t="n">
-        <v>-22.80701754385965</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L650" t="n">
         <v>3220.2</v>
@@ -33657,7 +33679,7 @@
         <v>3746</v>
       </c>
       <c r="K651" t="n">
-        <v>-18.64406779661017</v>
+        <v>-12</v>
       </c>
       <c r="L651" t="n">
         <v>3221</v>
@@ -33708,7 +33730,7 @@
         <v>3759</v>
       </c>
       <c r="K652" t="n">
-        <v>-26.7175572519084</v>
+        <v>-50</v>
       </c>
       <c r="L652" t="n">
         <v>3219.4</v>
@@ -33759,7 +33781,7 @@
         <v>3772</v>
       </c>
       <c r="K653" t="n">
-        <v>-3.174603174603174</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L653" t="n">
         <v>3218.9</v>
@@ -33810,7 +33832,7 @@
         <v>3772</v>
       </c>
       <c r="K654" t="n">
-        <v>-3.174603174603174</v>
+        <v>10</v>
       </c>
       <c r="L654" t="n">
         <v>3218.5</v>
@@ -33861,7 +33883,7 @@
         <v>3781</v>
       </c>
       <c r="K655" t="n">
-        <v>12</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L655" t="n">
         <v>3219.8</v>
@@ -33912,7 +33934,7 @@
         <v>3788</v>
       </c>
       <c r="K656" t="n">
-        <v>27.27272727272727</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L656" t="n">
         <v>3222.2</v>
@@ -33963,7 +33985,7 @@
         <v>3797</v>
       </c>
       <c r="K657" t="n">
-        <v>11.66666666666667</v>
+        <v>24.59016393442623</v>
       </c>
       <c r="L657" t="n">
         <v>3223.7</v>
@@ -34014,7 +34036,7 @@
         <v>3797</v>
       </c>
       <c r="K658" t="n">
-        <v>21.81818181818182</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L658" t="n">
         <v>3225.2</v>
@@ -34065,7 +34087,7 @@
         <v>3800</v>
       </c>
       <c r="K659" t="n">
-        <v>15.68627450980392</v>
+        <v>25.42372881355932</v>
       </c>
       <c r="L659" t="n">
         <v>3227.1</v>

--- a/BackTest/2019-10-25 BackTest LINK.xlsx
+++ b/BackTest/2019-10-25 BackTest LINK.xlsx
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -7591,13 +7591,17 @@
         <v>3142.733333333333</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3106</v>
+      </c>
+      <c r="K206" t="n">
+        <v>3106</v>
+      </c>
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
@@ -7632,8 +7636,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>3106</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +7677,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>3106</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +7718,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>3106</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +7759,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>3106</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +7800,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>3106</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7807,8 +7841,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>3106</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7836,18 +7876,18 @@
         <v>3131.6</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>3086</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>3106</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -7877,15 +7917,15 @@
         <v>3129.95</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>3089</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>3106</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7918,15 +7958,15 @@
         <v>3127.816666666667</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>3076</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>3106</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7959,15 +7999,15 @@
         <v>3125.733333333333</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>3063</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>3106</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8006,9 +8046,11 @@
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>3077</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
+        <v>3061</v>
+      </c>
+      <c r="K217" t="n">
+        <v>3106</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8047,9 +8089,11 @@
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>3091</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
+        <v>3077</v>
+      </c>
+      <c r="K218" t="n">
+        <v>3106</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8088,9 +8132,11 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>3083</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+        <v>3073</v>
+      </c>
+      <c r="K219" t="n">
+        <v>3106</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8131,7 +8177,9 @@
       <c r="J220" t="n">
         <v>3083</v>
       </c>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>3106</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8172,7 +8220,9 @@
       <c r="J221" t="n">
         <v>3073</v>
       </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>3106</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8213,7 +8263,9 @@
       <c r="J222" t="n">
         <v>3085</v>
       </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>3106</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8252,9 +8304,11 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>3076</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+        <v>3085</v>
+      </c>
+      <c r="K223" t="n">
+        <v>3106</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8287,15 +8341,15 @@
         <v>3114.45</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>3101</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>3106</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,15 +8382,15 @@
         <v>3113.883333333333</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>3103</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>3106</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8369,15 +8423,15 @@
         <v>3113.116666666667</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>3111</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>3106</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8410,15 +8464,15 @@
         <v>3112.216666666667</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>3112</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>3106</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8451,15 +8505,15 @@
         <v>3111.366666666667</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>3114</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>3106</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8492,15 +8546,15 @@
         <v>3110.483333333333</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>3116</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>3106</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8533,15 +8587,15 @@
         <v>3109.633333333333</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>3117</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>3106</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8580,7 +8634,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>3106</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8619,7 +8675,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>3106</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8658,7 +8716,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>3106</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8697,7 +8757,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>3106</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8736,7 +8798,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>3106</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8775,7 +8839,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>3106</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8814,7 +8880,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>3106</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8853,7 +8921,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>3106</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8892,7 +8962,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>3106</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8931,7 +9003,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>3106</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,7 +9044,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>3106</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9009,7 +9085,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>3106</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9048,7 +9126,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>3106</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9087,7 +9167,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>3106</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9126,7 +9208,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>3106</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9165,7 +9249,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>3106</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9204,7 +9290,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>3106</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9243,7 +9331,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>3106</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9282,7 +9372,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>3106</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9321,7 +9413,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>3106</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9360,7 +9454,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>3106</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9399,7 +9495,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>3106</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9438,7 +9536,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>3106</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9477,7 +9577,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>3106</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9516,7 +9618,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>3106</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9555,7 +9659,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>3106</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9594,7 +9700,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>3106</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9633,7 +9741,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>3106</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9672,7 +9782,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>3106</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9711,7 +9823,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>3106</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9750,7 +9864,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>3106</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9789,7 +9905,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>3106</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9828,7 +9946,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>3106</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9867,7 +9987,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>3106</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9906,7 +10028,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>3106</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9945,7 +10069,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>3106</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9984,7 +10110,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>3106</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10023,7 +10151,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>3106</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10062,7 +10192,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>3106</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10101,7 +10233,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>3106</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10140,7 +10274,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>3106</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10179,7 +10315,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>3106</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10218,7 +10356,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>3106</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10257,7 +10397,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>3106</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10296,7 +10438,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>3106</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10335,7 +10479,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>3106</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10374,7 +10520,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>3106</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10413,7 +10561,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>3106</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10452,7 +10602,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>3106</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10491,7 +10643,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>3106</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10530,7 +10684,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>3106</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10569,7 +10725,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>3106</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10608,7 +10766,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>3106</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10647,7 +10807,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>3106</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10686,7 +10848,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>3106</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10725,7 +10889,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>3106</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10764,7 +10930,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>3106</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10803,7 +10971,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>3106</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10842,7 +11012,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>3106</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10881,7 +11053,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>3106</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10920,7 +11094,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>3106</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10959,7 +11135,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>3106</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10998,7 +11176,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>3106</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11037,7 +11217,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>3106</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11076,7 +11258,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>3106</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11115,7 +11299,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>3106</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11154,7 +11340,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>3106</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11193,7 +11381,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>3106</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11232,7 +11422,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>3106</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11271,7 +11463,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>3106</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11310,7 +11504,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>3106</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11349,7 +11545,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>3106</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11388,7 +11586,9 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>3106</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11427,7 +11627,9 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>3106</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11466,7 +11668,9 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>3106</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11505,7 +11709,9 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>3106</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11544,7 +11750,9 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>3106</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11583,7 +11791,9 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>3106</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11622,7 +11832,9 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>3106</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11661,7 +11873,9 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>3106</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11700,7 +11914,9 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>3106</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11739,7 +11955,9 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>3106</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11778,7 +11996,9 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>3106</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11817,7 +12037,9 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>3106</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11856,7 +12078,9 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>3106</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11895,7 +12119,9 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>3106</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11934,7 +12160,9 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>3106</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11973,7 +12201,9 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>3106</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12012,7 +12242,9 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>3106</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12051,7 +12283,9 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>3106</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12090,7 +12324,9 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>3106</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12129,7 +12365,9 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>3106</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12168,7 +12406,9 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>3106</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12207,7 +12447,9 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>3106</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12246,7 +12488,9 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>3106</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12285,7 +12529,9 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>3106</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12324,7 +12570,9 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>3106</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12363,7 +12611,9 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>3106</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12402,7 +12652,9 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>3106</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12441,7 +12693,9 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>3106</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12480,7 +12734,9 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>3106</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12519,7 +12775,9 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>3106</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12558,7 +12816,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>3106</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12597,7 +12857,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>3106</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12636,7 +12898,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>3106</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12675,7 +12939,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>3106</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12714,7 +12980,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>3106</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12753,7 +13021,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>3106</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12792,7 +13062,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>3106</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12831,7 +13103,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>3106</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12870,7 +13144,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>3106</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12909,7 +13185,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>3106</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12948,7 +13226,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>3106</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12987,7 +13267,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>3106</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13026,7 +13308,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>3106</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13065,7 +13349,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>3106</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13104,7 +13390,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>3106</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13143,7 +13431,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>3106</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13182,7 +13472,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>3106</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13221,7 +13513,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>3106</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13260,7 +13554,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>3106</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13299,7 +13595,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>3106</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13338,7 +13636,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>3106</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13377,7 +13677,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>3106</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13416,7 +13718,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>3106</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13455,7 +13759,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>3106</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13494,7 +13800,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>3106</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13533,7 +13841,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>3106</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13572,7 +13882,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>3106</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13611,7 +13923,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>3106</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13650,7 +13964,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>3106</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13689,7 +14005,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>3106</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13728,7 +14046,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>3106</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13767,7 +14087,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>3106</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13806,7 +14128,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>3106</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13845,7 +14169,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>3106</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13884,7 +14210,9 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>3106</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13923,7 +14251,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>3106</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13962,7 +14292,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>3106</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14001,7 +14333,9 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>3106</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14040,7 +14374,9 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>3106</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14079,7 +14415,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>3106</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14118,7 +14456,9 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>3106</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14157,7 +14497,9 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>3106</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14196,7 +14538,9 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>3106</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14235,7 +14579,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>3106</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14274,7 +14620,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>3106</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14313,7 +14661,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>3106</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14352,7 +14702,9 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>3106</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14391,7 +14743,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>3106</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14430,7 +14784,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>3106</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14469,7 +14825,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>3106</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14508,7 +14866,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>3106</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14547,7 +14907,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>3106</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14586,7 +14948,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>3106</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14625,7 +14989,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>3106</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14664,7 +15030,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>3106</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14703,7 +15071,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>3106</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14742,7 +15112,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>3106</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14781,7 +15153,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>3106</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14820,7 +15194,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>3106</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14859,7 +15235,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>3106</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14898,7 +15276,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>3106</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14937,7 +15317,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>3106</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14976,7 +15358,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>3106</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15015,7 +15399,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>3106</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15054,7 +15440,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>3106</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15093,7 +15481,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>3106</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15132,7 +15522,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>3106</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15171,7 +15563,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>3106</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15210,7 +15604,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>3106</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15249,7 +15645,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>3106</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15288,7 +15686,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>3106</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15327,7 +15727,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>3106</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15366,7 +15768,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>3106</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15405,7 +15809,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>3106</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15444,7 +15850,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>3106</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15483,7 +15891,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>3106</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15522,7 +15932,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>3106</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15561,7 +15973,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>3106</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15600,7 +16014,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>3106</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15639,7 +16055,9 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>3106</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15678,7 +16096,9 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>3106</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15717,7 +16137,9 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>3106</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15756,7 +16178,9 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>3106</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15795,7 +16219,9 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>3106</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15834,7 +16260,9 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>3106</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15873,7 +16301,9 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>3106</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15912,7 +16342,9 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>3106</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15951,7 +16383,9 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>3106</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15990,7 +16424,9 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>3106</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16029,7 +16465,9 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>3106</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16068,7 +16506,9 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>3106</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16107,7 +16547,9 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>3106</v>
+      </c>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16146,7 +16588,9 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>3106</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16185,7 +16629,9 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>3106</v>
+      </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16224,7 +16670,9 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>3106</v>
+      </c>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16263,7 +16711,9 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>3106</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16302,7 +16752,9 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>3106</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16341,7 +16793,9 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>3106</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16380,7 +16834,9 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>3106</v>
+      </c>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16419,7 +16875,9 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>3106</v>
+      </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16458,7 +16916,9 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>3106</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16497,7 +16957,9 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>3106</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16536,7 +16998,9 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>3106</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16575,7 +17039,9 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>3106</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16614,7 +17080,9 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>3106</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16653,7 +17121,9 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>3106</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16692,7 +17162,9 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>3106</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16731,7 +17203,9 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>3106</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16770,7 +17244,9 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>3106</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16809,7 +17285,9 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>3106</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16848,7 +17326,9 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>3106</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16887,7 +17367,9 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>3106</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16926,7 +17408,9 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>3106</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16965,7 +17449,9 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>3106</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17004,7 +17490,9 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>3106</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17043,7 +17531,9 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>3106</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17082,7 +17572,9 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>3106</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17121,7 +17613,9 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>3106</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17160,7 +17654,9 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>3106</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17199,7 +17695,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>3106</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17238,7 +17736,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>3106</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17277,7 +17777,9 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>3106</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17316,7 +17818,9 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>3106</v>
+      </c>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17355,7 +17859,9 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>3106</v>
+      </c>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17394,7 +17900,9 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>3106</v>
+      </c>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17433,7 +17941,9 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>3106</v>
+      </c>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17472,7 +17982,9 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>3106</v>
+      </c>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17511,7 +18023,9 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>3106</v>
+      </c>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17550,7 +18064,9 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>3106</v>
+      </c>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17589,7 +18105,9 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>3106</v>
+      </c>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17628,7 +18146,9 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>3106</v>
+      </c>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17667,7 +18187,9 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>3106</v>
+      </c>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17706,7 +18228,9 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>3106</v>
+      </c>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17745,7 +18269,9 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>3106</v>
+      </c>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17784,7 +18310,9 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>3106</v>
+      </c>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17823,7 +18351,9 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>3106</v>
+      </c>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17862,7 +18392,9 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>3106</v>
+      </c>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17901,7 +18433,9 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>3106</v>
+      </c>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17940,7 +18474,9 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>3106</v>
+      </c>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17979,7 +18515,9 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>3106</v>
+      </c>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18018,7 +18556,9 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>3106</v>
+      </c>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18057,7 +18597,9 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>3106</v>
+      </c>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18096,7 +18638,9 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>3106</v>
+      </c>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18135,7 +18679,9 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>3106</v>
+      </c>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18174,7 +18720,9 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>3106</v>
+      </c>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18213,7 +18761,9 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>3106</v>
+      </c>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18252,7 +18802,9 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>3106</v>
+      </c>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18291,7 +18843,9 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>3106</v>
+      </c>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18330,7 +18884,9 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>3106</v>
+      </c>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18369,7 +18925,9 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>3106</v>
+      </c>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18408,7 +18966,9 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>3106</v>
+      </c>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18447,7 +19007,9 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>3106</v>
+      </c>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18486,7 +19048,9 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>3106</v>
+      </c>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18525,7 +19089,9 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>3106</v>
+      </c>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18564,7 +19130,9 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>3106</v>
+      </c>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18603,7 +19171,9 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>3106</v>
+      </c>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18642,7 +19212,9 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>3106</v>
+      </c>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18681,7 +19253,9 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>3106</v>
+      </c>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18720,7 +19294,9 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>3106</v>
+      </c>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18759,7 +19335,9 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>3106</v>
+      </c>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18798,7 +19376,9 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>3106</v>
+      </c>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18837,7 +19417,9 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>3106</v>
+      </c>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18876,7 +19458,9 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>3106</v>
+      </c>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18915,7 +19499,9 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>3106</v>
+      </c>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18954,7 +19540,9 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>3106</v>
+      </c>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18993,7 +19581,9 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>3106</v>
+      </c>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19032,7 +19622,9 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>3106</v>
+      </c>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19071,7 +19663,9 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>3106</v>
+      </c>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19110,7 +19704,9 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>3106</v>
+      </c>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19149,7 +19745,9 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>3106</v>
+      </c>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19188,7 +19786,9 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>3106</v>
+      </c>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19227,7 +19827,9 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>3106</v>
+      </c>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19266,7 +19868,9 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>3106</v>
+      </c>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19305,7 +19909,9 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>3106</v>
+      </c>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19344,7 +19950,9 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>3106</v>
+      </c>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19383,7 +19991,9 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>3106</v>
+      </c>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19422,7 +20032,9 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>3106</v>
+      </c>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19461,7 +20073,9 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>3106</v>
+      </c>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19500,7 +20114,9 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>3106</v>
+      </c>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19539,7 +20155,9 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>3106</v>
+      </c>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19578,7 +20196,9 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>3106</v>
+      </c>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19617,7 +20237,9 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>3106</v>
+      </c>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19656,7 +20278,9 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>3106</v>
+      </c>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19695,7 +20319,9 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>3106</v>
+      </c>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19734,7 +20360,9 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>3106</v>
+      </c>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19773,7 +20401,9 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>3106</v>
+      </c>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19812,7 +20442,9 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>3106</v>
+      </c>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19851,7 +20483,9 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>3106</v>
+      </c>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19890,7 +20524,9 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>3106</v>
+      </c>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19929,7 +20565,9 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>3106</v>
+      </c>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19968,7 +20606,9 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>3106</v>
+      </c>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20007,7 +20647,9 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>3106</v>
+      </c>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20046,7 +20688,9 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>3106</v>
+      </c>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20085,7 +20729,9 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>3106</v>
+      </c>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20124,7 +20770,9 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>3106</v>
+      </c>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20163,7 +20811,9 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>3106</v>
+      </c>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20202,7 +20852,9 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>3106</v>
+      </c>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20241,7 +20893,9 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>3106</v>
+      </c>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20280,7 +20934,9 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>3106</v>
+      </c>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20319,7 +20975,9 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>3106</v>
+      </c>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20358,7 +21016,9 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>3106</v>
+      </c>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20397,7 +21057,9 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>3106</v>
+      </c>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20436,7 +21098,9 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>3106</v>
+      </c>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20475,7 +21139,9 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>3106</v>
+      </c>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20514,7 +21180,9 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>3106</v>
+      </c>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20553,7 +21221,9 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>3106</v>
+      </c>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20592,7 +21262,9 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>3106</v>
+      </c>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20631,7 +21303,9 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>3106</v>
+      </c>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20667,17 +21341,19 @@
         <v>0</v>
       </c>
       <c r="I541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>3106</v>
+      </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>1</v>
+        <v>1.037820347714102</v>
       </c>
     </row>
     <row r="542">
@@ -20706,15 +21382,11 @@
         <v>0</v>
       </c>
       <c r="I542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20745,15 +21417,11 @@
         <v>0</v>
       </c>
       <c r="I543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20784,15 +21452,11 @@
         <v>0</v>
       </c>
       <c r="I544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20823,15 +21487,11 @@
         <v>0</v>
       </c>
       <c r="I545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20862,15 +21522,11 @@
         <v>0</v>
       </c>
       <c r="I546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20901,15 +21557,11 @@
         <v>0</v>
       </c>
       <c r="I547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20940,15 +21592,11 @@
         <v>0</v>
       </c>
       <c r="I548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20979,15 +21627,11 @@
         <v>0</v>
       </c>
       <c r="I549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21022,11 +21666,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21061,11 +21701,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21100,11 +21736,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21139,11 +21771,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21178,11 +21806,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21217,11 +21841,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21256,11 +21876,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21295,11 +21911,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21334,11 +21946,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +21981,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21412,11 +22016,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21451,11 +22051,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21490,11 +22086,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21529,11 +22121,7 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21568,11 +22156,7 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21607,11 +22191,7 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21646,11 +22226,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21685,11 +22261,7 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21724,11 +22296,7 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21763,11 +22331,7 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21802,11 +22366,7 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21841,11 +22401,7 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21880,11 +22436,7 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21919,11 +22471,7 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21958,11 +22506,7 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21997,11 +22541,7 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -22036,11 +22576,7 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22075,11 +22611,7 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22114,11 +22646,7 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22153,11 +22681,7 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L579" t="inlineStr"/>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -22192,11 +22716,7 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +22751,7 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L581" t="inlineStr"/>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22270,11 +22786,7 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22309,11 +22821,7 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22348,11 +22856,7 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22387,11 +22891,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22426,11 +22926,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22465,11 +22961,7 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L587" t="inlineStr"/>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22504,11 +22996,7 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L588" t="inlineStr"/>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22543,11 +23031,7 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L589" t="inlineStr"/>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22582,11 +23066,7 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L590" t="inlineStr"/>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22621,11 +23101,7 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L591" t="inlineStr"/>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22660,11 +23136,7 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L592" t="inlineStr"/>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22699,11 +23171,7 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L593" t="inlineStr"/>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22738,11 +23206,7 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L594" t="inlineStr"/>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22777,11 +23241,7 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L595" t="inlineStr"/>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22816,11 +23276,7 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L596" t="inlineStr"/>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22855,11 +23311,7 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L597" t="inlineStr"/>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22894,11 +23346,7 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L598" t="inlineStr"/>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22933,11 +23381,7 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L599" t="inlineStr"/>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22972,11 +23416,7 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L600" t="inlineStr"/>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -23011,11 +23451,7 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L601" t="inlineStr"/>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -23050,11 +23486,7 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L602" t="inlineStr"/>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -23089,11 +23521,7 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L603" t="inlineStr"/>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -23128,11 +23556,7 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L604" t="inlineStr"/>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -23167,11 +23591,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L605" t="inlineStr"/>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -23206,11 +23626,7 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L606" t="inlineStr"/>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -23245,11 +23661,7 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L607" t="inlineStr"/>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -23284,11 +23696,7 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -23323,11 +23731,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -23362,11 +23766,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L610" t="inlineStr"/>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -23401,11 +23801,7 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L611" t="inlineStr"/>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23440,11 +23836,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L612" t="inlineStr"/>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23479,11 +23871,7 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L613" t="inlineStr"/>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23906,7 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L614" t="inlineStr"/>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23557,11 +23941,7 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L615" t="inlineStr"/>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23596,11 +23976,7 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L616" t="inlineStr"/>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23635,11 +24011,7 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L617" t="inlineStr"/>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23674,11 +24046,7 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L618" t="inlineStr"/>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23713,11 +24081,7 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L619" t="inlineStr"/>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23752,11 +24116,7 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L620" t="inlineStr"/>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23791,11 +24151,7 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L621" t="inlineStr"/>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23830,11 +24186,7 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L622" t="inlineStr"/>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23869,11 +24221,7 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L623" t="inlineStr"/>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23908,11 +24256,7 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L624" t="inlineStr"/>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23947,11 +24291,7 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L625" t="inlineStr"/>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23986,11 +24326,7 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L626" t="inlineStr"/>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -24025,11 +24361,7 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L627" t="inlineStr"/>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -24064,11 +24396,7 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L628" t="inlineStr"/>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -24103,11 +24431,7 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L629" t="inlineStr"/>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -24142,11 +24466,7 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L630" t="inlineStr"/>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -24181,11 +24501,7 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L631" t="inlineStr"/>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -24220,11 +24536,7 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L632" t="inlineStr"/>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -24259,11 +24571,7 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L633" t="inlineStr"/>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -24298,11 +24606,7 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L634" t="inlineStr"/>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -24337,11 +24641,7 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L635" t="inlineStr"/>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -24376,11 +24676,7 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L636" t="inlineStr"/>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -24415,11 +24711,7 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L637" t="inlineStr"/>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -24454,11 +24746,7 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L638" t="inlineStr"/>
       <c r="M638" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-25 BackTest LINK.xlsx
+++ b/BackTest/2019-10-25 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>19075.6696</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>18157.5247</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3142</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +634,15 @@
         <v>24596.3155</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +708,15 @@
         <v>25710.782</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +749,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +786,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +823,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +856,15 @@
         <v>28137.4942</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +897,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +930,15 @@
         <v>35053.7205</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +971,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1004,15 @@
         <v>35042.8448</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1045,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1078,15 @@
         <v>37934.1523</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1119,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1152,15 @@
         <v>45310.3608</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1189,15 @@
         <v>49590.93927574627</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1226,15 @@
         <v>47176.29087574627</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1263,15 @@
         <v>46539.67197574627</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1300,15 @@
         <v>46263.47447574627</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1341,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1374,15 @@
         <v>43464.55037574627</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1411,15 @@
         <v>42541.99497574627</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1448,15 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1485,15 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1522,15 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1559,15 @@
         <v>42540.82667574628</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1596,15 @@
         <v>51037.98837574628</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1633,15 @@
         <v>52345.44357574628</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1670,15 @@
         <v>53356.70315056574</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1707,15 @@
         <v>53198.72215056574</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1748,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1785,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1822,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1859,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1896,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1933,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1970,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2007,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2044,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2081,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2118,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2155,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2192,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2229,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2266,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2303,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2340,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2377,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2414,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2451,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2488,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2525,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2562,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2599,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2636,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2673,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2710,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2747,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2784,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2821,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2858,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2895,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2932,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2969,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3006,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3043,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3080,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3117,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3154,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3191,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3228,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3265,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3302,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3339,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3376,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3413,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3450,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3487,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3524,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3561,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3598,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3635,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3672,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3709,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3746,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3783,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3820,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3857,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3894,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3931,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3968,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4005,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4042,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4079,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4116,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4153,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4190,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4227,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4264,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4301,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4338,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4375,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4412,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4449,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4486,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4523,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4560,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4597,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4634,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4671,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4708,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4745,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4782,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4819,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4856,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4893,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4930,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4967,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5004,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5041,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5078,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5115,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5152,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5189,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5226,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5263,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5300,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5337,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5374,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5411,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5448,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5485,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5522,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5559,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5596,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5633,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5670,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5707,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5744,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5781,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5818,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5855,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5892,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5929,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5966,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +6003,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6040,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6077,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6114,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6151,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6188,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6225,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6262,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6299,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6336,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6373,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6410,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6447,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6484,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6521,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6558,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6595,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6632,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6669,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6706,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6743,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6780,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6817,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6854,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6891,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6928,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6965,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +7002,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +7039,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +7076,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +7113,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +7150,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +7187,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +7224,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +7261,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +7298,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +7331,15 @@
         <v>46034.30598244473</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7368,15 @@
         <v>46034.30598244473</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7409,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7446,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7483,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7520,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7557,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7594,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7631,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7664,15 @@
         <v>50516.72408244474</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7705,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7742,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7779,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7816,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7853,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7890,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7927,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7960,15 @@
         <v>49429.24558244474</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7997,15 @@
         <v>50072.99868244474</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +8034,15 @@
         <v>50072.99868244474</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +8075,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +8108,15 @@
         <v>48165.24568244474</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +8149,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +8186,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +8223,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +8260,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +8297,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +8334,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +8371,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +8408,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8445,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8482,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8519,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8556,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8593,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8630,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8667,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8704,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8741,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8778,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8815,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8852,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8889,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8926,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8963,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +9000,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,14 +9033,16 @@
         <v>42365.88009078713</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
@@ -8305,7 +9233,7 @@
         <v>29441.29699078713</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +9266,7 @@
         <v>28234.11499078713</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +9299,7 @@
         <v>29268.85749078713</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +9332,7 @@
         <v>29269.32739078713</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -10681,10 +11609,14 @@
         <v>-1854.985220345813</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J312" t="n">
+        <v>3132</v>
+      </c>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
@@ -10714,11 +11646,19 @@
         <v>-1854.985220345813</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J313" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +11687,19 @@
         <v>-1854.985220345813</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J314" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,10 +11728,14 @@
         <v>-2354.985220345813</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J315" t="n">
+        <v>3132</v>
+      </c>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
@@ -10813,11 +11765,19 @@
         <v>-2284.821920345812</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3122</v>
+      </c>
+      <c r="J316" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +11806,19 @@
         <v>-5115.209420345813</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>3133</v>
+      </c>
+      <c r="J317" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +11847,19 @@
         <v>-4941.819820345812</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J318" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11888,19 @@
         <v>-4404.301320345812</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>3140</v>
+      </c>
+      <c r="J319" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11929,19 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>3150</v>
+      </c>
+      <c r="J320" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11970,19 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>3151</v>
+      </c>
+      <c r="J321" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +12011,19 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>3151</v>
+      </c>
+      <c r="J322" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,15 +12052,19 @@
         <v>-4789.011520345812</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>3151</v>
       </c>
       <c r="J323" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
+        <v>3132</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,17 +12093,17 @@
         <v>-4788.011520345812</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>3150</v>
       </c>
       <c r="J324" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L324" t="n">
@@ -11122,17 +12134,17 @@
         <v>-4789.011520345812</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>3157</v>
       </c>
       <c r="J325" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L325" t="n">
@@ -11163,17 +12175,17 @@
         <v>-5560.506820345812</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>3156</v>
       </c>
       <c r="J326" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L326" t="n">
@@ -11204,13 +12216,13 @@
         <v>-5560.506820345812</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>3142</v>
       </c>
       <c r="J327" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11245,13 +12257,13 @@
         <v>-5577.926020345813</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>3142</v>
       </c>
       <c r="J328" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11286,13 +12298,13 @@
         <v>-5577.926020345813</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>3136</v>
       </c>
       <c r="J329" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11327,13 +12339,13 @@
         <v>-5566.669320345813</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>3136</v>
       </c>
       <c r="J330" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11368,13 +12380,13 @@
         <v>-5310.279220345813</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>3137</v>
       </c>
       <c r="J331" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11409,13 +12421,13 @@
         <v>-5301.298620345813</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>3151</v>
       </c>
       <c r="J332" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11450,11 +12462,13 @@
         <v>-5301.298620345813</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>3154</v>
+      </c>
       <c r="J333" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11489,11 +12503,13 @@
         <v>-4984.541920345813</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3154</v>
+      </c>
       <c r="J334" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11528,11 +12544,13 @@
         <v>-5227.688820345813</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>3157</v>
+      </c>
       <c r="J335" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11567,11 +12585,13 @@
         <v>-5467.699320345813</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3153</v>
+      </c>
       <c r="J336" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11606,11 +12626,13 @@
         <v>-7323.357620345813</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3152</v>
+      </c>
       <c r="J337" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11645,11 +12667,13 @@
         <v>-7256.107620345813</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3151</v>
+      </c>
       <c r="J338" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11684,11 +12708,13 @@
         <v>-8069.134320345814</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3153</v>
+      </c>
       <c r="J339" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11723,11 +12749,13 @@
         <v>-7922.000720345814</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>3141</v>
+      </c>
       <c r="J340" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11762,11 +12790,13 @@
         <v>-8278.300620345814</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3149</v>
+      </c>
       <c r="J341" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -11801,11 +12831,13 @@
         <v>-7939.093420345814</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3144</v>
+      </c>
       <c r="J342" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -11840,11 +12872,13 @@
         <v>-7667.937420345814</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3145</v>
+      </c>
       <c r="J343" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -11879,11 +12913,13 @@
         <v>-3222.838920345814</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>3149</v>
+      </c>
       <c r="J344" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -11918,11 +12954,13 @@
         <v>-3222.838920345814</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>3150</v>
+      </c>
       <c r="J345" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -11957,11 +12995,13 @@
         <v>-3233.485320345814</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>3150</v>
+      </c>
       <c r="J346" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -11996,11 +13036,13 @@
         <v>-2087.804820345814</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>3144</v>
+      </c>
       <c r="J347" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12035,11 +13077,13 @@
         <v>-1854.208220345814</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>3149</v>
+      </c>
       <c r="J348" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12074,11 +13118,13 @@
         <v>-1854.208220345814</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>3153</v>
+      </c>
       <c r="J349" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12113,11 +13159,13 @@
         <v>-1863.166320345814</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>3153</v>
+      </c>
       <c r="J350" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12152,11 +13200,13 @@
         <v>-1863.066320345814</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>3144</v>
+      </c>
       <c r="J351" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12195,7 +13245,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12230,11 +13280,13 @@
         <v>-1813.250820345814</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>3141</v>
+      </c>
       <c r="J353" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12273,7 +13325,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12308,11 +13360,13 @@
         <v>-2417.228720345814</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>3122</v>
+      </c>
       <c r="J355" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12347,11 +13401,13 @@
         <v>-4829.165220345813</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>3150</v>
+      </c>
       <c r="J356" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12386,11 +13442,13 @@
         <v>-4081.254820345814</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>3137</v>
+      </c>
       <c r="J357" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12425,13 +13483,13 @@
         <v>-4652.274720345814</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>3142</v>
       </c>
       <c r="J358" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12466,11 +13524,13 @@
         <v>-4647.845920345814</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>3129</v>
+      </c>
       <c r="J359" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12505,11 +13565,13 @@
         <v>-4332.007620345814</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>3139</v>
+      </c>
       <c r="J360" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12544,11 +13606,13 @@
         <v>-4350.756820345814</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>3142</v>
+      </c>
       <c r="J361" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12583,13 +13647,13 @@
         <v>-4350.756820345814</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>3139</v>
       </c>
       <c r="J362" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12624,11 +13688,13 @@
         <v>-4672.14383932508</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3139</v>
+      </c>
       <c r="J363" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12663,11 +13729,13 @@
         <v>-4722.05163932508</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>3131</v>
+      </c>
       <c r="J364" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12702,13 +13770,13 @@
         <v>-4722.05163932508</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>3120</v>
       </c>
       <c r="J365" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12743,13 +13811,13 @@
         <v>-4268.690960207715</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>3120</v>
       </c>
       <c r="J366" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12784,13 +13852,13 @@
         <v>-4280.690960207715</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>3127</v>
       </c>
       <c r="J367" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12825,13 +13893,13 @@
         <v>-4477.814760207715</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>3114</v>
       </c>
       <c r="J368" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12866,11 +13934,13 @@
         <v>-4477.814660207715</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>3113</v>
+      </c>
       <c r="J369" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12905,13 +13975,13 @@
         <v>-4463.814660207715</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>3114</v>
       </c>
       <c r="J370" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12946,13 +14016,13 @@
         <v>-4450.814660207715</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>3121</v>
       </c>
       <c r="J371" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12987,11 +14057,13 @@
         <v>-4438.814660207715</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>3123</v>
+      </c>
       <c r="J372" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13026,11 +14098,13 @@
         <v>-4522.847560207715</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>3135</v>
+      </c>
       <c r="J373" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13065,11 +14139,13 @@
         <v>-4363.851760207715</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3132</v>
+      </c>
       <c r="J374" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13104,11 +14180,13 @@
         <v>-4359.851760207715</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>3133</v>
+      </c>
       <c r="J375" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13143,11 +14221,13 @@
         <v>-4348.851760207715</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>3137</v>
+      </c>
       <c r="J376" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13182,11 +14262,13 @@
         <v>-4386.904260207715</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>3149</v>
+      </c>
       <c r="J377" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13221,11 +14303,13 @@
         <v>-4385.904260207715</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>3142</v>
+      </c>
       <c r="J378" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13260,11 +14344,13 @@
         <v>-4748.599360207715</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>3156</v>
+      </c>
       <c r="J379" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13299,11 +14385,13 @@
         <v>-4748.599360207715</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>3145</v>
+      </c>
       <c r="J380" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13338,11 +14426,13 @@
         <v>-4613.632260207715</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>3145</v>
+      </c>
       <c r="J381" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13377,11 +14467,13 @@
         <v>-4997.866560207715</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>3148</v>
+      </c>
       <c r="J382" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13416,11 +14508,13 @@
         <v>-4993.339660207715</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>3140</v>
+      </c>
       <c r="J383" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13455,13 +14549,13 @@
         <v>-5476.790160207715</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>3146</v>
       </c>
       <c r="J384" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13496,11 +14590,13 @@
         <v>-4973.249260207715</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>3139</v>
+      </c>
       <c r="J385" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13535,11 +14631,13 @@
         <v>-4572.252740119136</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>3157</v>
+      </c>
       <c r="J386" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13578,7 +14676,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13617,7 +14715,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13656,7 +14754,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13695,7 +14793,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13734,7 +14832,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13773,7 +14871,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13812,7 +14910,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13847,11 +14945,13 @@
         <v>-6558.444956675007</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>3150</v>
+      </c>
       <c r="J394" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13886,11 +14986,13 @@
         <v>-6384.444956675007</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>3149</v>
+      </c>
       <c r="J395" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13925,11 +15027,13 @@
         <v>-5390.951991972853</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>3151</v>
+      </c>
       <c r="J396" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13964,11 +15068,13 @@
         <v>-5391.951991972853</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3156</v>
+      </c>
       <c r="J397" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14003,11 +15109,13 @@
         <v>-5391.951991972853</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>3148</v>
+      </c>
       <c r="J398" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14042,11 +15150,13 @@
         <v>-5404.951991972853</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>3148</v>
+      </c>
       <c r="J399" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14081,11 +15191,13 @@
         <v>-5455.941691972853</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>3135</v>
+      </c>
       <c r="J400" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14120,11 +15232,13 @@
         <v>-5455.941691972853</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>3133</v>
+      </c>
       <c r="J401" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14159,11 +15273,13 @@
         <v>-5229.185291972853</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>3133</v>
+      </c>
       <c r="J402" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14198,11 +15314,13 @@
         <v>-5275.123491972852</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>3141</v>
+      </c>
       <c r="J403" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14237,11 +15355,13 @@
         <v>-5285.947691972852</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>3139</v>
+      </c>
       <c r="J404" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14276,11 +15396,13 @@
         <v>-5285.947691972852</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>3130</v>
+      </c>
       <c r="J405" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14315,11 +15437,13 @@
         <v>-5759.775491972852</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>3130</v>
+      </c>
       <c r="J406" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14354,11 +15478,13 @@
         <v>-5501.141891972852</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>3129</v>
+      </c>
       <c r="J407" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14393,11 +15519,13 @@
         <v>-5501.141891972852</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>3130</v>
+      </c>
       <c r="J408" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14432,11 +15560,13 @@
         <v>-5661.141891972852</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>3130</v>
+      </c>
       <c r="J409" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14471,11 +15601,13 @@
         <v>-5661.141891972852</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>3129</v>
+      </c>
       <c r="J410" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14510,11 +15642,13 @@
         <v>-1638.080490636549</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>3129</v>
+      </c>
       <c r="J411" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14549,11 +15683,13 @@
         <v>-1912.940390636549</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>3143</v>
+      </c>
       <c r="J412" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14588,11 +15724,13 @@
         <v>-1835.565290636549</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>3130</v>
+      </c>
       <c r="J413" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14627,11 +15765,13 @@
         <v>-1933.945790636549</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>3142</v>
+      </c>
       <c r="J414" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14666,11 +15806,13 @@
         <v>-1845.945790636549</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>3139</v>
+      </c>
       <c r="J415" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14705,11 +15847,13 @@
         <v>-1845.945790636549</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>3144</v>
+      </c>
       <c r="J416" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14744,13 +15888,13 @@
         <v>-1804.873690636549</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>3144</v>
       </c>
       <c r="J417" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14785,13 +15929,13 @@
         <v>-2014.016390636549</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>3147</v>
       </c>
       <c r="J418" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14826,13 +15970,13 @@
         <v>-1731.737890636549</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>3144</v>
       </c>
       <c r="J419" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14867,13 +16011,13 @@
         <v>-2739.425390636549</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>3145</v>
       </c>
       <c r="J420" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14908,13 +16052,13 @@
         <v>-2730.225390636549</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>3135</v>
       </c>
       <c r="J421" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14949,13 +16093,13 @@
         <v>-2730.225390636549</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>3149</v>
       </c>
       <c r="J422" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14990,13 +16134,13 @@
         <v>-3248.225390636549</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>3149</v>
       </c>
       <c r="J423" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15031,13 +16175,13 @@
         <v>-3217.46109063655</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>3134</v>
       </c>
       <c r="J424" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15072,11 +16216,13 @@
         <v>-3124.56209063655</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>3149</v>
+      </c>
       <c r="J425" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15111,11 +16257,13 @@
         <v>-3446.75209063655</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>3151</v>
+      </c>
       <c r="J426" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15150,11 +16298,13 @@
         <v>-3377.14379063655</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>3142</v>
+      </c>
       <c r="J427" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15189,11 +16339,13 @@
         <v>2452.76940936345</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>3155</v>
+      </c>
       <c r="J428" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15228,11 +16380,13 @@
         <v>2880.322789274871</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>3161</v>
+      </c>
       <c r="J429" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15267,11 +16421,13 @@
         <v>4836.245389274871</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>3170</v>
+      </c>
       <c r="J430" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15306,11 +16462,13 @@
         <v>4836.245389274871</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>3175</v>
+      </c>
       <c r="J431" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15349,7 +16507,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15388,7 +16546,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15427,7 +16585,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15466,7 +16624,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15505,7 +16663,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15544,7 +16702,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15583,7 +16741,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15622,7 +16780,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15661,7 +16819,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15700,7 +16858,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15739,7 +16897,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15778,7 +16936,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15817,7 +16975,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15856,7 +17014,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15895,7 +17053,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15934,7 +17092,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15973,7 +17131,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16012,7 +17170,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16051,7 +17209,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16090,7 +17248,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16129,7 +17287,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16168,7 +17326,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16207,7 +17365,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16246,7 +17404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16285,7 +17443,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16324,7 +17482,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16363,7 +17521,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16402,7 +17560,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16441,7 +17599,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16480,7 +17638,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16519,7 +17677,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16558,7 +17716,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16597,7 +17755,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16636,7 +17794,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16675,7 +17833,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16714,7 +17872,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16753,7 +17911,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16792,7 +17950,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16831,7 +17989,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16870,7 +18028,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16909,7 +18067,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16948,7 +18106,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16987,7 +18145,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17026,7 +18184,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17065,7 +18223,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17104,7 +18262,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17143,7 +18301,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17182,7 +18340,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17221,7 +18379,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17260,7 +18418,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17299,7 +18457,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17338,7 +18496,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17377,7 +18535,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17416,7 +18574,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17455,7 +18613,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17494,7 +18652,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17533,7 +18691,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17572,7 +18730,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17611,7 +18769,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17650,7 +18808,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17689,7 +18847,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17728,7 +18886,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17767,7 +18925,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17802,19 +18960,19 @@
         <v>30402.13763459031</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>3151</v>
+        <v>3132</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L495" t="n">
-        <v>1</v>
+        <v>1.012560664112388</v>
       </c>
       <c r="M495" t="inlineStr"/>
     </row>
@@ -17844,14 +19002,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17883,14 +19035,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17922,14 +19068,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17961,14 +19101,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18000,14 +19134,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18039,14 +19167,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18078,14 +19200,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18117,14 +19233,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18156,14 +19266,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18195,14 +19299,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18234,14 +19332,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18273,14 +19365,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18312,14 +19398,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18351,14 +19431,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18390,14 +19464,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18429,14 +19497,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18468,14 +19530,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18507,14 +19563,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18546,14 +19596,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18585,14 +19629,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18624,14 +19662,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18663,14 +19695,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18702,14 +19728,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18741,14 +19761,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18780,14 +19794,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18819,14 +19827,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18858,14 +19860,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18897,14 +19893,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18936,14 +19926,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18975,14 +19959,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19014,14 +19992,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19050,19 +20022,13 @@
         <v>35122.01106172356</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>3151</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
-        <v>1.01086797841955</v>
+        <v>1</v>
       </c>
       <c r="M527" t="inlineStr"/>
     </row>
@@ -19089,7 +20055,7 @@
         <v>35162.7833309639</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19353,7 +20319,7 @@
         <v>34154.4592309639</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19386,7 +20352,7 @@
         <v>33154.4592309639</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19419,7 +20385,7 @@
         <v>33215.81023096391</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19452,7 +20418,7 @@
         <v>33862.16783096391</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19485,7 +20451,7 @@
         <v>33862.16783096391</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19518,7 +20484,7 @@
         <v>35148.35193096391</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19551,7 +20517,7 @@
         <v>35620.06073096391</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19584,7 +20550,7 @@
         <v>35620.06073096391</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19617,7 +20583,7 @@
         <v>34307.94763096391</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19650,7 +20616,7 @@
         <v>33034.75123096391</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19683,7 +20649,7 @@
         <v>33003.41313096391</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19716,7 +20682,7 @@
         <v>34730.08903096391</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19749,7 +20715,7 @@
         <v>34730.08903096391</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19782,7 +20748,7 @@
         <v>34730.08903096391</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19815,7 +20781,7 @@
         <v>34708.97343096391</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19848,7 +20814,7 @@
         <v>34756.06913096391</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19881,7 +20847,7 @@
         <v>34756.06913096391</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19914,7 +20880,7 @@
         <v>34756.06913096391</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19947,7 +20913,7 @@
         <v>34708.8993309639</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20145,7 +21111,7 @@
         <v>31173.1674309639</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20178,7 +21144,7 @@
         <v>30658.5837309639</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20211,7 +21177,7 @@
         <v>30658.5837309639</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20244,7 +21210,7 @@
         <v>29700.7254309639</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20277,7 +21243,7 @@
         <v>29505.4555309639</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20343,7 +21309,7 @@
         <v>27124.0258309639</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21399,7 +22365,7 @@
         <v>34442.9141309639</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21432,7 +22398,7 @@
         <v>40035.3336309639</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21465,7 +22431,7 @@
         <v>40594.4583309639</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21498,7 +22464,7 @@
         <v>41885.7152309639</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21531,7 +22497,7 @@
         <v>41885.7152309639</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21564,7 +22530,7 @@
         <v>43162.5415309639</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21597,7 +22563,7 @@
         <v>43162.5415309639</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21630,7 +22596,7 @@
         <v>36143.5161309639</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21663,7 +22629,7 @@
         <v>36143.5161309639</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21696,7 +22662,7 @@
         <v>35227.6242309639</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21762,7 +22728,7 @@
         <v>39083.7570309639</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21795,7 +22761,7 @@
         <v>39130.4839309639</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21828,7 +22794,7 @@
         <v>38209.4471309639</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21861,7 +22827,7 @@
         <v>38222.14713096389</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21894,7 +22860,7 @@
         <v>38205.33553096389</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21927,7 +22893,7 @@
         <v>38205.33553096389</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21960,7 +22926,7 @@
         <v>38329.28053096389</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21993,7 +22959,7 @@
         <v>38659.17173096389</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22026,7 +22992,7 @@
         <v>38659.17173096389</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22059,7 +23025,7 @@
         <v>38454.12793096389</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22092,7 +23058,7 @@
         <v>38462.56693096389</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22125,7 +23091,7 @@
         <v>37888.34973096389</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22158,7 +23124,7 @@
         <v>37586.50663096389</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22191,7 +23157,7 @@
         <v>37164.08623096389</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22224,7 +23190,7 @@
         <v>37164.08623096389</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22257,7 +23223,7 @@
         <v>36613.49743096389</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22290,7 +23256,7 @@
         <v>36473.68303096389</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22323,7 +23289,7 @@
         <v>36506.55823096389</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22356,7 +23322,7 @@
         <v>32277.90833096389</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22389,7 +23355,7 @@
         <v>32242.62823096389</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22785,7 +23751,7 @@
         <v>26241.13650613292</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23049,7 +24015,7 @@
         <v>21865.44020613292</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23082,7 +24048,7 @@
         <v>22072.50560613292</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23115,7 +24081,7 @@
         <v>23707.34090613291</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23148,7 +24114,7 @@
         <v>23707.34090613291</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23181,7 +24147,7 @@
         <v>23863.99790613291</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23214,7 +24180,7 @@
         <v>23854.99790613291</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23247,7 +24213,7 @@
         <v>23854.99790613291</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23280,7 +24246,7 @@
         <v>23864.99790613291</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23313,7 +24279,7 @@
         <v>23753.98880613291</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23346,7 +24312,7 @@
         <v>23536.48640613291</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23379,7 +24345,7 @@
         <v>23525.59450613291</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23412,7 +24378,7 @@
         <v>23505.33270613291</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23445,7 +24411,7 @@
         <v>23680.03900613292</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23478,7 +24444,7 @@
         <v>23699.43900613292</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23511,7 +24477,7 @@
         <v>23744.63580613292</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23544,7 +24510,7 @@
         <v>23743.63580613292</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23577,7 +24543,7 @@
         <v>23283.16040613292</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23610,7 +24576,7 @@
         <v>23165.59740613292</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23643,7 +24609,7 @@
         <v>23165.59740613292</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23676,7 +24642,7 @@
         <v>23106.94750613292</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23709,7 +24675,7 @@
         <v>23079.67440613292</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23742,7 +24708,7 @@
         <v>23079.67440613292</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23775,7 +24741,7 @@
         <v>23708.83960613292</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23808,7 +24774,7 @@
         <v>24322.05510613292</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23841,7 +24807,7 @@
         <v>23998.63240613292</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23874,7 +24840,7 @@
         <v>24100.63230613292</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23907,7 +24873,7 @@
         <v>24100.63230613292</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23940,7 +24906,7 @@
         <v>24116.63230613292</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23973,7 +24939,7 @@
         <v>-11140.37559386708</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24006,7 +24972,7 @@
         <v>-4690.955693867077</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24072,7 +25038,7 @@
         <v>3696.989206132924</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24732,7 +25698,7 @@
         <v>12139.73970613292</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24765,7 +25731,7 @@
         <v>12057.94170613292</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25007,6 +25973,6 @@
       <c r="M707" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest LINK.xlsx
+++ b/BackTest/2019-10-25 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>19075.6696</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>18157.5247</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3142</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,15 +517,11 @@
         <v>20754.1993</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,15 +550,11 @@
         <v>24386.3128</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -597,15 +583,11 @@
         <v>24386.3128</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,15 +616,11 @@
         <v>24596.3155</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -671,15 +649,11 @@
         <v>25803.2509</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -708,15 +682,11 @@
         <v>25710.782</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -745,15 +715,11 @@
         <v>29142.0274</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -782,15 +748,11 @@
         <v>28521.9891</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -819,15 +781,11 @@
         <v>28590.2772</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -856,15 +814,11 @@
         <v>28137.4942</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -893,15 +847,11 @@
         <v>29691.53960299684</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -930,15 +880,11 @@
         <v>35053.7205</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -967,15 +913,11 @@
         <v>35042.8448</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1004,15 +946,11 @@
         <v>35042.8448</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,15 +979,11 @@
         <v>35042.8448</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1078,15 +1012,11 @@
         <v>37934.1523</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1115,15 +1045,11 @@
         <v>43383.53350000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1152,15 +1078,11 @@
         <v>45310.3608</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1337,15 +1243,11 @@
         <v>44827.97437574627</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1374,15 +1276,11 @@
         <v>43464.55037574627</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1411,15 +1309,11 @@
         <v>42541.99497574627</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1448,15 +1342,11 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1485,15 +1375,11 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1522,15 +1408,11 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1559,15 +1441,11 @@
         <v>42540.82667574628</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1596,15 +1474,11 @@
         <v>51037.98837574628</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1637,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1674,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1711,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1748,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1785,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1896,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2151,15 +1969,11 @@
         <v>49255.83705056574</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2303,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2377,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2488,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2525,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2562,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2599,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2636,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2673,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2710,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2747,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2784,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2858,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2932,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3006,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3080,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3117,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3154,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3191,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3228,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3265,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3302,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3339,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3376,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3413,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3450,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3561,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3598,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3709,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3746,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3783,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3857,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3894,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3931,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3968,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4005,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4042,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4079,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4116,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4190,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4227,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4264,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4301,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4338,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4375,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4412,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4449,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4486,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4523,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4560,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4634,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4671,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4745,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4782,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4819,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4893,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4930,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4967,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5078,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5115,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5152,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5189,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5226,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5263,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5300,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5337,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5374,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5411,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5448,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5485,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5522,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5559,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5596,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5633,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5670,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5703,15 +5137,11 @@
         <v>33865.08967682172</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5740,15 +5170,11 @@
         <v>35764.73291089112</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5781,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5814,15 +5236,11 @@
         <v>35704.43471089112</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5851,15 +5269,11 @@
         <v>35640.89081089113</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5888,15 +5302,11 @@
         <v>34000.55531089113</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5966,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6003,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6040,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6114,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6151,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6188,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6225,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6262,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6299,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6336,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6373,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6410,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6447,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6484,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6521,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6558,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6595,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6632,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6669,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6706,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6743,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6780,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6817,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6850,15 +6160,11 @@
         <v>31825.41271089112</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6887,15 +6193,11 @@
         <v>32006.40871089112</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6924,15 +6226,11 @@
         <v>33559.29721089112</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6965,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7002,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7039,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7076,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7113,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7187,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7224,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7261,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7298,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7335,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7372,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7409,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7446,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7483,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7520,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7557,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7594,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7631,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7668,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7705,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7742,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7779,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7816,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7853,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7890,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7927,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7964,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8001,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8038,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8075,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8112,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8149,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8186,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8223,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8260,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8297,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8334,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8408,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8445,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8482,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8519,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8556,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8593,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8630,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8667,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8704,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8741,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8778,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8815,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8852,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8889,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8926,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8963,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9000,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9033,16 +8107,14 @@
         <v>42365.88009078713</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
       <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
@@ -9233,7 +8305,7 @@
         <v>29441.29699078713</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9266,7 +8338,7 @@
         <v>28234.11499078713</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9299,7 +8371,7 @@
         <v>29268.85749078713</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9332,7 +8404,7 @@
         <v>29269.32739078713</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -11609,14 +10681,10 @@
         <v>-1854.985220345813</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>3132</v>
-      </c>
-      <c r="J312" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
@@ -11646,19 +10714,11 @@
         <v>-1854.985220345813</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>3132</v>
-      </c>
-      <c r="J313" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11687,19 +10747,11 @@
         <v>-1854.985220345813</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>3132</v>
-      </c>
-      <c r="J314" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11728,14 +10780,10 @@
         <v>-2354.985220345813</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>3132</v>
-      </c>
-      <c r="J315" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
@@ -11765,19 +10813,11 @@
         <v>-2284.821920345812</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>3122</v>
-      </c>
-      <c r="J316" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11806,19 +10846,11 @@
         <v>-5115.209420345813</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>3133</v>
-      </c>
-      <c r="J317" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11847,19 +10879,11 @@
         <v>-4941.819820345812</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>3132</v>
-      </c>
-      <c r="J318" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11888,19 +10912,11 @@
         <v>-4404.301320345812</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>3140</v>
-      </c>
-      <c r="J319" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11929,19 +10945,11 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>3150</v>
-      </c>
-      <c r="J320" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11970,19 +10978,11 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>3151</v>
-      </c>
-      <c r="J321" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12011,19 +11011,11 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>3151</v>
-      </c>
-      <c r="J322" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12052,19 +11044,11 @@
         <v>-4789.011520345812</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>3151</v>
-      </c>
-      <c r="J323" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12093,19 +11077,11 @@
         <v>-4788.011520345812</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>3150</v>
-      </c>
-      <c r="J324" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12134,19 +11110,11 @@
         <v>-4789.011520345812</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>3157</v>
-      </c>
-      <c r="J325" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12175,19 +11143,11 @@
         <v>-5560.506820345812</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>3156</v>
-      </c>
-      <c r="J326" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12216,19 +11176,11 @@
         <v>-5560.506820345812</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>3142</v>
-      </c>
-      <c r="J327" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12257,19 +11209,11 @@
         <v>-5577.926020345813</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>3142</v>
-      </c>
-      <c r="J328" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12298,19 +11242,11 @@
         <v>-5577.926020345813</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>3136</v>
-      </c>
-      <c r="J329" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12339,19 +11275,11 @@
         <v>-5566.669320345813</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>3136</v>
-      </c>
-      <c r="J330" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12380,19 +11308,11 @@
         <v>-5310.279220345813</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>3137</v>
-      </c>
-      <c r="J331" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12421,19 +11341,11 @@
         <v>-5301.298620345813</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>3151</v>
-      </c>
-      <c r="J332" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12462,19 +11374,11 @@
         <v>-5301.298620345813</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>3154</v>
-      </c>
-      <c r="J333" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12503,19 +11407,11 @@
         <v>-4984.541920345813</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>3154</v>
-      </c>
-      <c r="J334" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12544,19 +11440,11 @@
         <v>-5227.688820345813</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>3157</v>
-      </c>
-      <c r="J335" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12585,19 +11473,11 @@
         <v>-5467.699320345813</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3153</v>
-      </c>
-      <c r="J336" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12626,19 +11506,11 @@
         <v>-7323.357620345813</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>3152</v>
-      </c>
-      <c r="J337" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12667,19 +11539,11 @@
         <v>-7256.107620345813</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>3151</v>
-      </c>
-      <c r="J338" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12708,19 +11572,11 @@
         <v>-8069.134320345814</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>3153</v>
-      </c>
-      <c r="J339" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12749,19 +11605,11 @@
         <v>-7922.000720345814</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>3141</v>
-      </c>
-      <c r="J340" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12790,19 +11638,11 @@
         <v>-8278.300620345814</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>3149</v>
-      </c>
-      <c r="J341" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12831,19 +11671,11 @@
         <v>-7939.093420345814</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>3144</v>
-      </c>
-      <c r="J342" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12872,19 +11704,11 @@
         <v>-7667.937420345814</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>3145</v>
-      </c>
-      <c r="J343" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12913,19 +11737,11 @@
         <v>-3222.838920345814</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>3149</v>
-      </c>
-      <c r="J344" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12954,19 +11770,11 @@
         <v>-3222.838920345814</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>3150</v>
-      </c>
-      <c r="J345" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12995,19 +11803,11 @@
         <v>-3233.485320345814</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>3150</v>
-      </c>
-      <c r="J346" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13036,19 +11836,11 @@
         <v>-2087.804820345814</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>3144</v>
-      </c>
-      <c r="J347" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13077,19 +11869,11 @@
         <v>-1854.208220345814</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>3149</v>
-      </c>
-      <c r="J348" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13118,19 +11902,11 @@
         <v>-1854.208220345814</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>3153</v>
-      </c>
-      <c r="J349" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13159,19 +11935,11 @@
         <v>-1863.166320345814</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>3153</v>
-      </c>
-      <c r="J350" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13200,19 +11968,11 @@
         <v>-1863.066320345814</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>3144</v>
-      </c>
-      <c r="J351" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13244,14 +12004,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13280,19 +12034,11 @@
         <v>-1813.250820345814</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>3141</v>
-      </c>
-      <c r="J353" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13324,14 +12070,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13360,19 +12100,11 @@
         <v>-2417.228720345814</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>3122</v>
-      </c>
-      <c r="J355" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13401,19 +12133,11 @@
         <v>-4829.165220345813</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>3150</v>
-      </c>
-      <c r="J356" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13442,19 +12166,11 @@
         <v>-4081.254820345814</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>3137</v>
-      </c>
-      <c r="J357" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13483,19 +12199,11 @@
         <v>-4652.274720345814</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>3142</v>
-      </c>
-      <c r="J358" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13524,19 +12232,11 @@
         <v>-4647.845920345814</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>3129</v>
-      </c>
-      <c r="J359" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13565,19 +12265,11 @@
         <v>-4332.007620345814</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>3139</v>
-      </c>
-      <c r="J360" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13606,19 +12298,11 @@
         <v>-4350.756820345814</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>3142</v>
-      </c>
-      <c r="J361" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13647,19 +12331,11 @@
         <v>-4350.756820345814</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>3139</v>
-      </c>
-      <c r="J362" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13688,19 +12364,11 @@
         <v>-4672.14383932508</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>3139</v>
-      </c>
-      <c r="J363" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13729,19 +12397,11 @@
         <v>-4722.05163932508</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>3131</v>
-      </c>
-      <c r="J364" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13770,19 +12430,11 @@
         <v>-4722.05163932508</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>3120</v>
-      </c>
-      <c r="J365" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13811,19 +12463,11 @@
         <v>-4268.690960207715</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>3120</v>
-      </c>
-      <c r="J366" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13852,19 +12496,11 @@
         <v>-4280.690960207715</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>3127</v>
-      </c>
-      <c r="J367" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13893,19 +12529,11 @@
         <v>-4477.814760207715</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>3114</v>
-      </c>
-      <c r="J368" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13934,19 +12562,11 @@
         <v>-4477.814660207715</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>3113</v>
-      </c>
-      <c r="J369" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13975,19 +12595,11 @@
         <v>-4463.814660207715</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>3114</v>
-      </c>
-      <c r="J370" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14022,13 +12634,9 @@
         <v>3121</v>
       </c>
       <c r="J371" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3121</v>
+      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14063,11 +12671,11 @@
         <v>3123</v>
       </c>
       <c r="J372" t="n">
-        <v>3132</v>
+        <v>3121</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L372" t="n">
@@ -14104,11 +12712,11 @@
         <v>3135</v>
       </c>
       <c r="J373" t="n">
-        <v>3132</v>
+        <v>3121</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L373" t="n">
@@ -14139,19 +12747,11 @@
         <v>-4363.851760207715</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>3132</v>
-      </c>
-      <c r="J374" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14186,13 +12786,9 @@
         <v>3133</v>
       </c>
       <c r="J375" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3133</v>
+      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14227,11 +12823,11 @@
         <v>3137</v>
       </c>
       <c r="J376" t="n">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L376" t="n">
@@ -14268,11 +12864,11 @@
         <v>3149</v>
       </c>
       <c r="J377" t="n">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L377" t="n">
@@ -14303,19 +12899,11 @@
         <v>-4385.904260207715</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>3142</v>
-      </c>
-      <c r="J378" t="n">
-        <v>3132</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14349,12 +12937,10 @@
       <c r="I379" t="n">
         <v>3156</v>
       </c>
-      <c r="J379" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L379" t="n">
@@ -14390,9 +12976,7 @@
       <c r="I380" t="n">
         <v>3145</v>
       </c>
-      <c r="J380" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14431,9 +13015,7 @@
       <c r="I381" t="n">
         <v>3145</v>
       </c>
-      <c r="J381" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14467,14 +13049,10 @@
         <v>-4997.866560207715</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>3148</v>
-      </c>
-      <c r="J382" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14513,9 +13091,7 @@
       <c r="I383" t="n">
         <v>3140</v>
       </c>
-      <c r="J383" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14554,9 +13130,7 @@
       <c r="I384" t="n">
         <v>3146</v>
       </c>
-      <c r="J384" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14595,9 +13169,7 @@
       <c r="I385" t="n">
         <v>3139</v>
       </c>
-      <c r="J385" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14631,14 +13203,10 @@
         <v>-4572.252740119136</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>3157</v>
-      </c>
-      <c r="J386" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14672,12 +13240,12 @@
         <v>-5592.818540119136</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>3161</v>
+      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14711,12 +13279,12 @@
         <v>-5598.818856675008</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>3160</v>
+      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14750,12 +13318,12 @@
         <v>-5581.122256675008</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>3159</v>
+      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14792,9 +13360,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14831,9 +13397,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14870,9 +13434,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14906,12 +13468,12 @@
         <v>-5585.829456675007</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>3150</v>
+      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14945,14 +13507,10 @@
         <v>-6558.444956675007</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>3150</v>
-      </c>
-      <c r="J394" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14991,9 +13549,7 @@
       <c r="I395" t="n">
         <v>3149</v>
       </c>
-      <c r="J395" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15032,9 +13588,7 @@
       <c r="I396" t="n">
         <v>3151</v>
       </c>
-      <c r="J396" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15073,9 +13627,7 @@
       <c r="I397" t="n">
         <v>3156</v>
       </c>
-      <c r="J397" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15109,14 +13661,10 @@
         <v>-5391.951991972853</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>3148</v>
-      </c>
-      <c r="J398" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15150,14 +13698,10 @@
         <v>-5404.951991972853</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>3148</v>
-      </c>
-      <c r="J399" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15196,9 +13740,7 @@
       <c r="I400" t="n">
         <v>3135</v>
       </c>
-      <c r="J400" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15237,9 +13779,7 @@
       <c r="I401" t="n">
         <v>3133</v>
       </c>
-      <c r="J401" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15273,14 +13813,10 @@
         <v>-5229.185291972853</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>3133</v>
-      </c>
-      <c r="J402" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15319,9 +13855,7 @@
       <c r="I403" t="n">
         <v>3141</v>
       </c>
-      <c r="J403" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15360,9 +13894,7 @@
       <c r="I404" t="n">
         <v>3139</v>
       </c>
-      <c r="J404" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15401,9 +13933,7 @@
       <c r="I405" t="n">
         <v>3130</v>
       </c>
-      <c r="J405" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15437,14 +13967,10 @@
         <v>-5759.775491972852</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>3130</v>
-      </c>
-      <c r="J406" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15478,14 +14004,10 @@
         <v>-5501.141891972852</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>3129</v>
-      </c>
-      <c r="J407" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15519,14 +14041,10 @@
         <v>-5501.141891972852</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>3130</v>
-      </c>
-      <c r="J408" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15560,14 +14078,10 @@
         <v>-5661.141891972852</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>3130</v>
-      </c>
-      <c r="J409" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15601,14 +14115,10 @@
         <v>-5661.141891972852</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>3129</v>
-      </c>
-      <c r="J410" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15642,14 +14152,10 @@
         <v>-1638.080490636549</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>3129</v>
-      </c>
-      <c r="J411" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15683,14 +14189,10 @@
         <v>-1912.940390636549</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>3143</v>
-      </c>
-      <c r="J412" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15724,14 +14226,10 @@
         <v>-1835.565290636549</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>3130</v>
-      </c>
-      <c r="J413" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15765,14 +14263,10 @@
         <v>-1933.945790636549</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>3142</v>
-      </c>
-      <c r="J414" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15806,14 +14300,10 @@
         <v>-1845.945790636549</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>3139</v>
-      </c>
-      <c r="J415" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15847,14 +14337,10 @@
         <v>-1845.945790636549</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>3144</v>
-      </c>
-      <c r="J416" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15888,14 +14374,10 @@
         <v>-1804.873690636549</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>3144</v>
-      </c>
-      <c r="J417" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15929,14 +14411,10 @@
         <v>-2014.016390636549</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>3147</v>
-      </c>
-      <c r="J418" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15970,14 +14448,10 @@
         <v>-1731.737890636549</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>3144</v>
-      </c>
-      <c r="J419" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16011,14 +14485,10 @@
         <v>-2739.425390636549</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>3145</v>
-      </c>
-      <c r="J420" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16052,14 +14522,10 @@
         <v>-2730.225390636549</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>3135</v>
-      </c>
-      <c r="J421" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16093,14 +14559,10 @@
         <v>-2730.225390636549</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>3149</v>
-      </c>
-      <c r="J422" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16134,14 +14596,10 @@
         <v>-3248.225390636549</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>3149</v>
-      </c>
-      <c r="J423" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16175,14 +14633,10 @@
         <v>-3217.46109063655</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>3134</v>
-      </c>
-      <c r="J424" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16216,14 +14670,10 @@
         <v>-3124.56209063655</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>3149</v>
-      </c>
-      <c r="J425" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16257,14 +14707,10 @@
         <v>-3446.75209063655</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>3151</v>
-      </c>
-      <c r="J426" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16303,9 +14749,7 @@
       <c r="I427" t="n">
         <v>3142</v>
       </c>
-      <c r="J427" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16344,9 +14788,7 @@
       <c r="I428" t="n">
         <v>3155</v>
       </c>
-      <c r="J428" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16385,9 +14827,7 @@
       <c r="I429" t="n">
         <v>3161</v>
       </c>
-      <c r="J429" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16421,14 +14861,10 @@
         <v>4836.245389274871</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>3170</v>
-      </c>
-      <c r="J430" t="n">
-        <v>3132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16467,9 +14903,7 @@
       <c r="I431" t="n">
         <v>3175</v>
       </c>
-      <c r="J431" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16506,9 +14940,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16542,12 +14974,12 @@
         <v>4836.245389274871</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>3175</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16581,12 +15013,12 @@
         <v>13421.20738927487</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>3132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>3175</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16620,12 +15052,12 @@
         <v>13421.20738927487</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>3132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>3177</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16659,12 +15091,12 @@
         <v>12551.95698927487</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>3132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>3177</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16698,12 +15130,12 @@
         <v>11240.13588927487</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>3132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>3175</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16740,9 +15172,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16776,12 +15206,12 @@
         <v>11119.02778927487</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>3132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>3176</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16818,9 +15248,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16857,9 +15285,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16896,9 +15322,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16935,9 +15359,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16974,9 +15396,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17013,9 +15433,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17052,9 +15470,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17091,9 +15507,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17130,9 +15544,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17169,9 +15581,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17208,9 +15618,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17247,9 +15655,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17286,9 +15692,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17325,9 +15729,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17364,9 +15766,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17403,9 +15803,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17442,9 +15840,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17481,9 +15877,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17520,9 +15914,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17559,9 +15951,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17598,9 +15988,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17637,9 +16025,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17676,9 +16062,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17715,9 +16099,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17754,9 +16136,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17793,9 +16173,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17832,9 +16210,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17871,9 +16247,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17910,9 +16284,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17949,9 +16321,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17988,9 +16358,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18027,9 +16395,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18066,9 +16432,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18105,9 +16469,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18144,9 +16506,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18183,9 +16543,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18222,9 +16580,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18261,9 +16617,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18300,9 +16654,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18339,9 +16691,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18378,9 +16728,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18417,9 +16765,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18456,9 +16802,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18495,9 +16839,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18534,9 +16876,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18573,9 +16913,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18612,9 +16950,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18651,9 +16987,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18690,9 +17024,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18729,9 +17061,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18768,9 +17098,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18807,9 +17135,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18846,9 +17172,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18885,9 +17209,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18924,9 +17246,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18960,19 +17280,17 @@
         <v>30402.13763459031</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>3132</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L495" t="n">
-        <v>1.012560664112388</v>
+        <v>1</v>
       </c>
       <c r="M495" t="inlineStr"/>
     </row>
@@ -19003,7 +17321,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19036,7 +17358,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19069,7 +17395,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19102,7 +17432,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19135,7 +17469,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19168,7 +17506,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19201,7 +17543,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19234,7 +17580,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19267,7 +17617,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19300,7 +17654,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19333,7 +17691,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19366,7 +17728,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19399,7 +17765,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19432,7 +17802,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19465,7 +17839,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19498,7 +17876,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19531,7 +17913,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19564,7 +17950,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19597,7 +17987,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19630,7 +18024,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19663,7 +18061,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19696,7 +18098,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19729,7 +18135,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19762,7 +18172,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19795,7 +18209,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19828,7 +18246,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19861,7 +18283,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19894,7 +18320,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19927,7 +18357,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19960,7 +18394,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19993,7 +18431,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20026,7 +18468,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20059,7 +18505,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20092,7 +18542,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20125,7 +18579,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20158,7 +18616,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20191,7 +18653,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20224,7 +18690,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20257,7 +18727,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20290,7 +18764,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20319,11 +18797,15 @@
         <v>34154.4592309639</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20352,11 +18834,15 @@
         <v>33154.4592309639</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20385,11 +18871,15 @@
         <v>33215.81023096391</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20418,11 +18908,15 @@
         <v>33862.16783096391</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20451,11 +18945,15 @@
         <v>33862.16783096391</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20484,11 +18982,15 @@
         <v>35148.35193096391</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20517,11 +19019,15 @@
         <v>35620.06073096391</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20550,11 +19056,15 @@
         <v>35620.06073096391</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20583,11 +19093,15 @@
         <v>34307.94763096391</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20616,11 +19130,15 @@
         <v>33034.75123096391</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20649,11 +19167,15 @@
         <v>33003.41313096391</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20682,11 +19204,15 @@
         <v>34730.08903096391</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20715,11 +19241,15 @@
         <v>34730.08903096391</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20748,11 +19278,15 @@
         <v>34730.08903096391</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20781,11 +19315,15 @@
         <v>34708.97343096391</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20814,11 +19352,15 @@
         <v>34756.06913096391</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20847,11 +19389,15 @@
         <v>34756.06913096391</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20880,11 +19426,15 @@
         <v>34756.06913096391</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20913,11 +19463,15 @@
         <v>34708.8993309639</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20950,7 +19504,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20983,7 +19541,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21016,7 +19578,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21049,7 +19615,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21082,7 +19652,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21111,11 +19685,15 @@
         <v>31173.1674309639</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21144,11 +19722,15 @@
         <v>30658.5837309639</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21177,11 +19759,15 @@
         <v>30658.5837309639</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21210,11 +19796,15 @@
         <v>29700.7254309639</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21243,11 +19833,15 @@
         <v>29505.4555309639</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21280,7 +19874,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21309,11 +19907,15 @@
         <v>27124.0258309639</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21346,7 +19948,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21379,7 +19985,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21412,7 +20022,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21445,7 +20059,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21478,7 +20096,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21511,7 +20133,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21544,7 +20170,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21577,7 +20207,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21610,7 +20244,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21643,7 +20281,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21676,7 +20318,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21709,7 +20355,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21742,7 +20392,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21775,7 +20429,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21808,7 +20466,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21841,7 +20503,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21874,7 +20540,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21907,7 +20577,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21940,7 +20614,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21973,7 +20651,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22006,7 +20688,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22039,7 +20725,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22072,7 +20762,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22105,7 +20799,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22138,7 +20836,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22171,7 +20873,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22204,7 +20910,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22237,7 +20947,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22270,7 +20984,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22303,7 +21021,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22336,7 +21058,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22369,7 +21095,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22402,7 +21132,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22435,7 +21169,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22468,7 +21206,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22501,7 +21243,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22534,7 +21280,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22567,7 +21317,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22600,7 +21354,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22633,7 +21391,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22666,7 +21428,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22699,7 +21465,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22728,11 +21498,15 @@
         <v>39083.7570309639</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22761,11 +21535,15 @@
         <v>39130.4839309639</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22794,11 +21572,15 @@
         <v>38209.4471309639</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22827,11 +21609,15 @@
         <v>38222.14713096389</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22860,11 +21646,15 @@
         <v>38205.33553096389</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22893,11 +21683,15 @@
         <v>38205.33553096389</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22926,11 +21720,15 @@
         <v>38329.28053096389</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22959,11 +21757,15 @@
         <v>38659.17173096389</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22992,11 +21794,15 @@
         <v>38659.17173096389</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23025,11 +21831,15 @@
         <v>38454.12793096389</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23058,11 +21868,15 @@
         <v>38462.56693096389</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23091,11 +21905,15 @@
         <v>37888.34973096389</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23124,11 +21942,15 @@
         <v>37586.50663096389</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23157,11 +21979,15 @@
         <v>37164.08623096389</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23190,11 +22016,15 @@
         <v>37164.08623096389</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23223,11 +22053,15 @@
         <v>36613.49743096389</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23256,11 +22090,15 @@
         <v>36473.68303096389</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23289,11 +22127,15 @@
         <v>36506.55823096389</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23322,11 +22164,15 @@
         <v>32277.90833096389</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23355,11 +22201,15 @@
         <v>32242.62823096389</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23392,7 +22242,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23425,7 +22279,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23458,7 +22316,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23491,7 +22353,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23524,7 +22390,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23557,7 +22427,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23590,7 +22464,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23623,7 +22501,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23656,7 +22538,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23689,7 +22575,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23722,7 +22612,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23751,11 +22645,15 @@
         <v>26241.13650613292</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23788,7 +22686,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23821,7 +22723,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23854,7 +22760,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23887,7 +22797,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23920,7 +22834,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23953,7 +22871,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23986,7 +22908,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24015,11 +22941,15 @@
         <v>21865.44020613292</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24048,11 +22978,15 @@
         <v>22072.50560613292</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24081,11 +23015,15 @@
         <v>23707.34090613291</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24114,11 +23052,15 @@
         <v>23707.34090613291</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24147,11 +23089,15 @@
         <v>23863.99790613291</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24180,11 +23126,15 @@
         <v>23854.99790613291</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24213,11 +23163,15 @@
         <v>23854.99790613291</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24246,11 +23200,15 @@
         <v>23864.99790613291</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24279,11 +23237,15 @@
         <v>23753.98880613291</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24312,11 +23274,15 @@
         <v>23536.48640613291</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24345,11 +23311,15 @@
         <v>23525.59450613291</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24378,11 +23348,15 @@
         <v>23505.33270613291</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24411,11 +23385,15 @@
         <v>23680.03900613292</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24444,11 +23422,15 @@
         <v>23699.43900613292</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24477,11 +23459,15 @@
         <v>23744.63580613292</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24510,11 +23496,15 @@
         <v>23743.63580613292</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24543,11 +23533,15 @@
         <v>23283.16040613292</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24576,11 +23570,15 @@
         <v>23165.59740613292</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24609,11 +23607,15 @@
         <v>23165.59740613292</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24642,11 +23644,15 @@
         <v>23106.94750613292</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24675,11 +23681,15 @@
         <v>23079.67440613292</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24708,11 +23718,15 @@
         <v>23079.67440613292</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24741,11 +23755,15 @@
         <v>23708.83960613292</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24774,11 +23792,15 @@
         <v>24322.05510613292</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24807,11 +23829,15 @@
         <v>23998.63240613292</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24840,11 +23866,15 @@
         <v>24100.63230613292</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24873,11 +23903,15 @@
         <v>24100.63230613292</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24906,11 +23940,15 @@
         <v>24116.63230613292</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24939,11 +23977,15 @@
         <v>-11140.37559386708</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24972,11 +24014,15 @@
         <v>-4690.955693867077</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25009,7 +24055,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25038,11 +24088,15 @@
         <v>3696.989206132924</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25075,7 +24129,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25108,7 +24166,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25141,7 +24203,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25174,7 +24240,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25207,7 +24277,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25240,7 +24314,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25273,7 +24351,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25306,7 +24388,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25339,7 +24425,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25372,7 +24462,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25405,7 +24499,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25438,7 +24536,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25471,7 +24573,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25504,7 +24610,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25537,7 +24647,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25570,7 +24684,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25603,7 +24721,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25636,7 +24758,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25669,7 +24795,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25698,11 +24828,15 @@
         <v>12139.73970613292</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25731,11 +24865,15 @@
         <v>12057.94170613292</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25768,7 +24906,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25801,7 +24943,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25834,7 +24980,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25867,7 +25017,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25900,7 +25054,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25933,7 +25091,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25966,13 +25128,17 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
       <c r="M707" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest LINK.xlsx
+++ b/BackTest/2019-10-25 BackTest LINK.xlsx
@@ -451,7 +451,7 @@
         <v>19075.6696</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>18157.5247</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>20754.1993</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>24386.3128</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>24386.3128</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>24596.3155</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>25803.2509</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>25710.782</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>29142.0274</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>28521.9891</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>28590.2772</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>28137.4942</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>29691.53960299684</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>35053.7205</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>35042.8448</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>35042.8448</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>35042.8448</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>37934.1523</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>43383.53350000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>45310.3608</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>44827.97437574627</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>43464.55037574627</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>42541.99497574627</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>42540.82667574628</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>51037.98837574628</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>49255.83705056574</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>33865.08967682172</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>35764.73291089112</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>35704.43471089112</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>35640.89081089113</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>34000.55531089113</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>31825.41271089112</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>32006.40871089112</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>33559.29721089112</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -10714,10 +10714,14 @@
         <v>-1854.985220345813</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J313" t="n">
+        <v>3132</v>
+      </c>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
@@ -10747,11 +10751,19 @@
         <v>-1854.985220345813</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J314" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10792,19 @@
         <v>-2354.985220345813</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J315" t="n">
+        <v>3132</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,10 +10833,14 @@
         <v>-2284.821920345812</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3122</v>
+      </c>
+      <c r="J316" t="n">
+        <v>3122</v>
+      </c>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
@@ -10846,11 +10870,19 @@
         <v>-5115.209420345813</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>3133</v>
+      </c>
+      <c r="J317" t="n">
+        <v>3122</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10911,19 @@
         <v>-4941.819820345812</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J318" t="n">
+        <v>3122</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,7 +10952,7 @@
         <v>-4404.301320345812</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10985,7 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11018,7 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,10 +11051,14 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>3151</v>
+      </c>
+      <c r="J322" t="n">
+        <v>3151</v>
+      </c>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
@@ -11044,11 +11088,19 @@
         <v>-4789.011520345812</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>3151</v>
+      </c>
+      <c r="J323" t="n">
+        <v>3151</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11129,19 @@
         <v>-4788.011520345812</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>3150</v>
+      </c>
+      <c r="J324" t="n">
+        <v>3151</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,10 +11170,14 @@
         <v>-4789.011520345812</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>3157</v>
+      </c>
+      <c r="J325" t="n">
+        <v>3157</v>
+      </c>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
@@ -11143,11 +11207,19 @@
         <v>-5560.506820345812</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>3156</v>
+      </c>
+      <c r="J326" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11248,19 @@
         <v>-5560.506820345812</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>3142</v>
+      </c>
+      <c r="J327" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11289,19 @@
         <v>-5577.926020345813</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>3142</v>
+      </c>
+      <c r="J328" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11330,19 @@
         <v>-5577.926020345813</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>3136</v>
+      </c>
+      <c r="J329" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11371,19 @@
         <v>-5566.669320345813</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>3136</v>
+      </c>
+      <c r="J330" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11412,19 @@
         <v>-5310.279220345813</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>3137</v>
+      </c>
+      <c r="J331" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11453,19 @@
         <v>-5301.298620345813</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>3151</v>
+      </c>
+      <c r="J332" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11494,19 @@
         <v>-5301.298620345813</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>3154</v>
+      </c>
+      <c r="J333" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11535,19 @@
         <v>-4984.541920345813</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3154</v>
+      </c>
+      <c r="J334" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11576,19 @@
         <v>-5227.688820345813</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>3157</v>
+      </c>
+      <c r="J335" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +11617,19 @@
         <v>-5467.699320345813</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3153</v>
+      </c>
+      <c r="J336" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11658,19 @@
         <v>-7323.357620345813</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3152</v>
+      </c>
+      <c r="J337" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11699,19 @@
         <v>-7256.107620345813</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3151</v>
+      </c>
+      <c r="J338" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11740,19 @@
         <v>-8069.134320345814</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3153</v>
+      </c>
+      <c r="J339" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11781,19 @@
         <v>-7922.000720345814</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>3141</v>
+      </c>
+      <c r="J340" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11822,19 @@
         <v>-8278.300620345814</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3149</v>
+      </c>
+      <c r="J341" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +11863,19 @@
         <v>-7939.093420345814</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3144</v>
+      </c>
+      <c r="J342" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +11904,19 @@
         <v>-7667.937420345814</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3145</v>
+      </c>
+      <c r="J343" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +11945,19 @@
         <v>-3222.838920345814</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>3149</v>
+      </c>
+      <c r="J344" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11986,19 @@
         <v>-3222.838920345814</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>3150</v>
+      </c>
+      <c r="J345" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +12027,19 @@
         <v>-3233.485320345814</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>3150</v>
+      </c>
+      <c r="J346" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +12068,19 @@
         <v>-2087.804820345814</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>3144</v>
+      </c>
+      <c r="J347" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12109,19 @@
         <v>-1854.208220345814</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>3149</v>
+      </c>
+      <c r="J348" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12150,19 @@
         <v>-1854.208220345814</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>3153</v>
+      </c>
+      <c r="J349" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12191,19 @@
         <v>-1863.166320345814</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>3153</v>
+      </c>
+      <c r="J350" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12232,19 @@
         <v>-1863.066320345814</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>3144</v>
+      </c>
+      <c r="J351" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +12273,19 @@
         <v>-2097.747420345814</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>3152</v>
+      </c>
+      <c r="J352" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +12314,19 @@
         <v>-1813.250820345814</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>3141</v>
+      </c>
+      <c r="J353" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12355,19 @@
         <v>-3938.250820345814</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>3153</v>
+      </c>
+      <c r="J354" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12396,19 @@
         <v>-2417.228720345814</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>3122</v>
+      </c>
+      <c r="J355" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12437,19 @@
         <v>-4829.165220345813</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>3150</v>
+      </c>
+      <c r="J356" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12478,19 @@
         <v>-4081.254820345814</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>3137</v>
+      </c>
+      <c r="J357" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12519,19 @@
         <v>-4652.274720345814</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>3142</v>
+      </c>
+      <c r="J358" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12560,19 @@
         <v>-4647.845920345814</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>3129</v>
+      </c>
+      <c r="J359" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12601,19 @@
         <v>-4332.007620345814</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>3139</v>
+      </c>
+      <c r="J360" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12642,19 @@
         <v>-4350.756820345814</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>3142</v>
+      </c>
+      <c r="J361" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12683,19 @@
         <v>-4350.756820345814</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>3139</v>
+      </c>
+      <c r="J362" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12724,19 @@
         <v>-4672.14383932508</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3139</v>
+      </c>
+      <c r="J363" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12765,19 @@
         <v>-4722.05163932508</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>3131</v>
+      </c>
+      <c r="J364" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12806,19 @@
         <v>-4722.05163932508</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>3120</v>
+      </c>
+      <c r="J365" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12847,19 @@
         <v>-4268.690960207715</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>3120</v>
+      </c>
+      <c r="J366" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12888,19 @@
         <v>-4280.690960207715</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>3127</v>
+      </c>
+      <c r="J367" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12929,19 @@
         <v>-4477.814760207715</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>3114</v>
+      </c>
+      <c r="J368" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12970,19 @@
         <v>-4477.814660207715</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>3113</v>
+      </c>
+      <c r="J369" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +13011,19 @@
         <v>-4463.814660207715</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>3114</v>
+      </c>
+      <c r="J370" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12634,9 +13058,13 @@
         <v>3121</v>
       </c>
       <c r="J371" t="n">
-        <v>3121</v>
-      </c>
-      <c r="K371" t="inlineStr"/>
+        <v>3157</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12671,11 +13099,11 @@
         <v>3123</v>
       </c>
       <c r="J372" t="n">
-        <v>3121</v>
+        <v>3157</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L372" t="n">
@@ -12712,11 +13140,11 @@
         <v>3135</v>
       </c>
       <c r="J373" t="n">
-        <v>3121</v>
+        <v>3157</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L373" t="n">
@@ -12747,11 +13175,19 @@
         <v>-4363.851760207715</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3132</v>
+      </c>
+      <c r="J374" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12786,9 +13222,13 @@
         <v>3133</v>
       </c>
       <c r="J375" t="n">
-        <v>3133</v>
-      </c>
-      <c r="K375" t="inlineStr"/>
+        <v>3157</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12823,11 +13263,11 @@
         <v>3137</v>
       </c>
       <c r="J376" t="n">
-        <v>3133</v>
+        <v>3157</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L376" t="n">
@@ -12864,11 +13304,11 @@
         <v>3149</v>
       </c>
       <c r="J377" t="n">
-        <v>3133</v>
+        <v>3157</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L377" t="n">
@@ -12899,11 +13339,19 @@
         <v>-4385.904260207715</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>3142</v>
+      </c>
+      <c r="J378" t="n">
+        <v>3157</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12937,10 +13385,12 @@
       <c r="I379" t="n">
         <v>3156</v>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3157</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L379" t="n">
@@ -12976,7 +13426,9 @@
       <c r="I380" t="n">
         <v>3145</v>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3157</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13015,7 +13467,9 @@
       <c r="I381" t="n">
         <v>3145</v>
       </c>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3157</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13049,10 +13503,14 @@
         <v>-4997.866560207715</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>3148</v>
+      </c>
+      <c r="J382" t="n">
+        <v>3157</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13091,7 +13549,9 @@
       <c r="I383" t="n">
         <v>3140</v>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3157</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13130,7 +13590,9 @@
       <c r="I384" t="n">
         <v>3146</v>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3157</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13169,7 +13631,9 @@
       <c r="I385" t="n">
         <v>3139</v>
       </c>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3157</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13203,10 +13667,14 @@
         <v>-4572.252740119136</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>3157</v>
+      </c>
+      <c r="J386" t="n">
+        <v>3157</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13245,7 +13713,9 @@
       <c r="I387" t="n">
         <v>3161</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3157</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13284,7 +13754,9 @@
       <c r="I388" t="n">
         <v>3160</v>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3157</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13323,7 +13795,9 @@
       <c r="I389" t="n">
         <v>3159</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3157</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13357,10 +13831,14 @@
         <v>-5580.176256675008</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>3160</v>
+      </c>
+      <c r="J390" t="n">
+        <v>3157</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13394,10 +13872,14 @@
         <v>-5580.176256675008</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>3161</v>
+      </c>
+      <c r="J391" t="n">
+        <v>3157</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13431,10 +13913,14 @@
         <v>-5585.829456675007</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>3161</v>
+      </c>
+      <c r="J392" t="n">
+        <v>3157</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13473,7 +13959,9 @@
       <c r="I393" t="n">
         <v>3150</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3157</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13507,10 +13995,14 @@
         <v>-6558.444956675007</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>3150</v>
+      </c>
+      <c r="J394" t="n">
+        <v>3157</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13549,7 +14041,9 @@
       <c r="I395" t="n">
         <v>3149</v>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3157</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13588,7 +14082,9 @@
       <c r="I396" t="n">
         <v>3151</v>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3157</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13627,7 +14123,9 @@
       <c r="I397" t="n">
         <v>3156</v>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3157</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13661,10 +14159,14 @@
         <v>-5391.951991972853</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>3148</v>
+      </c>
+      <c r="J398" t="n">
+        <v>3157</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13698,10 +14200,14 @@
         <v>-5404.951991972853</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>3148</v>
+      </c>
+      <c r="J399" t="n">
+        <v>3157</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13740,7 +14246,9 @@
       <c r="I400" t="n">
         <v>3135</v>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3157</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13779,7 +14287,9 @@
       <c r="I401" t="n">
         <v>3133</v>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3157</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13813,10 +14323,14 @@
         <v>-5229.185291972853</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>3133</v>
+      </c>
+      <c r="J402" t="n">
+        <v>3157</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13855,7 +14369,9 @@
       <c r="I403" t="n">
         <v>3141</v>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3157</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13894,7 +14410,9 @@
       <c r="I404" t="n">
         <v>3139</v>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3157</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13933,7 +14451,9 @@
       <c r="I405" t="n">
         <v>3130</v>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3157</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13967,10 +14487,14 @@
         <v>-5759.775491972852</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>3130</v>
+      </c>
+      <c r="J406" t="n">
+        <v>3157</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14004,10 +14528,14 @@
         <v>-5501.141891972852</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>3129</v>
+      </c>
+      <c r="J407" t="n">
+        <v>3157</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14041,10 +14569,14 @@
         <v>-5501.141891972852</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>3130</v>
+      </c>
+      <c r="J408" t="n">
+        <v>3157</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14078,10 +14610,14 @@
         <v>-5661.141891972852</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>3130</v>
+      </c>
+      <c r="J409" t="n">
+        <v>3157</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14115,10 +14651,14 @@
         <v>-5661.141891972852</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>3129</v>
+      </c>
+      <c r="J410" t="n">
+        <v>3157</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14152,10 +14692,14 @@
         <v>-1638.080490636549</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>3129</v>
+      </c>
+      <c r="J411" t="n">
+        <v>3157</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14189,10 +14733,14 @@
         <v>-1912.940390636549</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>3143</v>
+      </c>
+      <c r="J412" t="n">
+        <v>3157</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14226,10 +14774,14 @@
         <v>-1835.565290636549</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>3130</v>
+      </c>
+      <c r="J413" t="n">
+        <v>3157</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14263,10 +14815,14 @@
         <v>-1933.945790636549</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>3142</v>
+      </c>
+      <c r="J414" t="n">
+        <v>3157</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14300,10 +14856,14 @@
         <v>-1845.945790636549</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>3139</v>
+      </c>
+      <c r="J415" t="n">
+        <v>3157</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14337,10 +14897,14 @@
         <v>-1845.945790636549</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>3144</v>
+      </c>
+      <c r="J416" t="n">
+        <v>3157</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14374,10 +14938,14 @@
         <v>-1804.873690636549</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>3144</v>
+      </c>
+      <c r="J417" t="n">
+        <v>3157</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14411,10 +14979,14 @@
         <v>-2014.016390636549</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>3147</v>
+      </c>
+      <c r="J418" t="n">
+        <v>3157</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14448,10 +15020,14 @@
         <v>-1731.737890636549</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>3144</v>
+      </c>
+      <c r="J419" t="n">
+        <v>3157</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14485,10 +15061,14 @@
         <v>-2739.425390636549</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>3145</v>
+      </c>
+      <c r="J420" t="n">
+        <v>3157</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14522,10 +15102,14 @@
         <v>-2730.225390636549</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>3135</v>
+      </c>
+      <c r="J421" t="n">
+        <v>3157</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14559,10 +15143,14 @@
         <v>-2730.225390636549</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>3149</v>
+      </c>
+      <c r="J422" t="n">
+        <v>3157</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14596,10 +15184,14 @@
         <v>-3248.225390636549</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>3149</v>
+      </c>
+      <c r="J423" t="n">
+        <v>3157</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14633,10 +15225,14 @@
         <v>-3217.46109063655</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>3134</v>
+      </c>
+      <c r="J424" t="n">
+        <v>3157</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14670,10 +15266,14 @@
         <v>-3124.56209063655</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>3149</v>
+      </c>
+      <c r="J425" t="n">
+        <v>3157</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14707,10 +15307,14 @@
         <v>-3446.75209063655</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>3151</v>
+      </c>
+      <c r="J426" t="n">
+        <v>3157</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14749,7 +15353,9 @@
       <c r="I427" t="n">
         <v>3142</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3157</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14788,7 +15394,9 @@
       <c r="I428" t="n">
         <v>3155</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3157</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14827,7 +15435,9 @@
       <c r="I429" t="n">
         <v>3161</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3157</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14861,10 +15471,14 @@
         <v>4836.245389274871</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>3170</v>
+      </c>
+      <c r="J430" t="n">
+        <v>3157</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14903,7 +15517,9 @@
       <c r="I431" t="n">
         <v>3175</v>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3157</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14937,10 +15553,14 @@
         <v>4836.245389274871</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>3175</v>
+      </c>
+      <c r="J432" t="n">
+        <v>3157</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14979,7 +15599,9 @@
       <c r="I433" t="n">
         <v>3175</v>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3157</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15018,7 +15640,9 @@
       <c r="I434" t="n">
         <v>3175</v>
       </c>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3157</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15052,12 +15676,12 @@
         <v>13421.20738927487</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>3177</v>
-      </c>
-      <c r="J435" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3157</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15091,12 +15715,12 @@
         <v>12551.95698927487</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>3177</v>
-      </c>
-      <c r="J436" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3157</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15130,12 +15754,12 @@
         <v>11240.13588927487</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>3175</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3157</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15172,7 +15796,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3157</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15206,12 +15832,12 @@
         <v>11119.02778927487</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>3176</v>
-      </c>
-      <c r="J439" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3157</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15248,7 +15874,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3157</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15285,7 +15913,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3157</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15322,7 +15952,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3157</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15359,7 +15991,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3157</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15396,7 +16030,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3157</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15433,7 +16069,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3157</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15470,7 +16108,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3157</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15507,7 +16147,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3157</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15544,7 +16186,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3157</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15581,7 +16225,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3157</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15618,7 +16264,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3157</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15655,7 +16303,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3157</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15692,7 +16342,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3157</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15729,7 +16381,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3157</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15766,7 +16420,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3157</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15803,7 +16459,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3157</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15840,7 +16498,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3157</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15877,7 +16537,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3157</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15914,7 +16576,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3157</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15951,7 +16615,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3157</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15988,7 +16654,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3157</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16025,7 +16693,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3157</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16062,7 +16732,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3157</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16099,7 +16771,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3157</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16136,7 +16810,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3157</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16173,7 +16849,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3157</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16210,7 +16888,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3157</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16247,7 +16927,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3157</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16284,7 +16966,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3157</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16321,7 +17005,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3157</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16358,7 +17044,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3157</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16395,7 +17083,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3157</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16432,7 +17122,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3157</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16469,7 +17161,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3157</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16506,7 +17200,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3157</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,7 +17239,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3157</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16580,7 +17278,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3157</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16617,7 +17317,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3157</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16654,7 +17356,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3157</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16691,7 +17395,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3157</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16728,7 +17434,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3157</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16765,7 +17473,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3157</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16802,7 +17512,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3157</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16839,7 +17551,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3157</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16876,7 +17590,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3157</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16913,7 +17629,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3157</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16950,7 +17668,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3157</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16987,7 +17707,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3157</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17024,7 +17746,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3157</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17061,7 +17785,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3157</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17098,7 +17824,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3157</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17135,7 +17863,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3157</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17172,7 +17902,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3157</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17209,7 +17941,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3157</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17246,7 +17980,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3157</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17283,7 +18019,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3157</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17320,7 +18058,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3157</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17357,7 +18097,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3157</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17394,7 +18136,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3157</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17431,7 +18175,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3157</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17468,7 +18214,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3157</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17505,7 +18253,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3157</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17542,7 +18292,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3157</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17579,7 +18331,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3157</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17616,7 +18370,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3157</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17653,7 +18409,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3157</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17690,7 +18448,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3157</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17727,7 +18487,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3157</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17764,7 +18526,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3157</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17801,7 +18565,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3157</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17838,7 +18604,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3157</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17875,7 +18643,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3157</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17912,7 +18682,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3157</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17949,7 +18721,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3157</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,7 +18760,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3157</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18023,7 +18799,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3157</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18060,7 +18838,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3157</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18097,7 +18877,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3157</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18134,7 +18916,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3157</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18171,7 +18955,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3157</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18208,7 +18994,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3157</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18245,7 +19033,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3157</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18282,7 +19072,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3157</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18319,7 +19111,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3157</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18356,7 +19150,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>3157</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18393,7 +19189,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3157</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18430,7 +19228,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>3157</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18467,7 +19267,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3157</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18504,7 +19306,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>3157</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18541,7 +19345,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>3157</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18578,7 +19384,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>3157</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18615,7 +19423,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>3157</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18652,7 +19462,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>3157</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18689,7 +19501,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>3157</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18726,7 +19540,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>3157</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18763,7 +19579,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>3157</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18800,7 +19618,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3157</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18837,7 +19657,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3157</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18874,7 +19696,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3157</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18911,7 +19735,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3157</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18948,7 +19774,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3157</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18985,7 +19813,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3157</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19022,7 +19852,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>3157</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19059,7 +19891,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3157</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19096,7 +19930,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>3157</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19133,7 +19969,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3157</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19170,7 +20008,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3157</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19207,7 +20047,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3157</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19244,7 +20086,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3157</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19281,7 +20125,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3157</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19318,7 +20164,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3157</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19355,7 +20203,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3157</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19392,7 +20242,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3157</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19429,7 +20281,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3157</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19466,7 +20320,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3157</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19503,7 +20359,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3157</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19540,7 +20398,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3157</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19577,7 +20437,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3157</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19614,7 +20476,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3157</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19651,7 +20515,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3157</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19688,7 +20554,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3157</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19725,7 +20593,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3157</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19762,7 +20632,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3157</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19799,7 +20671,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3157</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19836,7 +20710,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3157</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19873,7 +20749,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3157</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19910,7 +20788,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3157</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19947,7 +20827,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3157</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19984,7 +20866,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3157</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20021,7 +20905,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3157</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20058,7 +20944,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3157</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20095,7 +20983,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3157</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20132,7 +21022,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>3157</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20169,7 +21061,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3157</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20206,7 +21100,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3157</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20243,7 +21139,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3157</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20280,7 +21178,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3157</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20317,7 +21217,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3157</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20354,7 +21256,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>3157</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20391,7 +21295,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3157</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20428,7 +21334,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>3157</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20465,7 +21373,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3157</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20502,7 +21412,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>3157</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20539,7 +21451,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3157</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20576,7 +21490,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>3157</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20613,7 +21529,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>3157</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20650,7 +21568,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>3157</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20687,7 +21607,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3157</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20724,7 +21646,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3157</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20761,7 +21685,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3157</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20798,7 +21724,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3157</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20835,7 +21763,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3157</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20872,7 +21802,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3157</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20909,7 +21841,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3157</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20946,7 +21880,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3157</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20983,7 +21919,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3157</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21020,7 +21958,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3157</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21057,7 +21997,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3157</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21094,7 +22036,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3157</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21131,7 +22075,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3157</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21168,7 +22114,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3157</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21205,7 +22153,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3157</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21239,17 +22189,19 @@
         <v>41885.7152309639</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3157</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L602" t="n">
-        <v>1</v>
+        <v>1.023191320874248</v>
       </c>
       <c r="M602" t="inlineStr"/>
     </row>
@@ -21276,15 +22228,11 @@
         <v>43162.5415309639</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21313,15 +22261,11 @@
         <v>43162.5415309639</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21350,15 +22294,11 @@
         <v>36143.5161309639</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21387,15 +22327,11 @@
         <v>36143.5161309639</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21424,15 +22360,11 @@
         <v>35227.6242309639</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21461,15 +22393,11 @@
         <v>38245.6220309639</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21498,15 +22426,11 @@
         <v>39083.7570309639</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21535,15 +22459,11 @@
         <v>39130.4839309639</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21572,15 +22492,11 @@
         <v>38209.4471309639</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21609,15 +22525,11 @@
         <v>38222.14713096389</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21646,15 +22558,11 @@
         <v>38205.33553096389</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21683,15 +22591,11 @@
         <v>38205.33553096389</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21720,15 +22624,11 @@
         <v>38329.28053096389</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21757,15 +22657,11 @@
         <v>38659.17173096389</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21794,15 +22690,11 @@
         <v>38659.17173096389</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21831,15 +22723,11 @@
         <v>38454.12793096389</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21868,15 +22756,11 @@
         <v>38462.56693096389</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21905,15 +22789,11 @@
         <v>37888.34973096389</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21942,15 +22822,11 @@
         <v>37586.50663096389</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21979,15 +22855,11 @@
         <v>37164.08623096389</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22016,15 +22888,11 @@
         <v>37164.08623096389</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22053,15 +22921,11 @@
         <v>36613.49743096389</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22090,15 +22954,11 @@
         <v>36473.68303096389</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22127,15 +22987,11 @@
         <v>36506.55823096389</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22164,15 +23020,11 @@
         <v>32277.90833096389</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22201,15 +23053,11 @@
         <v>32242.62823096389</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22242,11 +23090,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22279,11 +23123,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22316,11 +23156,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22349,15 +23185,11 @@
         <v>32480.88513096389</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22386,15 +23218,11 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22423,15 +23251,11 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22460,15 +23284,11 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22497,15 +23317,11 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22534,15 +23350,11 @@
         <v>32418.99030613292</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22571,15 +23383,11 @@
         <v>26456.89410613292</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22608,15 +23416,11 @@
         <v>26247.23080613292</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22649,11 +23453,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22686,11 +23486,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22723,11 +23519,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22760,11 +23552,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22797,11 +23585,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22834,11 +23618,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22871,11 +23651,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22908,11 +23684,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22945,11 +23717,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22982,11 +23750,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23019,11 +23783,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23056,11 +23816,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23093,11 +23849,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23130,11 +23882,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23167,11 +23915,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23204,11 +23948,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23241,11 +23981,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23278,11 +24014,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23315,11 +24047,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23352,11 +24080,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23389,11 +24113,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23426,11 +24146,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23463,11 +24179,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23500,11 +24212,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23537,11 +24245,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23574,11 +24278,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23611,11 +24311,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23648,11 +24344,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23685,11 +24377,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23722,11 +24410,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23759,11 +24443,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23796,11 +24476,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23833,11 +24509,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23870,11 +24542,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23907,11 +24575,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23944,11 +24608,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23981,11 +24641,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24018,11 +24674,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24055,11 +24707,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24092,11 +24740,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24129,11 +24773,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24166,11 +24806,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24203,11 +24839,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24240,11 +24872,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24277,11 +24905,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24314,11 +24938,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24351,11 +24971,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24388,11 +25004,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24425,11 +25037,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24462,11 +25070,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24499,11 +25103,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24536,11 +25136,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24573,11 +25169,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24610,11 +25202,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24647,11 +25235,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24684,11 +25268,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24721,11 +25301,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24758,11 +25334,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24795,11 +25367,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24832,11 +25400,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24869,11 +25433,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24906,11 +25466,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24943,11 +25499,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24980,11 +25532,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25017,11 +25565,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25054,11 +25598,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25091,11 +25631,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25128,11 +25664,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
